--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="339">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -1045,6 +1045,9 @@
   </si>
   <si>
     <t>Ron</t>
+  </si>
+  <si>
+    <t>3471586298</t>
   </si>
 </sst>
 </file>
@@ -3927,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3987,7 +3990,7 @@
         <v>215</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>197</v>
@@ -4449,7 +4452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="343">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Alta Linea Agente</t>
   </si>
   <si>
-    <t>Tom Riddle</t>
-  </si>
-  <si>
     <t>DNI</t>
   </si>
   <si>
@@ -876,9 +873,6 @@
     <t>Pack 5000 Min todo destino</t>
   </si>
   <si>
-    <t>98876765</t>
-  </si>
-  <si>
     <t>35879512</t>
   </si>
   <si>
@@ -1048,6 +1042,24 @@
   </si>
   <si>
     <t>3471586298</t>
+  </si>
+  <si>
+    <t>VISA ARGENTINA S.A. - Cuotas: 1.. 1 Recargo:  0,00</t>
+  </si>
+  <si>
+    <t>BBVA BANCO FRANCES TD</t>
+  </si>
+  <si>
+    <t>ELECTRON</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER RIO S.A.</t>
+  </si>
+  <si>
+    <t>Titular de la tarjeta</t>
   </si>
 </sst>
 </file>
@@ -2032,7 +2044,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2062,46 +2074,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="N1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -2111,10 +2123,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2135,33 +2147,33 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2185,16 +2197,16 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
@@ -2202,16 +2214,16 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -2229,42 +2241,42 @@
         <v>13</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2273,7 +2285,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>2</v>
@@ -2282,54 +2294,54 @@
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="U5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="V5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2338,19 +2350,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2373,28 +2385,28 @@
     </row>
     <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2407,10 +2419,10 @@
     </row>
     <row r="8" spans="1:26" s="28" customFormat="1">
       <c r="A8" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2429,7 +2441,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2453,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -2462,61 +2474,61 @@
         <v>15</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="O9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="X9" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="Y9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2525,42 +2537,42 @@
         <v>12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="N10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2569,93 +2581,93 @@
         <v>12</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>29</v>
-      </c>
       <c r="J11" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="P11" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U11" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="52" t="s">
+      <c r="W11" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="X11" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="34"/>
@@ -2672,13 +2684,13 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2687,35 +2699,35 @@
         <v>12</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="N13" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2724,22 +2736,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2763,16 +2775,16 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -2789,22 +2801,22 @@
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1">
       <c r="A16" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
@@ -2819,7 +2831,7 @@
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -2840,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -2849,13 +2861,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="25"/>
@@ -2873,34 +2885,34 @@
     </row>
     <row r="18" spans="1:26" s="28" customFormat="1">
       <c r="A18" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="31" t="s">
+      <c r="H18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -2911,16 +2923,16 @@
     </row>
     <row r="19" spans="1:26" s="28" customFormat="1">
       <c r="A19" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>10</v>
@@ -2929,25 +2941,25 @@
         <v>12</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="34" t="s">
-        <v>35</v>
-      </c>
       <c r="M19" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
@@ -3285,7 +3297,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3294,48 +3306,48 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="28"/>
@@ -3351,13 +3363,13 @@
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="28"/>
@@ -3373,90 +3385,90 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="G4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="I4" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="G5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="I5" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3480,18 +3492,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3519,57 +3531,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>299</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
       <c r="A2" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="D2" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="F2" s="80" t="s">
         <v>305</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>307</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3579,51 +3591,51 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>305</v>
-      </c>
       <c r="E3" s="79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="78" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B4" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>305</v>
-      </c>
       <c r="E4" s="79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3633,19 +3645,19 @@
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B5" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>305</v>
-      </c>
       <c r="E5" s="79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3656,25 +3668,25 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B6" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="78" t="s">
+      <c r="E6" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="E6" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>307</v>
-      </c>
       <c r="G6" s="80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
@@ -3683,74 +3695,74 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="78" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>305</v>
-      </c>
       <c r="E7" s="79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="17.399999999999999">
       <c r="A8" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B8" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>305</v>
-      </c>
       <c r="E8" s="79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B9" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>305</v>
-      </c>
       <c r="E9" s="79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3760,22 +3772,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
       <c r="A10" s="83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B10" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3785,47 +3797,47 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B12" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="E12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3835,25 +3847,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B13" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -3882,21 +3894,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -3904,21 +3916,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3930,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3945,13 +3957,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -3975,49 +3987,49 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="13.8" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="62">
         <v>1524</v>
@@ -4029,37 +4041,37 @@
     </row>
     <row r="3" spans="1:14" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>198</v>
-      </c>
       <c r="E3" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="62">
         <v>1524</v>
@@ -4071,28 +4083,28 @@
     </row>
     <row r="4" spans="1:14" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="E4" s="62" t="s">
         <v>218</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>219</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -4103,37 +4115,37 @@
     </row>
     <row r="5" spans="1:14" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>198</v>
-      </c>
       <c r="E5" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="62">
         <v>1524</v>
@@ -4145,40 +4157,40 @@
     </row>
     <row r="6" spans="1:14" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="D6" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="62">
         <v>1524</v>
@@ -4189,19 +4201,19 @@
     </row>
     <row r="7" spans="1:14" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -4215,28 +4227,28 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>226</v>
-      </c>
       <c r="D8" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -4247,50 +4259,50 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>231</v>
-      </c>
       <c r="E9" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="34" t="s">
-        <v>35</v>
-      </c>
       <c r="M9" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="13.8" thickBot="1">
       <c r="A10" s="41"/>
       <c r="B10" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4351,7 +4363,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
@@ -4359,15 +4371,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>0</v>
@@ -4375,15 +4387,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="94" t="s">
         <v>0</v>
@@ -4391,15 +4403,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>0</v>
@@ -4407,15 +4419,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>254</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="90">
         <v>30998801</v>
@@ -4453,7 +4465,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4465,151 +4477,151 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3" s="90"/>
     </row>
     <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="86" t="s">
         <v>257</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>258</v>
       </c>
       <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="86" t="s">
         <v>212</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>213</v>
       </c>
       <c r="D6" s="90"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="90"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>212</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>213</v>
       </c>
       <c r="D8" s="90"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="90"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D10" s="90"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="90"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D12" s="90"/>
     </row>
     <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>0</v>
@@ -4621,25 +4633,25 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="90"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="89" t="s">
         <v>210</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>211</v>
       </c>
       <c r="D15" s="90"/>
     </row>
@@ -4679,7 +4691,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4694,16 +4706,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="96" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>125</v>
       </c>
       <c r="E1" s="97"/>
       <c r="F1" s="98"/>
@@ -4712,13 +4724,13 @@
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A2" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="99"/>
@@ -4728,16 +4740,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="100"/>
@@ -4746,16 +4758,16 @@
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="99"/>
       <c r="F4" s="100"/>
@@ -4764,16 +4776,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -4782,13 +4794,13 @@
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>3</v>
@@ -4800,10 +4812,10 @@
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999">
       <c r="A7" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>281</v>
+        <v>194</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>329</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="90"/>
@@ -4814,16 +4826,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="90"/>
@@ -4832,7 +4844,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>0</v>
@@ -4841,7 +4853,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
@@ -4850,16 +4862,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>332</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>334</v>
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
@@ -4868,7 +4880,7 @@
     </row>
     <row r="11" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>0</v>
@@ -4884,10 +4896,10 @@
     </row>
     <row r="12" spans="1:8" s="41" customFormat="1">
       <c r="A12" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
@@ -4898,19 +4910,19 @@
     </row>
     <row r="13" spans="1:8" s="41" customFormat="1" ht="15">
       <c r="A13" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="86" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
@@ -4918,13 +4930,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="96" t="s">
         <v>3</v>
@@ -4933,63 +4945,63 @@
         <v>4</v>
       </c>
       <c r="F14" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="H14" s="93" t="s">
         <v>185</v>
-      </c>
-      <c r="H14" s="93" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F15" s="86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>188</v>
-      </c>
       <c r="C16" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>190</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5019,7 +5031,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -5028,10 +5040,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -5039,10 +5051,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="113">
         <v>1161138551</v>
@@ -5054,10 +5066,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="113"/>
       <c r="E3" s="113">
@@ -5066,164 +5078,164 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="113"/>
       <c r="E5" s="114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="114"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="113"/>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="113"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="113"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="114"/>
       <c r="E10" s="114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="114" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="112" t="s">
-        <v>203</v>
-      </c>
       <c r="C13" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="112" t="s">
-        <v>203</v>
-      </c>
       <c r="C14" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="113"/>
     </row>
@@ -5286,7 +5298,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5295,54 +5307,54 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
@@ -5358,16 +5370,16 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
@@ -5383,16 +5395,16 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="117"/>
       <c r="F4" s="86"/>
@@ -5408,16 +5420,16 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -5433,16 +5445,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="119" t="s">
-        <v>211</v>
-      </c>
       <c r="D6" s="86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -5458,22 +5470,22 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -5485,28 +5497,28 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="120" t="s">
-        <v>251</v>
-      </c>
       <c r="H8" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -5518,25 +5530,25 @@
     </row>
     <row r="9" spans="1:15" ht="15.6" thickBot="1">
       <c r="A9" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="120" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>251</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="90"/>
@@ -5549,143 +5561,143 @@
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
       <c r="A10" s="134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="G10" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="H10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="118" t="s">
-        <v>252</v>
       </c>
       <c r="J10" s="122">
         <v>6</v>
       </c>
       <c r="K10" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M10" s="123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O10" s="124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="120" t="s">
+      <c r="H11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="118" t="s">
-        <v>252</v>
       </c>
       <c r="J11" s="122">
         <v>6</v>
       </c>
       <c r="K11" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O11" s="124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="120" t="s">
+      <c r="H12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="118" t="s">
-        <v>252</v>
       </c>
       <c r="J12" s="122">
         <v>6</v>
       </c>
       <c r="K12" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O12" s="124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5706,8 +5718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5717,64 +5729,65 @@
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="9" t="s">
-        <v>104</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
       <c r="A2" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
@@ -5788,85 +5801,83 @@
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="118" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="M3" s="116" t="s">
-        <v>20</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="116" t="s">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="G4" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="125">
-        <v>1</v>
-      </c>
-      <c r="I4" s="125">
-        <v>2019</v>
-      </c>
-      <c r="J4" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="125">
-        <v>19784521</v>
-      </c>
-      <c r="M4" s="125" t="s">
-        <v>83</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="108"/>
@@ -5882,6 +5893,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5910,7 +5922,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
       <c r="A1" s="133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5919,37 +5931,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O1" s="9"/>
       <c r="P1" s="3"/>
@@ -5959,13 +5971,13 @@
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="126"/>
       <c r="E2" s="125"/>
@@ -5986,13 +5998,13 @@
     </row>
     <row r="3" spans="1:19" ht="15">
       <c r="A3" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="126"/>
       <c r="E3" s="125"/>
@@ -6013,13 +6025,13 @@
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="129" t="s">
-        <v>245</v>
-      </c>
       <c r="C4" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="126"/>
       <c r="E4" s="125"/>
@@ -6040,79 +6052,79 @@
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="130" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="H5" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="I5" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="J5" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="K5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="118" t="s">
-        <v>252</v>
-      </c>
       <c r="M5" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P5" s="132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="132">
         <v>33332010</v>
       </c>
       <c r="R5" s="135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S5" s="136"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="130" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:19">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="341">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Ajustes PRE</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>HSBC BANK ARGENTINA S.A.</t>
   </si>
   <si>
@@ -597,9 +594,6 @@
     <t>11322145</t>
   </si>
   <si>
-    <t>12345670</t>
-  </si>
-  <si>
     <t>Pato</t>
   </si>
   <si>
@@ -873,12 +867,6 @@
     <t>Pack 5000 Min todo destino</t>
   </si>
   <si>
-    <t>35879512</t>
-  </si>
-  <si>
-    <t>2932523247</t>
-  </si>
-  <si>
     <t>no esta</t>
   </si>
   <si>
@@ -1053,13 +1041,19 @@
     <t>ELECTRON</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>BANCO SANTANDER RIO S.A.</t>
   </si>
   <si>
     <t>Titular de la tarjeta</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>uat.fan@gmail.com</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1387,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1730,6 +1724,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2044,7 +2041,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2074,46 +2071,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="N1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -2147,7 +2144,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>33</v>
@@ -2197,7 +2194,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>33</v>
@@ -2270,7 +2267,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -2306,19 +2303,19 @@
         <v>34</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>67</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>38</v>
@@ -2336,12 +2333,12 @@
         <v>64</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2350,19 +2347,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2388,25 +2385,25 @@
         <v>66</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2422,7 +2419,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2441,7 +2438,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2465,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -2474,46 +2471,46 @@
         <v>15</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="O9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="X9" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="Y9" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z9" s="3"/>
     </row>
@@ -2522,7 +2519,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -2543,13 +2540,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>33</v>
@@ -2590,37 +2587,37 @@
         <v>28</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O11" s="27" t="s">
         <v>34</v>
       </c>
       <c r="P11" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U11" s="52" t="s">
         <v>38</v>
@@ -2640,10 +2637,10 @@
     </row>
     <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>65</v>
@@ -2652,22 +2649,22 @@
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>86</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="34"/>
@@ -2705,13 +2702,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>33</v>
@@ -2727,7 +2724,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2736,22 +2733,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2778,13 +2775,13 @@
         <v>43</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -2804,13 +2801,13 @@
         <v>72</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>27</v>
@@ -2831,7 +2828,7 @@
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -2852,7 +2849,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -2861,13 +2858,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="25"/>
@@ -2885,16 +2882,16 @@
     </row>
     <row r="18" spans="1:26" s="28" customFormat="1">
       <c r="A18" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>67</v>
@@ -2923,7 +2920,7 @@
     </row>
     <row r="19" spans="1:26" s="28" customFormat="1">
       <c r="A19" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>59</v>
@@ -2950,7 +2947,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>33</v>
@@ -3297,7 +3294,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3306,37 +3303,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -3344,10 +3341,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="28"/>
@@ -3366,10 +3363,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="28"/>
@@ -3385,37 +3382,37 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="70" t="s">
         <v>248</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>250</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>70</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>20</v>
@@ -3424,42 +3421,42 @@
         <v>64</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="70" t="s">
         <v>248</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>250</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>70</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>20</v>
@@ -3468,7 +3465,7 @@
         <v>64</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3492,18 +3489,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3531,57 +3528,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>295</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
       <c r="A2" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="F2" s="80" t="s">
         <v>301</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>305</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3591,51 +3588,51 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D3" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="80" t="s">
         <v>303</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>307</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3645,19 +3642,19 @@
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="78" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3668,25 +3665,25 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="78" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B6" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>305</v>
-      </c>
       <c r="G6" s="80" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
@@ -3695,19 +3692,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="78" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
@@ -3720,49 +3717,49 @@
     </row>
     <row r="8" spans="1:11" ht="17.399999999999999">
       <c r="A8" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="79" t="s">
         <v>300</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>304</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="78" t="s">
+      <c r="F9" s="80" t="s">
         <v>303</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>307</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3772,22 +3769,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
       <c r="A10" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3797,19 +3794,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
@@ -3822,22 +3819,22 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3847,19 +3844,19 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
@@ -3894,21 +3891,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -3916,21 +3913,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +3954,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -3987,28 +3984,28 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="13.8" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E2" s="62" t="s">
         <v>65</v>
@@ -4017,16 +4014,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="62" t="s">
         <v>33</v>
@@ -4041,16 +4038,16 @@
     </row>
     <row r="3" spans="1:14" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>65</v>
@@ -4059,16 +4056,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K3" s="62" t="s">
         <v>33</v>
@@ -4083,28 +4080,28 @@
     </row>
     <row r="4" spans="1:14" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>218</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -4115,16 +4112,16 @@
     </row>
     <row r="5" spans="1:14" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>65</v>
@@ -4133,16 +4130,16 @@
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5" s="62" t="s">
         <v>33</v>
@@ -4157,16 +4154,16 @@
     </row>
     <row r="6" spans="1:14" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>65</v>
@@ -4175,19 +4172,19 @@
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>33</v>
@@ -4201,19 +4198,19 @@
     </row>
     <row r="7" spans="1:14" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -4227,28 +4224,28 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>225</v>
-      </c>
       <c r="D8" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -4259,16 +4256,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>228</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>230</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>65</v>
@@ -4277,16 +4274,16 @@
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" s="34" t="s">
         <v>33</v>
@@ -4302,7 +4299,7 @@
     <row r="10" spans="1:14" ht="13.8" thickBot="1">
       <c r="A10" s="41"/>
       <c r="B10" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4363,7 +4360,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
@@ -4371,15 +4368,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>0</v>
@@ -4387,15 +4384,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="94" t="s">
         <v>0</v>
@@ -4403,15 +4400,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>0</v>
@@ -4419,15 +4416,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="90">
         <v>30998801</v>
@@ -4477,13 +4474,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" s="90"/>
     </row>
@@ -4492,10 +4489,10 @@
         <v>77</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D2" s="90"/>
     </row>
@@ -4504,124 +4501,124 @@
         <v>76</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D3" s="90"/>
     </row>
     <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>255</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>257</v>
       </c>
       <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D6" s="90"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7" s="90"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="108" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D8" s="90"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="107" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="90"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D10" s="90"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D11" s="90"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D12" s="90"/>
     </row>
     <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>0</v>
@@ -4636,10 +4633,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="90"/>
     </row>
@@ -4648,10 +4645,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="90"/>
     </row>
@@ -4690,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4706,16 +4703,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="96" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>124</v>
       </c>
       <c r="E1" s="97"/>
       <c r="F1" s="98"/>
@@ -4727,10 +4724,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="99"/>
@@ -4740,7 +4737,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>60</v>
@@ -4758,7 +4755,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>60</v>
@@ -4776,7 +4773,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>60</v>
@@ -4794,13 +4791,13 @@
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>3</v>
@@ -4812,10 +4809,10 @@
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999">
       <c r="A7" s="108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="90"/>
@@ -4826,16 +4823,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>329</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>333</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="90"/>
@@ -4844,7 +4841,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>0</v>
@@ -4853,7 +4850,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
@@ -4862,16 +4859,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
@@ -4880,7 +4877,7 @@
     </row>
     <row r="11" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>0</v>
@@ -4899,7 +4896,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="13" spans="1:8" s="41" customFormat="1" ht="15">
       <c r="A13" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>60</v>
@@ -4919,10 +4916,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="86" t="s">
         <v>141</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>142</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
@@ -4930,13 +4927,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="96" t="s">
         <v>3</v>
@@ -4945,69 +4942,72 @@
         <v>4</v>
       </c>
       <c r="F14" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="H14" s="93" t="s">
         <v>184</v>
-      </c>
-      <c r="H14" s="93" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="H15" s="90"/>
+      <c r="H15" s="137" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="C16" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="90" t="s">
+      <c r="E16" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>191</v>
-      </c>
       <c r="G16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="108"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5031,7 +5031,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -5040,10 +5040,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -5051,10 +5051,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="112" t="s">
         <v>196</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>198</v>
       </c>
       <c r="D2" s="113">
         <v>1161138551</v>
@@ -5066,10 +5066,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="112" t="s">
         <v>196</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>198</v>
       </c>
       <c r="D3" s="113"/>
       <c r="E3" s="113">
@@ -5078,58 +5078,58 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="112" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" s="114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="112" t="s">
         <v>196</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>198</v>
       </c>
       <c r="D5" s="113"/>
       <c r="E5" s="114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="112" t="s">
-        <v>198</v>
-      </c>
       <c r="D6" s="114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="114"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="112" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>198</v>
       </c>
       <c r="D7" s="114" t="s">
         <v>69</v>
@@ -5138,101 +5138,101 @@
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="112" t="s">
         <v>196</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>198</v>
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="113"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>203</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>205</v>
       </c>
       <c r="E9" s="113"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="114"/>
       <c r="E10" s="114" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="C11" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="112" t="s">
-        <v>204</v>
-      </c>
       <c r="D11" s="114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="C12" s="112" t="s">
         <v>202</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>204</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="112" t="s">
-        <v>204</v>
-      </c>
       <c r="D13" s="114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="112" t="s">
         <v>202</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>204</v>
       </c>
       <c r="D14" s="113" t="s">
         <v>69</v>
@@ -5298,7 +5298,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5307,51 +5307,51 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="86" t="s">
         <v>42</v>
@@ -5370,16 +5370,16 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
@@ -5395,13 +5395,13 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="86" t="s">
         <v>42</v>
@@ -5420,16 +5420,16 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -5445,16 +5445,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -5470,16 +5470,16 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
@@ -5497,25 +5497,25 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="120" t="s">
         <v>248</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="120" t="s">
-        <v>250</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>41</v>
@@ -5530,25 +5530,25 @@
     </row>
     <row r="9" spans="1:15" ht="15.6" thickBot="1">
       <c r="A9" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="120" t="s">
         <v>248</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>250</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="90"/>
@@ -5561,31 +5561,31 @@
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
       <c r="A10" s="134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="120" t="s">
         <v>248</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="120" t="s">
-        <v>250</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J10" s="122">
         <v>6</v>
@@ -5594,45 +5594,45 @@
         <v>70</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M10" s="123" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O10" s="124" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="120" t="s">
         <v>248</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>250</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J11" s="122">
         <v>6</v>
@@ -5641,45 +5641,45 @@
         <v>70</v>
       </c>
       <c r="L11" s="116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O11" s="124" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E12" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="120" t="s">
         <v>248</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>250</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J12" s="122">
         <v>6</v>
@@ -5688,16 +5688,16 @@
         <v>70</v>
       </c>
       <c r="L12" s="116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O12" s="124" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5719,7 +5719,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5737,43 +5737,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="M1" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
@@ -5781,13 +5781,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
@@ -5801,31 +5801,31 @@
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>196</v>
+        <v>88</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>325</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>38</v>
@@ -5837,30 +5837,30 @@
         <v>40</v>
       </c>
       <c r="M3" s="116" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>196</v>
+        <v>79</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>325</v>
       </c>
       <c r="C4" s="116" t="s">
         <v>340</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E4" s="116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="116" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G4" s="116" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H4" s="116" t="s">
         <v>41</v>
@@ -5922,7 +5922,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
       <c r="A1" s="133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5931,37 +5931,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O1" s="9"/>
       <c r="P1" s="3"/>
@@ -5971,13 +5971,13 @@
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="126"/>
       <c r="E2" s="125"/>
@@ -5998,13 +5998,13 @@
     </row>
     <row r="3" spans="1:19" ht="15">
       <c r="A3" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="126"/>
       <c r="E3" s="125"/>
@@ -6025,13 +6025,13 @@
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4" s="126"/>
       <c r="E4" s="125"/>
@@ -6052,49 +6052,49 @@
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" s="129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="130" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="I5" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="J5" s="120" t="s">
         <v>248</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="120" t="s">
-        <v>250</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>70</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P5" s="132" t="s">
         <v>20</v>
@@ -6103,28 +6103,28 @@
         <v>33332010</v>
       </c>
       <c r="R5" s="135" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S5" s="136"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" s="130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:19">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -1719,14 +1719,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3512,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3709,8 +3709,8 @@
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
-      <c r="I7" s="7" t="s">
-        <v>69</v>
+      <c r="I7" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
@@ -3811,8 +3811,8 @@
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="7" t="s">
-        <v>69</v>
+      <c r="I11" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
@@ -4971,7 +4971,7 @@
       <c r="G15" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="H15" s="137" t="s">
+      <c r="H15" s="135" t="s">
         <v>339</v>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:A12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5718,7 +5718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6102,10 +6102,10 @@
       <c r="Q5" s="132">
         <v>33332010</v>
       </c>
-      <c r="R5" s="135" t="s">
+      <c r="R5" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="S5" s="136"/>
+      <c r="S5" s="137"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="108" t="s">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -930,12 +930,6 @@
     <t>SerialConDepositoErroneo</t>
   </si>
   <si>
-    <t>BAS-VJP-BAHIA BLANCA - VJP Punta Alta</t>
-  </si>
-  <si>
-    <t>2477</t>
-  </si>
-  <si>
     <t>89543999021990184726</t>
   </si>
   <si>
@@ -1054,6 +1048,12 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>2932</t>
+  </si>
+  <si>
+    <t>PREACTIVE MAS FUERTE QUE TENGO UNA TOALLA - Punto Telecom</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1387,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1727,6 +1727,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3512,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3521,7 +3524,7 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.88671875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3561,7 +3564,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="78" t="s">
         <v>296</v>
       </c>
@@ -3571,14 +3574,14 @@
       <c r="C2" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="80" t="s">
         <v>299</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>301</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3586,53 +3589,53 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickBot="1">
+    <row r="3" spans="1:11" ht="27" thickBot="1">
       <c r="A3" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>297</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" thickBot="1">
+      <c r="A4" s="78" t="s">
         <v>304</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="78" t="s">
-        <v>306</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>297</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>299</v>
+        <v>304</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3640,21 +3643,21 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" ht="27" thickBot="1">
       <c r="A5" s="78" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>297</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>299</v>
+        <v>306</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3663,59 +3666,59 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" ht="27" thickBot="1">
       <c r="A6" s="78" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>297</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="E6" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>301</v>
-      </c>
       <c r="G6" s="80" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="27" thickBot="1">
       <c r="A7" s="78" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>297</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>299</v>
+        <v>310</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="6" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="17.399999999999999">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="78" t="s">
         <v>296</v>
       </c>
@@ -3723,26 +3726,26 @@
         <v>297</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>299</v>
+        <v>311</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11" ht="27" thickBot="1">
       <c r="A9" s="78" t="s">
         <v>296</v>
       </c>
@@ -3750,16 +3753,16 @@
         <v>297</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="D9" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3767,7 +3770,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1">
+    <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="83" t="s">
         <v>296</v>
       </c>
@@ -3775,16 +3778,16 @@
         <v>297</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3792,7 +3795,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="27" thickBot="1">
       <c r="A11" s="41" t="s">
         <v>296</v>
       </c>
@@ -3800,24 +3803,24 @@
         <v>297</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
+      </c>
+      <c r="D11" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>339</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="6" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="27" thickBot="1">
       <c r="A12" s="41" t="s">
         <v>296</v>
       </c>
@@ -3825,16 +3828,16 @@
         <v>297</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3842,7 +3845,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="27" thickBot="1">
       <c r="A13" s="41" t="s">
         <v>296</v>
       </c>
@@ -3850,13 +3853,13 @@
         <v>297</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>339</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
@@ -3916,13 +3919,13 @@
         <v>240</v>
       </c>
       <c r="B3" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3939,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3999,7 +4002,7 @@
         <v>212</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>207</v>
@@ -4489,10 +4492,10 @@
         <v>77</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" s="90"/>
     </row>
@@ -4501,10 +4504,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D3" s="90"/>
     </row>
@@ -4585,10 +4588,10 @@
         <v>260</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D10" s="90"/>
     </row>
@@ -4609,10 +4612,10 @@
         <v>258</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D12" s="90"/>
     </row>
@@ -4724,10 +4727,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="99"/>
@@ -4812,7 +4815,7 @@
         <v>192</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="90"/>
@@ -4826,13 +4829,13 @@
         <v>193</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="90"/>
@@ -4850,7 +4853,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
@@ -4862,13 +4865,13 @@
         <v>173</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>326</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>328</v>
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
@@ -4956,23 +4959,23 @@
         <v>179</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="91" t="s">
         <v>328</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>331</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>330</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H15" s="135" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5773,7 +5776,7 @@
         <v>101</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
@@ -5781,13 +5784,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
@@ -5804,22 +5807,22 @@
         <v>88</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>41</v>
@@ -5837,7 +5840,7 @@
         <v>40</v>
       </c>
       <c r="M3" s="116" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
@@ -5845,22 +5848,22 @@
         <v>79</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E4" s="116" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="116" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G4" s="116" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H4" s="116" t="s">
         <v>41</v>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="dni" sheetId="14" r:id="rId3"/>
     <sheet name="dni linea" sheetId="15" r:id="rId4"/>
     <sheet name="clientes" sheetId="16" r:id="rId5"/>
-    <sheet name="numeros amigos" sheetId="20" r:id="rId6"/>
-    <sheet name="venta de pack" sheetId="17" r:id="rId7"/>
-    <sheet name="recargas" sheetId="18" r:id="rId8"/>
+    <sheet name="recargas" sheetId="18" r:id="rId6"/>
+    <sheet name="numeros amigos" sheetId="20" r:id="rId7"/>
+    <sheet name="venta de pack" sheetId="17" r:id="rId8"/>
     <sheet name="cambio de simcard" sheetId="19" r:id="rId9"/>
     <sheet name="renovacion" sheetId="12" r:id="rId10"/>
     <sheet name="befan" sheetId="22" r:id="rId11"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="361">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -138,12 +138,6 @@
     <t>1524</t>
   </si>
   <si>
-    <t>aaaaaMalan</t>
-  </si>
-  <si>
-    <t>59885136</t>
-  </si>
-  <si>
     <t>FUNCIONAL0%</t>
   </si>
   <si>
@@ -183,15 +177,6 @@
     <t>Alta Linea AG TC</t>
   </si>
   <si>
-    <t>59885428</t>
-  </si>
-  <si>
-    <t>Octavio</t>
-  </si>
-  <si>
-    <t>Enefe</t>
-  </si>
-  <si>
     <t>Alfil</t>
   </si>
   <si>
@@ -735,18 +720,9 @@
     <t>2932443385</t>
   </si>
   <si>
-    <t>2932478762</t>
-  </si>
-  <si>
-    <t>132869547</t>
-  </si>
-  <si>
     <t>15/02/2010</t>
   </si>
   <si>
-    <t>20/10/2019</t>
-  </si>
-  <si>
     <t>Gestion Historia De  Recarga</t>
   </si>
   <si>
@@ -1011,21 +987,9 @@
     <t>Accountkey</t>
   </si>
   <si>
-    <t>3000000106910001</t>
-  </si>
-  <si>
     <t>Ron Harward</t>
   </si>
   <si>
-    <t>Harward</t>
-  </si>
-  <si>
-    <t>Ron</t>
-  </si>
-  <si>
-    <t>3471586298</t>
-  </si>
-  <si>
     <t>VISA ARGENTINA S.A. - Cuotas: 1.. 1 Recargo:  0,00</t>
   </si>
   <si>
@@ -1044,9 +1008,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>uat.fan@gmail.com</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -1054,13 +1015,112 @@
   </si>
   <si>
     <t>PREACTIVE MAS FUERTE QUE TENGO UNA TOALLA - Punto Telecom</t>
+  </si>
+  <si>
+    <t>PUNTA ALTA ALTE SOLIER</t>
+  </si>
+  <si>
+    <t>Josangela</t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Altura</t>
+  </si>
+  <si>
+    <t>CodPost</t>
+  </si>
+  <si>
+    <t>Tipo Domicilio</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>URBANA</t>
+  </si>
+  <si>
+    <t>395474125</t>
+  </si>
+  <si>
+    <t>pasa</t>
+  </si>
+  <si>
+    <t>portito</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>2932562036</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Tipo de Zona</t>
+  </si>
+  <si>
+    <t>5425</t>
+  </si>
+  <si>
+    <t>Tipo de Domicilio</t>
+  </si>
+  <si>
+    <t>33333022</t>
+  </si>
+  <si>
+    <t>Tipo de Entrega</t>
+  </si>
+  <si>
+    <t>95850890</t>
+  </si>
+  <si>
+    <t>2932563531</t>
+  </si>
+  <si>
+    <t>8000000082410001</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Pasquier</t>
+  </si>
+  <si>
+    <t>RamonPasquier</t>
+  </si>
+  <si>
+    <t>laskdkadsas@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramon Pasquier</t>
+  </si>
+  <si>
+    <t>2932561017</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>32328505</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1165,12 +1225,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF090909"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Quattrocento Sans"/>
     </font>
@@ -1182,12 +1236,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1387,7 +1435,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,10 +1585,10 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,7 +1601,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1563,24 +1611,18 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1623,7 +1665,7 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1671,7 +1713,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1707,7 +1749,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,17 +1761,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2021,13 +2064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="J2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="5" width="19.44140625" customWidth="1"/>
@@ -2044,7 +2087,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2068,70 +2111,68 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>133</v>
+      <c r="L1" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:26" s="41" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2143,39 +2184,38 @@
       <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="O2" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -2197,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>33</v>
@@ -2208,22 +2248,28 @@
       <c r="M3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="N3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -2240,8 +2286,8 @@
       <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>56</v>
+      <c r="J4" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>33</v>
@@ -2252,31 +2298,22 @@
       <c r="M4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2285,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>2</v>
@@ -2294,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>33</v>
@@ -2306,42 +2343,42 @@
         <v>34</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2350,19 +2387,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2385,28 +2422,28 @@
     </row>
     <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2422,7 +2459,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2441,7 +2478,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2465,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -2474,61 +2511,61 @@
         <v>15</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="Y9" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2537,19 +2574,19 @@
         <v>12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>33</v>
@@ -2565,14 +2602,14 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2581,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="47" t="s">
         <v>27</v>
@@ -2590,84 +2627,84 @@
         <v>28</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O11" s="27" t="s">
         <v>34</v>
       </c>
       <c r="P11" s="50" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T11" s="51" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="U11" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="52" t="s">
         <v>38</v>
-      </c>
-      <c r="V11" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="52" t="s">
-        <v>40</v>
       </c>
       <c r="X11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="Y11" s="53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="34"/>
@@ -2684,13 +2721,13 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2699,19 +2736,19 @@
         <v>12</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>33</v>
@@ -2727,7 +2764,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2736,22 +2773,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2775,16 +2812,16 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -2801,16 +2838,16 @@
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1">
       <c r="A16" s="35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>27</v>
@@ -2831,7 +2868,7 @@
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -2852,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -2861,13 +2898,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="25"/>
@@ -2885,34 +2922,34 @@
     </row>
     <row r="18" spans="1:26" s="28" customFormat="1">
       <c r="A18" s="35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -2923,16 +2960,16 @@
     </row>
     <row r="19" spans="1:26" s="28" customFormat="1">
       <c r="A19" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>10</v>
@@ -2941,16 +2978,16 @@
         <v>12</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>33</v>
@@ -3260,15 +3297,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4" display="malannominacion@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G11" r:id="rId7"/>
-    <hyperlink ref="G12" r:id="rId8"/>
-    <hyperlink ref="G19" r:id="rId9"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3" display="malannominacion@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId7"/>
+    <hyperlink ref="G19" r:id="rId8"/>
+    <hyperlink ref="G2" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -3279,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3297,7 +3334,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3306,37 +3343,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -3344,10 +3381,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="28"/>
@@ -3366,10 +3403,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="28"/>
@@ -3385,90 +3422,90 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3492,18 +3529,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3516,7 +3553,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3531,57 +3568,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="77" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.6" thickBot="1">
+      <c r="A2" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="D2" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="80" t="s">
         <v>291</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
-      <c r="A2" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="138" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>299</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3589,53 +3626,53 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="27" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="138" t="s">
-        <v>340</v>
+        <v>292</v>
+      </c>
+      <c r="D3" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" thickBot="1">
       <c r="A4" s="78" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B4" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="80" t="s">
         <v>297</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="138" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>305</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3643,21 +3680,21 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="27" thickBot="1">
+    <row r="5" spans="1:11" ht="15.6" thickBot="1">
       <c r="A5" s="78" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="138" t="s">
-        <v>340</v>
+        <v>298</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3666,103 +3703,103 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="27" thickBot="1">
+    <row r="6" spans="1:11" ht="15.6" thickBot="1">
       <c r="A6" s="78" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="138" t="s">
-        <v>340</v>
+        <v>299</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="27" thickBot="1">
+    <row r="7" spans="1:11" ht="13.8" thickBot="1">
       <c r="A7" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="138" t="s">
-        <v>340</v>
+        <v>302</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="6" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="18" thickBot="1">
       <c r="A8" s="78" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="138" t="s">
-        <v>340</v>
+        <v>303</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="27" thickBot="1">
+    <row r="9" spans="1:11" ht="15.6" thickBot="1">
       <c r="A9" s="78" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="138" t="s">
-        <v>340</v>
+        <v>292</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3772,22 +3809,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="83" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="138" t="s">
-        <v>340</v>
+        <v>306</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3795,49 +3832,49 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
+    <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="41" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="138" t="s">
-        <v>340</v>
+        <v>301</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="27" thickBot="1">
+    <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="41" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" s="138" t="s">
-        <v>340</v>
+        <v>308</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3845,27 +3882,27 @@
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="27" thickBot="1">
+    <row r="13" spans="1:11" ht="13.8" thickBot="1">
       <c r="A13" s="41" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="138" t="s">
-        <v>340</v>
+        <v>311</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>327</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -3894,21 +3931,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -3916,21 +3953,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3940,9 +3977,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3952,12 +3989,13 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="11" max="11" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" thickBot="1">
+    <row r="1" spans="1:16" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -3965,110 +4003,126 @@
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.8" thickBot="1">
+        <v>126</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13.8" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="62" t="s">
+      <c r="G2" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="62">
-        <v>1524</v>
-      </c>
-      <c r="M2" s="62">
-        <v>1524</v>
-      </c>
-      <c r="N2" s="62"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.8" thickBot="1">
+      <c r="N2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K3" s="62" t="s">
         <v>33</v>
@@ -4081,30 +4135,30 @@
       </c>
       <c r="N3" s="62"/>
     </row>
-    <row r="4" spans="1:14" ht="13.8" thickBot="1">
+    <row r="4" spans="1:16" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -4113,36 +4167,36 @@
       <c r="M4" s="62"/>
       <c r="N4" s="62"/>
     </row>
-    <row r="5" spans="1:14" ht="13.8" thickBot="1">
+    <row r="5" spans="1:16" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K5" s="62" t="s">
         <v>33</v>
@@ -4155,65 +4209,71 @@
       </c>
       <c r="N5" s="62"/>
     </row>
-    <row r="6" spans="1:14" ht="13.8" thickBot="1">
+    <row r="6" spans="1:16" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>224</v>
+      <c r="G6" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="L6" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="M6" s="62" t="s">
         <v>33</v>
-      </c>
-      <c r="M6" s="62">
-        <v>1524</v>
       </c>
       <c r="N6" s="62">
         <v>1524</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="13.8" thickBot="1">
+      <c r="O6" s="62">
+        <v>1524</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -4225,30 +4285,30 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="66" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -4257,36 +4317,36 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="66" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K9" s="34" t="s">
         <v>33</v>
@@ -4299,10 +4359,10 @@
       </c>
       <c r="N9" s="34"/>
     </row>
-    <row r="10" spans="1:14" ht="13.8" thickBot="1">
+    <row r="10" spans="1:16" ht="13.8" thickBot="1">
       <c r="A10" s="41"/>
       <c r="B10" s="41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4317,7 +4377,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:14" ht="13.8" thickBot="1">
+    <row r="11" spans="1:16" ht="13.8" thickBot="1">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -4335,15 +4395,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="I2" r:id="rId1" display="mailto:Torrecaida@gmail.com"/>
     <hyperlink ref="H3" r:id="rId2" display="mailto:Torrecaida@gmail.com"/>
     <hyperlink ref="H4" r:id="rId3" display="mailto:Nodocnominado@gmail.com"/>
     <hyperlink ref="H5" r:id="rId4" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="I6" r:id="rId5" display="mailto:Nominacionautoma@gmail.com"/>
-    <hyperlink ref="H8" r:id="rId6"/>
-    <hyperlink ref="H9" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7" display="mailto:Nominacionautoma@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4352,7 +4413,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4363,73 +4424,73 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="109" t="s">
-        <v>142</v>
+      <c r="A2" s="107" t="s">
+        <v>137</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="109" t="s">
-        <v>143</v>
+      <c r="A4" s="107" t="s">
+        <v>138</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="109" t="s">
-        <v>160</v>
+      <c r="A6" s="107" t="s">
+        <v>155</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="90">
+      <c r="A9" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="88">
         <v>30998801</v>
       </c>
     </row>
@@ -4442,17 +4503,17 @@
       <c r="B11" s="86"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="110"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="88"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="90"/>
+      <c r="B13" s="88"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="90"/>
+      <c r="B14" s="88"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="90"/>
+      <c r="B15" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4465,7 +4526,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4477,209 +4538,209 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="90"/>
+      <c r="C1" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="90"/>
+        <v>316</v>
+      </c>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="90"/>
+        <v>316</v>
+      </c>
+      <c r="D3" s="88"/>
     </row>
     <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="90"/>
+      <c r="C4" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="90"/>
+        <v>247</v>
+      </c>
+      <c r="D5" s="88"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="90"/>
+        <v>205</v>
+      </c>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="90"/>
+      <c r="C7" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="88"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="108" t="s">
-        <v>232</v>
+      <c r="A8" s="106" t="s">
+        <v>227</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="90"/>
+        <v>205</v>
+      </c>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
-      <c r="A9" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="94" t="s">
+      <c r="A9" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="90"/>
+      <c r="C9" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="88"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>323</v>
+      <c r="A10" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="134" t="s">
+        <v>350</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" s="90"/>
+        <v>351</v>
+      </c>
+      <c r="D10" s="88"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="90"/>
+      <c r="C11" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="88"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D12" s="90"/>
+        <v>316</v>
+      </c>
+      <c r="D12" s="88"/>
     </row>
     <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="90"/>
+      <c r="D13" s="88"/>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="90"/>
+      <c r="B14" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="88"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="90"/>
+      <c r="B15" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="88"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="108"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4690,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4706,86 +4767,86 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
+      <c r="C1" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A2" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>324</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="D2" s="33"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>60</v>
+        <v>158</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>350</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
+        <v>58</v>
+      </c>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
+        <v>58</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>60</v>
+        <v>139</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>350</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -4794,228 +4855,412 @@
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="96" t="s">
+      <c r="C6" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999">
-      <c r="A7" s="108" t="s">
-        <v>192</v>
+      <c r="A7" s="106" t="s">
+        <v>187</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+        <v>315</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="108" t="s">
-        <v>193</v>
+      <c r="A8" s="106" t="s">
+        <v>188</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
+        <v>316</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="94" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="D9" s="92" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="109" t="s">
-        <v>173</v>
+      <c r="A10" s="107" t="s">
+        <v>168</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+        <v>352</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
     </row>
     <row r="12" spans="1:8" s="41" customFormat="1">
       <c r="A12" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+        <v>163</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
     </row>
     <row r="13" spans="1:8" s="41" customFormat="1" ht="15">
       <c r="A13" s="44" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+        <v>136</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="93" t="s">
-        <v>184</v>
+      <c r="H14" s="91" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="109" t="s">
-        <v>179</v>
+      <c r="A15" s="107" t="s">
+        <v>174</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>328</v>
+        <v>352</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>354</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="33" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="H15" s="135" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="108" t="s">
-        <v>185</v>
+      <c r="A16" s="106" t="s">
+        <v>180</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>182</v>
       </c>
       <c r="F16" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="88" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1"/>
+    <hyperlink ref="H15" r:id="rId1" display="mailto:laskdkadsas@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6">
+      <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
+      <c r="A2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="123"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="106"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="108"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="108"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="108"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -5034,7 +5279,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -5043,237 +5288,237 @@
         <v>16</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="113">
+      <c r="B2" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="111">
         <v>1161138551</v>
       </c>
-      <c r="E2" s="113"/>
+      <c r="E2" s="111"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113">
+      <c r="B3" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111">
         <v>1161138552</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="113"/>
+        <v>133</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="114"/>
+        <v>134</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="113"/>
+        <v>134</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="113"/>
+        <v>165</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>196</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="113"/>
+        <v>198</v>
+      </c>
+      <c r="E9" s="111"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114" t="s">
-        <v>204</v>
+        <v>192</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="113"/>
+      <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="113"/>
+        <v>194</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="111"/>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="113"/>
+        <v>194</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="111"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="110"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="110"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -5301,7 +5546,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5310,54 +5555,54 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>175</v>
+        <v>255</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
@@ -5373,45 +5618,45 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>175</v>
+        <v>259</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
       <c r="M3" s="33"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>175</v>
+        <v>260</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="117"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="115"/>
       <c r="F4" s="86"/>
-      <c r="G4" s="118"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="33"/>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -5423,20 +5668,20 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>175</v>
+        <v>261</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
-      <c r="G5" s="118"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="33"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -5448,20 +5693,20 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>208</v>
+        <v>262</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>203</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="118"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="33"/>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -5473,430 +5718,247 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>175</v>
+        <v>263</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>170</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+        <v>269</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+        <v>39</v>
+      </c>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>175</v>
+        <v>148</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="120" t="s">
-        <v>246</v>
+        <v>156</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>238</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="120" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="G8" s="118" t="s">
+        <v>240</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
+        <v>39</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" thickBot="1">
       <c r="A9" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>175</v>
+        <v>149</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="120" t="s">
-        <v>246</v>
+        <v>156</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>238</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="G9" s="118" t="s">
+        <v>240</v>
       </c>
       <c r="H9" s="33"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="132" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="120" t="s">
-        <v>246</v>
+      <c r="E10" s="118" t="s">
+        <v>238</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="120" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="G10" s="118" t="s">
+        <v>240</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="122">
+        <v>39</v>
+      </c>
+      <c r="I10" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="120">
         <v>6</v>
       </c>
-      <c r="K10" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="M10" s="123" t="s">
+      <c r="K10" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" s="121" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="O10" s="124" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="O10" s="122" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>175</v>
+        <v>257</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="120" t="s">
-        <v>246</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>238</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>240</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="122">
+        <v>39</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="120">
         <v>6</v>
       </c>
-      <c r="K11" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="116" t="s">
-        <v>261</v>
+      <c r="K11" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="114" t="s">
+        <v>253</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="O11" s="124" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="O11" s="122" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>175</v>
+        <v>258</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>170</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="120" t="s">
-        <v>246</v>
+        <v>185</v>
+      </c>
+      <c r="E12" s="118" t="s">
+        <v>238</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>240</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" s="122">
+        <v>39</v>
+      </c>
+      <c r="I12" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="120">
         <v>6</v>
       </c>
-      <c r="K12" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="116" t="s">
-        <v>261</v>
+      <c r="K12" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="114" t="s">
+        <v>253</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="O12" s="124" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="O12" s="122" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="110"/>
+      <c r="A13" s="108"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="110"/>
+      <c r="A14" s="108"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="110"/>
+      <c r="A15" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
-      <c r="A2" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-    </row>
-    <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="116" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="125"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="108"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="110"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="110"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="110"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5924,8 +5986,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="133" t="s">
-        <v>110</v>
+      <c r="A1" s="131" t="s">
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5934,37 +5996,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O1" s="9"/>
       <c r="P1" s="3"/>
@@ -5974,167 +6036,167 @@
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
+        <v>86</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="124"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
     </row>
     <row r="3" spans="1:19" ht="15">
       <c r="A3" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
+        <v>140</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="124"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
+        <v>233</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="128" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="118" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="P5" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="130">
+        <v>33332010</v>
+      </c>
+      <c r="R5" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="130" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="131" t="s">
+      <c r="S5" s="137"/>
+    </row>
+    <row r="6" spans="1:19" ht="15">
+      <c r="A6" s="106" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="120" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="P5" s="132" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="132">
-        <v>33332010</v>
-      </c>
-      <c r="R5" s="136" t="s">
-        <v>250</v>
-      </c>
-      <c r="S5" s="137"/>
-    </row>
-    <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="130" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="130" t="s">
-        <v>244</v>
+      <c r="F6" s="128" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="108"/>
+      <c r="A7" s="106"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="108"/>
+      <c r="A8" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="376">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -1047,21 +1047,9 @@
     <t>URBANA</t>
   </si>
   <si>
-    <t>395474125</t>
-  </si>
-  <si>
-    <t>pasa</t>
-  </si>
-  <si>
-    <t>portito</t>
-  </si>
-  <si>
     <t>20/10/2020</t>
   </si>
   <si>
-    <t>2932562036</t>
-  </si>
-  <si>
     <t>Nuevo</t>
   </si>
   <si>
@@ -1110,10 +1098,67 @@
     <t>2932561017</t>
   </si>
   <si>
-    <t>Genero</t>
-  </si>
-  <si>
     <t>32328505</t>
+  </si>
+  <si>
+    <t>Doscero</t>
+  </si>
+  <si>
+    <t>Tasacion</t>
+  </si>
+  <si>
+    <t>pruebatasacion@gmail.com</t>
+  </si>
+  <si>
+    <t>NoNominacionNuevoTelefonicoPasaporte</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>NoNominacionExistenteAgente</t>
+  </si>
+  <si>
+    <t>NominacionExistente5Lineas</t>
+  </si>
+  <si>
+    <t>NoNominacionNuevoFraudeTelef</t>
+  </si>
+  <si>
+    <t>NoNominacionExistenteFraudeOfcom</t>
+  </si>
+  <si>
+    <t>NoNominacionExistenteTelefonico</t>
+  </si>
+  <si>
+    <t>Pase</t>
+  </si>
+  <si>
+    <t>Portito</t>
+  </si>
+  <si>
+    <t>925475889</t>
+  </si>
+  <si>
+    <t>2932561024</t>
+  </si>
+  <si>
+    <t>2932561027</t>
+  </si>
+  <si>
+    <t>33333024</t>
+  </si>
+  <si>
+    <t>2932563871</t>
+  </si>
+  <si>
+    <t>32579543</t>
+  </si>
+  <si>
+    <t>NoNomina</t>
+  </si>
+  <si>
+    <t>Nonominapasaporte@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1480,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1768,6 +1813,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2064,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="J2:P2"/>
     </sheetView>
   </sheetViews>
@@ -2111,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -2120,7 +2166,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>126</v>
@@ -2132,7 +2178,7 @@
         <v>128</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>106</v>
@@ -2167,10 +2213,10 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>10</v>
@@ -2203,7 +2249,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>336</v>
@@ -2459,7 +2505,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -3316,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3977,16 +4023,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" customWidth="1"/>
@@ -4003,43 +4049,40 @@
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>359</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>332</v>
+        <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>126</v>
+        <v>333</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4048,48 +4091,45 @@
         <v>207</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>355</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>329</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="H2" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="K2" s="6" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="P2" s="24" t="s">
+      <c r="N2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="O2" s="24" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4097,11 +4137,11 @@
       <c r="A3" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>189</v>
+      <c r="B3" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="D3" s="62" t="s">
         <v>190</v>
@@ -4109,31 +4149,16 @@
       <c r="E3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="62">
-        <v>1524</v>
-      </c>
-      <c r="M3" s="62">
-        <v>1524</v>
-      </c>
-      <c r="N3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:16" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
@@ -4213,17 +4238,17 @@
       <c r="A6" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>338</v>
+      <c r="B6" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
@@ -4232,7 +4257,7 @@
         <v>219</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I6" s="64" t="s">
         <v>169</v>
@@ -4249,11 +4274,11 @@
       <c r="M6" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="62">
-        <v>1524</v>
-      </c>
-      <c r="O6" s="62">
-        <v>1524</v>
+      <c r="N6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="P6" s="62" t="s">
         <v>336</v>
@@ -4263,11 +4288,11 @@
       <c r="A7" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>189</v>
+      <c r="B7" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>373</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
@@ -4360,48 +4385,157 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="A10" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2477231508</v>
+      </c>
+      <c r="C10" s="41">
+        <v>22211120</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="136">
+        <v>33649</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="41">
+        <v>1524</v>
+      </c>
+      <c r="M10" s="41">
+        <v>1524</v>
+      </c>
       <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="A11" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="41">
+        <v>325795437</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="63">
+        <v>33649</v>
+      </c>
+      <c r="H11" s="135" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="136">
+        <v>45703</v>
+      </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12">
+        <v>2932597751</v>
+      </c>
+      <c r="C12">
+        <v>22222744</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="136">
+        <v>33649</v>
+      </c>
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13">
+        <v>33333026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14">
+        <v>2477229507</v>
+      </c>
+      <c r="C14">
+        <v>22355504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15">
+        <v>2477229507</v>
+      </c>
+      <c r="C15">
+        <v>16552744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16">
+        <v>2477229507</v>
+      </c>
+      <c r="C16">
+        <v>95806451</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H3" r:id="rId2" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H4" r:id="rId3" display="mailto:Nodocnominado@gmail.com"/>
-    <hyperlink ref="H5" r:id="rId4" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="I6" r:id="rId7" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId1" display="mailto:Nodocnominado@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId2" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="H9" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId6" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -4649,10 +4783,10 @@
         <v>252</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D10" s="88"/>
     </row>
@@ -4788,10 +4922,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="97"/>
@@ -4804,10 +4938,10 @@
         <v>158</v>
       </c>
       <c r="B3" s="134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>58</v>
@@ -4840,10 +4974,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>58</v>
@@ -4926,13 +5060,13 @@
         <v>168</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
@@ -5020,23 +5154,23 @@
         <v>174</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="89" t="s">
         <v>350</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>354</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="33" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H15" s="135" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5144,7 +5278,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>324</v>
@@ -5167,7 +5301,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" s="109" t="s">
         <v>324</v>
@@ -5200,7 +5334,7 @@
         <v>38</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
@@ -5208,7 +5342,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C4" s="114" t="s">
         <v>325</v>
@@ -6167,10 +6301,10 @@
       <c r="Q5" s="130">
         <v>33332010</v>
       </c>
-      <c r="R5" s="136" t="s">
+      <c r="R5" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="S5" s="137"/>
+      <c r="S5" s="138"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="106" t="s">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="375">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -603,9 +603,6 @@
     <t>22222035</t>
   </si>
   <si>
-    <t>Quenico</t>
-  </si>
-  <si>
     <t>2932443389</t>
   </si>
   <si>
@@ -1020,12 +1017,6 @@
     <t>PUNTA ALTA ALTE SOLIER</t>
   </si>
   <si>
-    <t>Josangela</t>
-  </si>
-  <si>
-    <t>Leona</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
@@ -1095,21 +1086,6 @@
     <t>Ramon Pasquier</t>
   </si>
   <si>
-    <t>2932561017</t>
-  </si>
-  <si>
-    <t>32328505</t>
-  </si>
-  <si>
-    <t>Doscero</t>
-  </si>
-  <si>
-    <t>Tasacion</t>
-  </si>
-  <si>
-    <t>pruebatasacion@gmail.com</t>
-  </si>
-  <si>
     <t>NoNominacionNuevoTelefonicoPasaporte</t>
   </si>
   <si>
@@ -1143,12 +1119,6 @@
     <t>2932561024</t>
   </si>
   <si>
-    <t>2932561027</t>
-  </si>
-  <si>
-    <t>33333024</t>
-  </si>
-  <si>
     <t>2932563871</t>
   </si>
   <si>
@@ -1159,13 +1129,40 @@
   </si>
   <si>
     <t>Nonominapasaporte@gmail.com</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>2932564275</t>
+  </si>
+  <si>
+    <t>Atos</t>
+  </si>
+  <si>
+    <t>Uno</t>
+  </si>
+  <si>
+    <t>54235101</t>
+  </si>
+  <si>
+    <t>2932561035</t>
+  </si>
+  <si>
+    <t>QueChamito</t>
+  </si>
+  <si>
+    <t>Pue</t>
+  </si>
+  <si>
+    <t>33233022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1314,6 +1311,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1480,7 +1483,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1820,6 +1823,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2157,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -2166,19 +2170,19 @@
         <v>15</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>126</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>128</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>106</v>
@@ -2213,10 +2217,10 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>10</v>
@@ -2237,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>33</v>
@@ -2249,10 +2253,10 @@
         <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
@@ -2505,7 +2509,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2605,7 +2609,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -3477,28 +3481,28 @@
         <v>170</v>
       </c>
       <c r="D4" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="70" t="s">
         <v>239</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>240</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>20</v>
@@ -3512,7 +3516,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>189</v>
@@ -3521,28 +3525,28 @@
         <v>170</v>
       </c>
       <c r="D5" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="70" t="s">
         <v>239</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>240</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>20</v>
@@ -3575,18 +3579,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>275</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3614,57 +3618,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>286</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
       <c r="A2" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="C2" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="D2" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="80" t="s">
         <v>290</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>291</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3674,51 +3678,51 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="80" t="s">
         <v>292</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>293</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" s="73" t="s">
         <v>294</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" thickBot="1">
       <c r="A4" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="80" t="s">
         <v>296</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>297</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3728,19 +3732,19 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" thickBot="1">
       <c r="A5" s="78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3751,25 +3755,25 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickBot="1">
       <c r="A6" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="80" t="s">
         <v>299</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>300</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
@@ -3778,74 +3782,74 @@
     </row>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
       <c r="A7" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>302</v>
-      </c>
       <c r="D7" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="18" thickBot="1">
       <c r="A8" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>289</v>
-      </c>
       <c r="C8" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" thickBot="1">
       <c r="A9" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>289</v>
-      </c>
       <c r="C9" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>292</v>
-      </c>
-      <c r="D9" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>293</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3855,22 +3859,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>289</v>
-      </c>
       <c r="C10" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="D10" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3880,19 +3884,19 @@
     </row>
     <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>289</v>
-      </c>
       <c r="C11" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
@@ -3905,22 +3909,22 @@
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>289</v>
-      </c>
       <c r="C12" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D12" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3930,19 +3934,19 @@
     </row>
     <row r="13" spans="1:11" ht="13.8" thickBot="1">
       <c r="A13" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>289</v>
-      </c>
       <c r="C13" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
@@ -3977,21 +3981,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -3999,16 +4003,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4023,10 +4027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4071,54 +4075,54 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.8" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>33</v>
@@ -4127,63 +4131,63 @@
         <v>34</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>190</v>
+        <v>372</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
+        <v>373</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="7"/>
       <c r="N3" s="6"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:16" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>211</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -4194,70 +4198,75 @@
     </row>
     <row r="5" spans="1:16" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>189</v>
+        <v>212</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>374</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>190</v>
+        <v>372</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="62" t="s">
+      <c r="J5" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="62">
-        <v>1524</v>
-      </c>
-      <c r="M5" s="62">
-        <v>1524</v>
-      </c>
-      <c r="N5" s="62"/>
+      <c r="M5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I6" s="64" t="s">
         <v>169</v>
@@ -4266,10 +4275,10 @@
         <v>13</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M6" s="62" t="s">
         <v>33</v>
@@ -4278,27 +4287,27 @@
         <v>34</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P6" s="62" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -4312,28 +4321,28 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="D8" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -4342,18 +4351,18 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="13.8" thickBot="1">
       <c r="A9" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>222</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>223</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>60</v>
@@ -4362,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>169</v>
@@ -4386,146 +4395,124 @@
     </row>
     <row r="10" spans="1:16" ht="13.8" thickBot="1">
       <c r="A10" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2477231508</v>
+        <v>351</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="C10" s="41">
-        <v>22211120</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>356</v>
+        <v>325795437</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="136">
+      <c r="G10" s="63">
         <v>33649</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="41">
-        <v>1524</v>
-      </c>
-      <c r="M10" s="41">
-        <v>1524</v>
-      </c>
+      <c r="H10" s="135" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="136">
+        <v>45703</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A11" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="41">
-        <v>325795437</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11" s="41" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11">
+        <v>2932597751</v>
+      </c>
+      <c r="C11">
+        <v>22222744</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="63">
+      <c r="E11" s="136">
         <v>33649</v>
       </c>
-      <c r="H11" s="135" t="s">
-        <v>375</v>
-      </c>
-      <c r="I11" s="136">
-        <v>45703</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="F11" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12">
-        <v>2932597751</v>
+        <v>354</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="C12">
-        <v>22222744</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="136">
-        <v>33649</v>
-      </c>
-      <c r="F12" t="s">
-        <v>212</v>
+        <v>33333026</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>372</v>
+        <v>355</v>
+      </c>
+      <c r="B13">
+        <v>2477229507</v>
       </c>
       <c r="C13">
-        <v>33333026</v>
+        <v>22355504</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B14">
         <v>2477229507</v>
       </c>
       <c r="C14">
-        <v>22355504</v>
+        <v>16552744</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B15">
         <v>2477229507</v>
       </c>
       <c r="C15">
-        <v>16552744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16">
-        <v>2477229507</v>
-      </c>
-      <c r="C16">
         <v>95806451</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="139"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="139"/>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="139"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="139"/>
+      <c r="C26" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4534,8 +4521,8 @@
     <hyperlink ref="H8" r:id="rId3"/>
     <hyperlink ref="H9" r:id="rId4"/>
     <hyperlink ref="I6" r:id="rId5" display="mailto:Nominacionautoma@gmail.com"/>
-    <hyperlink ref="H2" r:id="rId6" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H2" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -4574,7 +4561,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="92" t="s">
         <v>0</v>
@@ -4614,10 +4601,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>243</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4687,10 +4674,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="D2" s="88"/>
     </row>
@@ -4699,10 +4686,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="D3" s="88"/>
     </row>
@@ -4714,19 +4701,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="86" t="s">
         <v>246</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>247</v>
       </c>
       <c r="D5" s="88"/>
     </row>
@@ -4735,82 +4722,82 @@
         <v>84</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="86" t="s">
         <v>204</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>205</v>
       </c>
       <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="88"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>204</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>205</v>
       </c>
       <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="88"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D10" s="88"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="88"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="D12" s="88"/>
     </row>
@@ -4843,10 +4830,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>202</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>203</v>
       </c>
       <c r="D15" s="88"/>
     </row>
@@ -4922,10 +4909,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="97"/>
@@ -4938,10 +4925,10 @@
         <v>158</v>
       </c>
       <c r="B3" s="134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>58</v>
@@ -4974,10 +4961,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>58</v>
@@ -4995,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="94" t="s">
         <v>3</v>
@@ -5010,7 +4997,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" s="101"/>
       <c r="D7" s="88"/>
@@ -5024,13 +5011,13 @@
         <v>188</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>316</v>
-      </c>
       <c r="D8" s="89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="102"/>
       <c r="F8" s="88"/>
@@ -5048,7 +5035,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="88"/>
@@ -5060,13 +5047,13 @@
         <v>168</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
@@ -5154,23 +5141,23 @@
         <v>174</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>349</v>
-      </c>
       <c r="E15" s="89" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H15" s="135" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5270,7 +5257,7 @@
         <v>96</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
@@ -5278,13 +5265,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C2" s="109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E2" s="97"/>
       <c r="F2" s="97"/>
@@ -5301,22 +5288,22 @@
         <v>83</v>
       </c>
       <c r="B3" s="134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E3" s="118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>39</v>
@@ -5334,7 +5321,7 @@
         <v>38</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
@@ -5342,22 +5329,22 @@
         <v>74</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C4" s="114" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="114" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" s="114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" s="114" t="s">
         <v>39</v>
@@ -5436,7 +5423,7 @@
         <v>189</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="111">
         <v>1161138551</v>
@@ -5451,7 +5438,7 @@
         <v>189</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="111">
@@ -5466,7 +5453,7 @@
         <v>189</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="112" t="s">
         <v>130</v>
@@ -5481,7 +5468,7 @@
         <v>189</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="111"/>
       <c r="E5" s="112" t="s">
@@ -5496,7 +5483,7 @@
         <v>189</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="112" t="s">
         <v>132</v>
@@ -5511,7 +5498,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>64</v>
@@ -5526,80 +5513,80 @@
         <v>189</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="112"/>
       <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="110" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="111"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="110" t="s">
         <v>153</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="112"/>
       <c r="E10" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="112"/>
       <c r="E12" s="112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="110" t="s">
-        <v>195</v>
-      </c>
       <c r="C13" s="110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="112" t="s">
         <v>132</v>
@@ -5608,13 +5595,13 @@
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="110" t="s">
-        <v>195</v>
-      </c>
       <c r="C14" s="110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="111" t="s">
         <v>64</v>
@@ -5727,7 +5714,7 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="109" t="s">
         <v>189</v>
@@ -5752,7 +5739,7 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="109" t="s">
         <v>189</v>
@@ -5761,7 +5748,7 @@
         <v>170</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
@@ -5777,7 +5764,7 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="109" t="s">
         <v>189</v>
@@ -5802,7 +5789,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="109" t="s">
         <v>189</v>
@@ -5811,7 +5798,7 @@
         <v>170</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -5827,16 +5814,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="117" t="s">
-        <v>203</v>
-      </c>
       <c r="D6" s="86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -5852,7 +5839,7 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="109" t="s">
         <v>189</v>
@@ -5861,7 +5848,7 @@
         <v>170</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -5891,13 +5878,13 @@
         <v>156</v>
       </c>
       <c r="E8" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="118" t="s">
         <v>239</v>
-      </c>
-      <c r="G8" s="118" t="s">
-        <v>240</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>39</v>
@@ -5924,13 +5911,13 @@
         <v>156</v>
       </c>
       <c r="E9" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="118" t="s">
         <v>239</v>
-      </c>
-      <c r="G9" s="118" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="88"/>
@@ -5943,7 +5930,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
       <c r="A10" s="132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="109" t="s">
         <v>189</v>
@@ -5952,22 +5939,22 @@
         <v>170</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="G10" s="118" t="s">
         <v>239</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>240</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J10" s="120">
         <v>6</v>
@@ -5976,21 +5963,21 @@
         <v>65</v>
       </c>
       <c r="L10" s="114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M10" s="121" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O10" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="109" t="s">
         <v>189</v>
@@ -6002,19 +5989,19 @@
         <v>40</v>
       </c>
       <c r="E11" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="118" t="s">
         <v>239</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>240</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J11" s="120">
         <v>6</v>
@@ -6023,21 +6010,21 @@
         <v>65</v>
       </c>
       <c r="L11" s="114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O11" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="109" t="s">
         <v>189</v>
@@ -6049,19 +6036,19 @@
         <v>185</v>
       </c>
       <c r="E12" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="118" t="s">
         <v>239</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>240</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J12" s="120">
         <v>6</v>
@@ -6070,16 +6057,16 @@
         <v>65</v>
       </c>
       <c r="L12" s="114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O12" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6224,13 +6211,13 @@
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="127" t="s">
-        <v>234</v>
-      </c>
       <c r="C4" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="124"/>
       <c r="E4" s="123"/>
@@ -6251,13 +6238,13 @@
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="128" t="s">
         <v>164</v>
@@ -6266,34 +6253,34 @@
         <v>13</v>
       </c>
       <c r="F5" s="128" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="118" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="H5" s="118" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="I5" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="J5" s="118" t="s">
         <v>239</v>
-      </c>
-      <c r="J5" s="118" t="s">
-        <v>240</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>65</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P5" s="130" t="s">
         <v>20</v>
@@ -6302,19 +6289,19 @@
         <v>33332010</v>
       </c>
       <c r="R5" s="137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S5" s="138"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="128" t="s">
         <v>164</v>
@@ -6323,7 +6310,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:19">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="377">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -486,9 +486,6 @@
     <t>38452795</t>
   </si>
   <si>
-    <t>3413105403</t>
-  </si>
-  <si>
     <t>19006577</t>
   </si>
   <si>
@@ -681,9 +678,6 @@
     <t>NoNominaNuevoTelefonico</t>
   </si>
   <si>
-    <t>2932478560</t>
-  </si>
-  <si>
     <t>22222081</t>
   </si>
   <si>
@@ -1134,18 +1128,9 @@
     <t>a@gmail.com</t>
   </si>
   <si>
-    <t>2932564275</t>
-  </si>
-  <si>
-    <t>Atos</t>
-  </si>
-  <si>
     <t>Uno</t>
   </si>
   <si>
-    <t>54235101</t>
-  </si>
-  <si>
     <t>2932561035</t>
   </si>
   <si>
@@ -1156,6 +1141,27 @@
   </si>
   <si>
     <t>33233022</t>
+  </si>
+  <si>
+    <t>2932561049</t>
+  </si>
+  <si>
+    <t>Probando</t>
+  </si>
+  <si>
+    <t>4547668</t>
+  </si>
+  <si>
+    <t>Accid</t>
+  </si>
+  <si>
+    <t>9623409</t>
+  </si>
+  <si>
+    <t>2932478113</t>
+  </si>
+  <si>
+    <t>3000000127210001</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1489,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1817,13 +1823,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2115,7 +2124,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="J2:P2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -2161,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -2170,19 +2179,19 @@
         <v>15</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>126</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>128</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>106</v>
@@ -2217,10 +2226,10 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>10</v>
@@ -2241,10 +2250,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>33</v>
@@ -2253,10 +2262,10 @@
         <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
@@ -2287,7 +2296,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>33</v>
@@ -2337,7 +2346,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>33</v>
@@ -2475,7 +2484,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>2</v>
@@ -2509,7 +2518,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2609,7 +2618,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -2636,7 +2645,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>33</v>
@@ -2683,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>33</v>
@@ -2754,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="34"/>
@@ -2798,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>33</v>
@@ -2865,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
@@ -2891,7 +2900,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
@@ -2975,7 +2984,7 @@
         <v>144</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>69</v>
@@ -3037,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>33</v>
@@ -3220,7 +3229,7 @@
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
     </row>
-    <row r="26" spans="1:26" ht="13.8" thickBot="1">
+    <row r="26" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A26" s="62"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -3232,7 +3241,9 @@
       <c r="I26" s="62"/>
       <c r="J26" s="62"/>
       <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
+      <c r="L26" s="62" t="s">
+        <v>325</v>
+      </c>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
       <c r="O26" s="62"/>
@@ -3364,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3375,14 +3386,15 @@
     <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
@@ -3392,52 +3404,57 @@
       <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="28"/>
+        <v>342</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="37"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -3447,19 +3464,22 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="1:14" ht="15">
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>189</v>
+        <v>374</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="28"/>
+        <v>375</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="37"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -3469,92 +3489,99 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="1:14" ht="15">
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="140" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="H4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="J4" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15">
+      <c r="A5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" s="42" t="s">
+      <c r="I5" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="L4" s="48" t="s">
+      <c r="L5" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15">
-      <c r="A5" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3579,18 +3606,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3618,57 +3645,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>284</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
       <c r="A2" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="D2" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="80" t="s">
         <v>288</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>290</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3678,51 +3705,51 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" thickBot="1">
       <c r="A4" s="78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3732,19 +3759,19 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" thickBot="1">
       <c r="A5" s="78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3755,25 +3782,25 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickBot="1">
       <c r="A6" s="78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B6" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>290</v>
-      </c>
       <c r="G6" s="80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
@@ -3782,74 +3809,74 @@
     </row>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
       <c r="A7" s="78" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="18" thickBot="1">
       <c r="A8" s="78" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" thickBot="1">
       <c r="A9" s="78" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D9" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3859,22 +3886,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3884,19 +3911,19 @@
     </row>
     <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D11" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
@@ -3909,22 +3936,22 @@
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="D12" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3934,19 +3961,19 @@
     </row>
     <row r="13" spans="1:11" ht="13.8" thickBot="1">
       <c r="A13" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D13" s="133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
@@ -3981,21 +4008,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -4003,16 +4030,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4029,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4075,54 +4102,54 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.8" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>33</v>
@@ -4131,27 +4158,27 @@
         <v>34</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
@@ -4166,28 +4193,28 @@
     </row>
     <row r="4" spans="1:16" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="E4" s="62" t="s">
         <v>209</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>210</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -4198,37 +4225,37 @@
     </row>
     <row r="5" spans="1:16" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>33</v>
@@ -4237,48 +4264,48 @@
         <v>34</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M6" s="62" t="s">
         <v>33</v>
@@ -4287,27 +4314,27 @@
         <v>34</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P6" s="62" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -4321,28 +4348,28 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>217</v>
-      </c>
       <c r="D8" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>209</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>210</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -4353,16 +4380,16 @@
     </row>
     <row r="9" spans="1:16" ht="13.8" thickBot="1">
       <c r="A9" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>222</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>60</v>
@@ -4371,16 +4398,16 @@
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="34" t="s">
         <v>33</v>
@@ -4395,19 +4422,19 @@
     </row>
     <row r="10" spans="1:16" ht="13.8" thickBot="1">
       <c r="A10" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C10" s="41">
         <v>325795437</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>10</v>
@@ -4416,7 +4443,7 @@
         <v>33649</v>
       </c>
       <c r="H10" s="135" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I10" s="136">
         <v>45703</v>
@@ -4429,10 +4456,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B11">
-        <v>2932597751</v>
+        <v>351</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="C11">
         <v>22222744</v>
@@ -4444,23 +4471,23 @@
         <v>33649</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C12">
-        <v>33333026</v>
+        <v>33333024</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13">
         <v>2477229507</v>
@@ -4471,7 +4498,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B14">
         <v>2477229507</v>
@@ -4482,10 +4509,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B15">
-        <v>2477229507</v>
+        <v>355</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="C15">
         <v>95806451</v>
@@ -4499,19 +4526,19 @@
       <c r="C22" s="31"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="139"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="139"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="31"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="139"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="139"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="31"/>
     </row>
   </sheetData>
@@ -4545,7 +4572,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="92" t="s">
         <v>0</v>
@@ -4556,12 +4583,12 @@
         <v>137</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="92" t="s">
         <v>0</v>
@@ -4572,12 +4599,12 @@
         <v>138</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="92" t="s">
         <v>0</v>
@@ -4585,7 +4612,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>150</v>
@@ -4593,7 +4620,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>0</v>
@@ -4601,15 +4628,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="88">
         <v>30998801</v>
@@ -4647,7 +4674,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4674,10 +4701,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" s="88"/>
     </row>
@@ -4686,10 +4713,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" s="88"/>
     </row>
@@ -4701,19 +4728,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>244</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>246</v>
       </c>
       <c r="D5" s="88"/>
     </row>
@@ -4722,82 +4749,82 @@
         <v>84</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="86" t="s">
         <v>203</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>204</v>
       </c>
       <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="88"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="106" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>203</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>204</v>
       </c>
       <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="88"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="106" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D10" s="88"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="88"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D12" s="88"/>
     </row>
@@ -4818,7 +4845,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="87" t="s">
         <v>85</v>
@@ -4830,10 +4857,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>201</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>202</v>
       </c>
       <c r="D15" s="88"/>
     </row>
@@ -4909,10 +4936,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="97"/>
@@ -4922,13 +4949,13 @@
     </row>
     <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>58</v>
@@ -4940,7 +4967,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>55</v>
@@ -4961,10 +4988,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>58</v>
@@ -4976,13 +5003,13 @@
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="94" t="s">
         <v>3</v>
@@ -4994,10 +5021,10 @@
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999">
       <c r="A7" s="106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C7" s="101"/>
       <c r="D7" s="88"/>
@@ -5008,16 +5035,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="89" t="s">
         <v>315</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>317</v>
       </c>
       <c r="E8" s="102"/>
       <c r="F8" s="88"/>
@@ -5026,7 +5053,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>0</v>
@@ -5035,7 +5062,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="88"/>
@@ -5044,16 +5071,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>343</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>345</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
@@ -5081,7 +5108,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
@@ -5092,7 +5119,7 @@
     </row>
     <row r="13" spans="1:8" s="41" customFormat="1" ht="15">
       <c r="A13" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>55</v>
@@ -5112,13 +5139,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="94" t="s">
         <v>3</v>
@@ -5127,63 +5154,63 @@
         <v>4</v>
       </c>
       <c r="F14" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="H14" s="91" t="s">
         <v>178</v>
-      </c>
-      <c r="H14" s="91" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="89" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" s="89" t="s">
         <v>345</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>347</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H15" s="135" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="C16" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="88" t="s">
+      <c r="E16" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="88" t="s">
         <v>182</v>
-      </c>
-      <c r="E16" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="88" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5257,7 +5284,7 @@
         <v>96</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
@@ -5265,13 +5292,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="109" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E2" s="97"/>
       <c r="F2" s="97"/>
@@ -5288,22 +5315,22 @@
         <v>83</v>
       </c>
       <c r="B3" s="134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E3" s="118" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="118" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>39</v>
@@ -5321,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
@@ -5329,22 +5356,22 @@
         <v>74</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="114" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E4" s="114" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="114" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G4" s="114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" s="114" t="s">
         <v>39</v>
@@ -5420,10 +5447,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="110" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>190</v>
       </c>
       <c r="D2" s="111">
         <v>1161138551</v>
@@ -5435,10 +5462,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>189</v>
-      </c>
-      <c r="C3" s="110" t="s">
-        <v>190</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="111">
@@ -5450,10 +5477,10 @@
         <v>133</v>
       </c>
       <c r="B4" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="110" t="s">
         <v>189</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>190</v>
       </c>
       <c r="D4" s="112" t="s">
         <v>130</v>
@@ -5465,10 +5492,10 @@
         <v>133</v>
       </c>
       <c r="B5" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="110" t="s">
         <v>189</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>190</v>
       </c>
       <c r="D5" s="111"/>
       <c r="E5" s="112" t="s">
@@ -5480,10 +5507,10 @@
         <v>134</v>
       </c>
       <c r="B6" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="110" t="s">
         <v>189</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>190</v>
       </c>
       <c r="D6" s="112" t="s">
         <v>132</v>
@@ -5495,10 +5522,10 @@
         <v>134</v>
       </c>
       <c r="B7" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="110" t="s">
         <v>189</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>190</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>64</v>
@@ -5507,86 +5534,86 @@
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="110" t="s">
         <v>189</v>
-      </c>
-      <c r="C8" s="110" t="s">
-        <v>190</v>
       </c>
       <c r="D8" s="112"/>
       <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="111"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="112"/>
       <c r="E10" s="112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="112"/>
       <c r="E12" s="112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="110" t="s">
-        <v>194</v>
-      </c>
       <c r="C13" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="112" t="s">
         <v>132</v>
@@ -5595,13 +5622,13 @@
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="110" t="s">
-        <v>194</v>
-      </c>
       <c r="C14" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="111" t="s">
         <v>64</v>
@@ -5714,13 +5741,13 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="86" t="s">
         <v>40</v>
@@ -5739,16 +5766,16 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
@@ -5764,13 +5791,13 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="86" t="s">
         <v>40</v>
@@ -5789,16 +5816,16 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -5814,16 +5841,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="117" t="s">
-        <v>202</v>
-      </c>
       <c r="D6" s="86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -5839,16 +5866,16 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -5869,22 +5896,22 @@
         <v>148</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="118" t="s">
         <v>237</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="118" t="s">
-        <v>239</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>39</v>
@@ -5902,22 +5929,22 @@
         <v>149</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="118" t="s">
         <v>237</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="118" t="s">
-        <v>239</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="88"/>
@@ -5930,31 +5957,31 @@
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
       <c r="A10" s="132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E10" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="118" t="s">
         <v>237</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>239</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J10" s="120">
         <v>6</v>
@@ -5963,45 +5990,45 @@
         <v>65</v>
       </c>
       <c r="L10" s="114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M10" s="121" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O10" s="122" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="118" t="s">
         <v>237</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>239</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J11" s="120">
         <v>6</v>
@@ -6010,45 +6037,45 @@
         <v>65</v>
       </c>
       <c r="L11" s="114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O11" s="122" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="118" t="s">
         <v>237</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>239</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J12" s="120">
         <v>6</v>
@@ -6057,16 +6084,16 @@
         <v>65</v>
       </c>
       <c r="L12" s="114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O12" s="122" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6160,10 +6187,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="123"/>
@@ -6187,10 +6214,10 @@
         <v>140</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="124"/>
       <c r="E3" s="123"/>
@@ -6211,13 +6238,13 @@
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="124"/>
       <c r="E4" s="123"/>
@@ -6238,49 +6265,49 @@
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="129" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="128" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="I5" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="J5" s="118" t="s">
         <v>237</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="118" t="s">
-        <v>239</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>65</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P5" s="130" t="s">
         <v>20</v>
@@ -6288,29 +6315,29 @@
       <c r="Q5" s="130">
         <v>33332010</v>
       </c>
-      <c r="R5" s="137" t="s">
-        <v>241</v>
-      </c>
-      <c r="S5" s="138"/>
+      <c r="R5" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="S5" s="139"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="106" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="129" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:19">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="dni linea" sheetId="15" r:id="rId4"/>
     <sheet name="clientes" sheetId="16" r:id="rId5"/>
     <sheet name="recargas" sheetId="18" r:id="rId6"/>
-    <sheet name="numeros amigos" sheetId="20" r:id="rId7"/>
-    <sheet name="venta de pack" sheetId="17" r:id="rId8"/>
-    <sheet name="cambio de simcard" sheetId="19" r:id="rId9"/>
-    <sheet name="renovacion" sheetId="12" r:id="rId10"/>
+    <sheet name="renovacion" sheetId="12" r:id="rId7"/>
+    <sheet name="numeros amigos" sheetId="20" r:id="rId8"/>
+    <sheet name="venta de pack" sheetId="17" r:id="rId9"/>
+    <sheet name="cambio de simcard" sheetId="19" r:id="rId10"/>
     <sheet name="befan" sheetId="22" r:id="rId11"/>
     <sheet name="seriales" sheetId="23" r:id="rId12"/>
     <sheet name="servicio tecnico" sheetId="24" r:id="rId13"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="376">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -561,9 +561,6 @@
     <t>N° De Cuenta</t>
   </si>
   <si>
-    <t>Libreta de Enrolamiento</t>
-  </si>
-  <si>
     <t>Razon Social</t>
   </si>
   <si>
@@ -582,9 +579,6 @@
     <t>angel.leon@gmail.com</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
     <t>Pack internacional 30 SMS al Resto del Mundo</t>
   </si>
   <si>
@@ -1162,6 +1156,9 @@
   </si>
   <si>
     <t>3000000127210001</t>
+  </si>
+  <si>
+    <t>2477229507</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1486,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1701,9 +1698,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1824,14 +1818,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2170,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -2179,19 +2173,19 @@
         <v>15</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>126</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>128</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>106</v>
@@ -2226,10 +2220,10 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>10</v>
@@ -2250,10 +2244,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>33</v>
@@ -2262,10 +2256,10 @@
         <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
@@ -2518,7 +2512,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2618,7 +2612,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -2874,7 +2868,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
@@ -2900,7 +2894,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
@@ -3242,7 +3236,7 @@
       <c r="J26" s="62"/>
       <c r="K26" s="62"/>
       <c r="L26" s="62" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
@@ -3375,28 +3369,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
-      <c r="A1" s="5" t="s">
-        <v>107</v>
+    <row r="1" spans="1:19" ht="15.6">
+      <c r="A1" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3404,188 +3400,213 @@
       <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="F1" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" s="140" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="140" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="15">
+      <c r="A2" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="140" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="70" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+    </row>
+    <row r="3" spans="1:19" ht="15">
+      <c r="A3" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="123"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A4" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="123"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" thickBot="1">
+      <c r="A5" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="K5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="M5" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="129">
+        <v>33332010</v>
+      </c>
+      <c r="R5" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
-      <c r="A5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="D5" s="140" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="S5" s="139"/>
+    </row>
+    <row r="6" spans="1:19" ht="15">
+      <c r="A6" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="105"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="105"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R5:S5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3606,18 +3627,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3629,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3645,57 +3666,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>282</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
       <c r="A2" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="D2" s="132" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="80" t="s">
         <v>286</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>288</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3705,51 +3726,51 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>324</v>
+        <v>287</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" thickBot="1">
       <c r="A4" s="78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="133" t="s">
-        <v>324</v>
+        <v>291</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3759,19 +3780,19 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" thickBot="1">
       <c r="A5" s="78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>295</v>
-      </c>
-      <c r="D5" s="133" t="s">
-        <v>324</v>
+        <v>293</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3782,25 +3803,25 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickBot="1">
       <c r="A6" s="78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B6" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="133" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>288</v>
-      </c>
       <c r="G6" s="80" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
@@ -3809,74 +3830,74 @@
     </row>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
       <c r="A7" s="78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>324</v>
+        <v>297</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="6" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="18" thickBot="1">
       <c r="A8" s="78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="133" t="s">
-        <v>324</v>
+        <v>298</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" thickBot="1">
       <c r="A9" s="78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="133" t="s">
-        <v>324</v>
+        <v>287</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3886,22 +3907,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="133" t="s">
-        <v>324</v>
+        <v>301</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3911,19 +3932,19 @@
     </row>
     <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" s="133" t="s">
-        <v>324</v>
+        <v>296</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
@@ -3936,22 +3957,22 @@
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="D12" s="133" t="s">
-        <v>324</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3961,19 +3982,19 @@
     </row>
     <row r="13" spans="1:11" ht="13.8" thickBot="1">
       <c r="A13" s="41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" s="133" t="s">
-        <v>324</v>
+        <v>306</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
@@ -4008,21 +4029,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -4030,16 +4051,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4054,16 +4075,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" customWidth="1"/>
@@ -4102,54 +4125,54 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.8" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>372</v>
-      </c>
       <c r="D2" s="62" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>33</v>
@@ -4158,27 +4181,27 @@
         <v>34</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
@@ -4193,28 +4216,28 @@
     </row>
     <row r="4" spans="1:16" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>207</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>209</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -4225,25 +4248,25 @@
     </row>
     <row r="5" spans="1:16" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="62" t="s">
         <v>366</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>368</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>168</v>
@@ -4252,10 +4275,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>33</v>
@@ -4264,36 +4287,36 @@
         <v>34</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I6" s="64" t="s">
         <v>168</v>
@@ -4302,10 +4325,10 @@
         <v>13</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M6" s="62" t="s">
         <v>33</v>
@@ -4314,27 +4337,27 @@
         <v>34</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P6" s="62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -4348,28 +4371,28 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -4378,18 +4401,18 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="1:16" ht="13.8" thickBot="1">
+    <row r="9" spans="1:16">
       <c r="A9" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>220</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>60</v>
@@ -4398,7 +4421,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>168</v>
@@ -4420,32 +4443,32 @@
       </c>
       <c r="N9" s="34"/>
     </row>
-    <row r="10" spans="1:16" ht="13.8" thickBot="1">
+    <row r="10" spans="1:16">
       <c r="A10" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="7">
+        <v>325795437</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="41">
-        <v>325795437</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="E10" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="63">
-        <v>33649</v>
-      </c>
-      <c r="H10" s="135" t="s">
-        <v>363</v>
-      </c>
-      <c r="I10" s="136">
+      <c r="G10" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>361</v>
+      </c>
+      <c r="I10" s="135">
         <v>45703</v>
       </c>
       <c r="J10" s="41"/>
@@ -4456,90 +4479,381 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11">
+        <v>358</v>
+      </c>
+      <c r="C11" s="7">
         <v>22222744</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="136">
+      <c r="E11" s="135">
         <v>33649</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="C12">
+        <v>358</v>
+      </c>
+      <c r="C12" s="7">
         <v>33333024</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B13">
-        <v>2477229507</v>
-      </c>
-      <c r="C13">
+        <v>351</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="7">
         <v>22355504</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B14">
-        <v>2477229507</v>
-      </c>
-      <c r="C14">
+        <v>352</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="7">
         <v>16552744</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="C15">
+        <v>358</v>
+      </c>
+      <c r="C15" s="7">
         <v>95806451</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="18" spans="1:15" ht="13.8" thickBot="1"/>
+    <row r="19" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="137"/>
+    <row r="23" spans="1:15">
+      <c r="B23" s="136"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="137"/>
+    <row r="24" spans="1:15">
+      <c r="B24" s="136"/>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="137"/>
+    <row r="25" spans="1:15">
+      <c r="B25" s="136"/>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="137"/>
+    <row r="26" spans="1:15">
+      <c r="B26" s="136"/>
       <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="31"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="31"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="31"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="31"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="31"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="31"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="31"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="31"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="31"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="31"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="31"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="31"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="31"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="31"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="31"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="31"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="31"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="31"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="31"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="31"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="31"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="31"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="31"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="31"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="31"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="31"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="31"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="31"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="31"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="31"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="31"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="31"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="31"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="31"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="31"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="31"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="31"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="31"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="31"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="31"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="31"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="31"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="31"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="31"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="31"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="31"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="31"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="31"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="31"/>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="31"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="31"/>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="31"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="31"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="31"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="31"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="31"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="31"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="31"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="31"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="31"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="31"/>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="31"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="31"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="31"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="31"/>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="31"/>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="31"/>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="31"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="31"/>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="31"/>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4579,7 +4893,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="106" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -4588,14 +4902,14 @@
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="106" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -4611,7 +4925,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="106" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -4628,14 +4942,14 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="106" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="88">
@@ -4651,7 +4965,7 @@
       <c r="B11" s="86"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="108"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="88"/>
     </row>
     <row r="13" spans="1:2">
@@ -4674,7 +4988,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4701,10 +5015,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D2" s="88"/>
     </row>
@@ -4713,10 +5027,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D3" s="88"/>
     </row>
@@ -4728,19 +5042,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>242</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>244</v>
       </c>
       <c r="D5" s="88"/>
     </row>
@@ -4749,82 +5063,82 @@
         <v>84</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="88"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="106" t="s">
-        <v>224</v>
+      <c r="A8" s="105" t="s">
+        <v>222</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
-      <c r="A9" s="105" t="s">
-        <v>227</v>
+      <c r="A9" s="104" t="s">
+        <v>225</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" s="88"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="134" t="s">
-        <v>341</v>
+      <c r="A10" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>339</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D10" s="88"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103" t="s">
-        <v>204</v>
+      <c r="C11" s="102" t="s">
+        <v>202</v>
       </c>
       <c r="D11" s="88"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="88"/>
     </row>
@@ -4835,7 +5149,7 @@
       <c r="B13" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="102" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="88"/>
@@ -4844,8 +5158,8 @@
       <c r="A14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="109" t="s">
-        <v>188</v>
+      <c r="B14" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C14" s="87" t="s">
         <v>85</v>
@@ -4856,16 +5170,16 @@
       <c r="A15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="109" t="s">
-        <v>200</v>
+      <c r="B15" s="108" t="s">
+        <v>198</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D15" s="88"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="106"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
@@ -4897,10 +5211,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4908,12 +5222,11 @@
     <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6">
+    <row r="1" spans="1:7" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -4921,137 +5234,128 @@
         <v>0</v>
       </c>
       <c r="C1" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="E1" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-    </row>
-    <row r="2" spans="1:8" s="41" customFormat="1" ht="15.6">
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:7" s="41" customFormat="1" ht="15.6">
       <c r="A2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="134" t="s">
-        <v>341</v>
+      <c r="B2" s="133" t="s">
+        <v>339</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D2" s="33"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6">
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="134" t="s">
-        <v>341</v>
+      <c r="B3" s="133" t="s">
+        <v>339</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="134" t="s">
-        <v>341</v>
+      <c r="B5" s="133" t="s">
+        <v>339</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="D5" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="86"/>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6">
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999">
-      <c r="A7" s="106" t="s">
-        <v>186</v>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999">
+      <c r="A7" s="105" t="s">
+        <v>184</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="101"/>
+        <v>310</v>
+      </c>
+      <c r="C7" s="100"/>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="106" t="s">
-        <v>187</v>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="105" t="s">
+        <v>185</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="89" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6">
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="1" t="s">
         <v>166</v>
       </c>
@@ -5062,48 +5366,45 @@
         <v>16</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="107" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="106" t="s">
         <v>167</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>341</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>343</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-    </row>
-    <row r="11" spans="1:8" s="41" customFormat="1" ht="15.6">
+    </row>
+    <row r="11" spans="1:7" s="41" customFormat="1" ht="15.6">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="102" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="94"/>
-      <c r="E11" s="104"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="88"/>
       <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-    </row>
-    <row r="12" spans="1:8" s="41" customFormat="1">
+    </row>
+    <row r="12" spans="1:7" s="41" customFormat="1">
       <c r="A12" s="44" t="s">
         <v>46</v>
       </c>
@@ -5115,9 +5416,8 @@
       <c r="E12" s="88"/>
       <c r="F12" s="88"/>
       <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-    </row>
-    <row r="13" spans="1:8" s="41" customFormat="1" ht="15">
+    </row>
+    <row r="13" spans="1:7" s="41" customFormat="1" ht="15">
       <c r="A13" s="44" t="s">
         <v>156</v>
       </c>
@@ -5135,9 +5435,8 @@
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6">
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="1" t="s">
         <v>172</v>
       </c>
@@ -5150,7 +5449,7 @@
       <c r="D14" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="103" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="91" t="s">
@@ -5159,66 +5458,59 @@
       <c r="G14" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="91" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="G15" s="134" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="105" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>345</v>
-      </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="H15" s="135" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="106" t="s">
+      <c r="B16" s="86" t="s">
         <v>179</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>180</v>
       </c>
       <c r="C16" s="86" t="s">
         <v>174</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>180</v>
       </c>
       <c r="G16" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="88" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="106"/>
+      <c r="A17" s="105"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1" display="mailto:laskdkadsas@gmail.com"/>
+    <hyperlink ref="G15" r:id="rId1" display="mailto:laskdkadsas@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5230,7 +5522,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5284,58 +5576,58 @@
         <v>96</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
       <c r="A2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="134" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="109" t="s">
-        <v>321</v>
+      <c r="B2" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>319</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+        <v>311</v>
+      </c>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="134" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" s="109" t="s">
-        <v>321</v>
+      <c r="B3" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>319</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="118" t="s">
-        <v>319</v>
+        <v>311</v>
+      </c>
+      <c r="E3" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="118" t="s">
-        <v>316</v>
+      <c r="G3" s="117" t="s">
+        <v>314</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="115" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="33" t="s">
@@ -5348,59 +5640,59 @@
         <v>38</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="134" t="s">
-        <v>341</v>
-      </c>
-      <c r="C4" s="114" t="s">
-        <v>322</v>
+      <c r="B4" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>320</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" s="114" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="F4" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="123"/>
+      <c r="M4" s="122"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="106"/>
+      <c r="A5" s="105"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="108"/>
+      <c r="A6" s="107"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="108"/>
+      <c r="A7" s="107"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="108"/>
+      <c r="A8" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5410,10 +5702,227 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.6">
+      <c r="A1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
+      <c r="A3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="137" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15">
+      <c r="A5" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="137" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A2:A14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5446,29 +5955,29 @@
       <c r="A2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="111">
+      <c r="B2" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="110">
         <v>1161138551</v>
       </c>
-      <c r="E2" s="111"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111">
+      <c r="B3" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110">
         <v>1161138552</v>
       </c>
     </row>
@@ -5476,29 +5985,29 @@
       <c r="A4" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="112" t="s">
+      <c r="B4" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112" t="s">
+      <c r="B5" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5506,144 +6015,144 @@
       <c r="A6" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="112" t="s">
+      <c r="B6" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="112"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="112" t="s">
+      <c r="B7" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="111"/>
+      <c r="B8" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="111"/>
+      <c r="E8" s="110"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="111"/>
+      <c r="E9" s="110"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112" t="s">
-        <v>197</v>
+      <c r="C10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="C11" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="111"/>
+      <c r="D11" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="110"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="C12" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112" t="s">
-        <v>199</v>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="110"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="108"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="88"/>
       <c r="C15" s="88"/>
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="108"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
@@ -5666,7 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -5741,10 +6250,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>188</v>
+        <v>250</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>169</v>
@@ -5766,35 +6275,35 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>188</v>
+        <v>254</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
       <c r="M3" s="33"/>
       <c r="N3" s="90"/>
       <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>188</v>
+        <v>255</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C4" s="87" t="s">
         <v>169</v>
@@ -5802,9 +6311,9 @@
       <c r="D4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="86"/>
-      <c r="G4" s="116"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="33"/>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -5816,20 +6325,20 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>188</v>
+        <v>256</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C5" s="87" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
-      <c r="G5" s="116"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="33"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -5841,20 +6350,20 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="117" t="s">
-        <v>201</v>
+        <v>257</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="116"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="33"/>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -5866,16 +6375,16 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="109" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="108" t="s">
         <v>169</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -5895,8 +6404,8 @@
       <c r="A8" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="109" t="s">
-        <v>188</v>
+      <c r="B8" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>169</v>
@@ -5904,14 +6413,14 @@
       <c r="D8" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="117" t="s">
         <v>235</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="118" t="s">
-        <v>237</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>39</v>
@@ -5928,8 +6437,8 @@
       <c r="A9" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="109" t="s">
-        <v>188</v>
+      <c r="B9" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>169</v>
@@ -5937,14 +6446,14 @@
       <c r="D9" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="117" t="s">
         <v>235</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G9" s="118" t="s">
-        <v>237</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="88"/>
@@ -5956,58 +6465,58 @@
       <c r="O9" s="88"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A10" s="132" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>188</v>
+      <c r="A10" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C10" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="118" t="s">
+      <c r="D10" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="117" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" s="120">
+      <c r="I10" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="119">
         <v>6</v>
       </c>
-      <c r="K10" s="114" t="s">
+      <c r="K10" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="M10" s="121" t="s">
+      <c r="L10" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" s="120" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="O10" s="122" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="O10" s="121" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>188</v>
+        <v>252</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C11" s="87" t="s">
         <v>169</v>
@@ -6015,341 +6524,97 @@
       <c r="D11" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="117" t="s">
         <v>235</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>237</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" s="120">
+      <c r="I11" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="J11" s="119">
         <v>6</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="114" t="s">
-        <v>250</v>
+      <c r="L11" s="113" t="s">
+        <v>248</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="O11" s="122" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="O11" s="121" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>188</v>
+        <v>253</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="C12" s="87" t="s">
         <v>169</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="118" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="117" t="s">
         <v>235</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>237</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" s="120">
+      <c r="I12" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" s="119">
         <v>6</v>
       </c>
-      <c r="K12" s="114" t="s">
+      <c r="K12" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="114" t="s">
-        <v>250</v>
+      <c r="L12" s="113" t="s">
+        <v>248</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="O12" s="122" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="O12" s="121" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="108"/>
+      <c r="A13" s="107"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="108"/>
+      <c r="A14" s="107"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="108"/>
+      <c r="A15" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="131" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-    </row>
-    <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-    </row>
-    <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
-      <c r="A4" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" thickBot="1">
-      <c r="A5" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="127" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="128" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="128" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="118" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="J5" s="118" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="P5" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="130">
-        <v>33332010</v>
-      </c>
-      <c r="R5" s="138" t="s">
-        <v>239</v>
-      </c>
-      <c r="S5" s="139"/>
-    </row>
-    <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="106" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="127" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="128" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="106"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="106"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="R5:S5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="383">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -204,9 +204,6 @@
     <t>ProblemaRecargas</t>
   </si>
   <si>
-    <t>11120000000212</t>
-  </si>
-  <si>
     <t>0818</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>NoNominaNuevoTelefonico</t>
   </si>
   <si>
-    <t>22222081</t>
-  </si>
-  <si>
     <t>15/02/1992</t>
   </si>
   <si>
@@ -702,9 +696,6 @@
     <t>DatosConocimientos</t>
   </si>
   <si>
-    <t>2932443385</t>
-  </si>
-  <si>
     <t>15/02/2010</t>
   </si>
   <si>
@@ -1101,18 +1092,6 @@
     <t>Portito</t>
   </si>
   <si>
-    <t>925475889</t>
-  </si>
-  <si>
-    <t>2932561024</t>
-  </si>
-  <si>
-    <t>2932563871</t>
-  </si>
-  <si>
-    <t>32579543</t>
-  </si>
-  <si>
     <t>NoNomina</t>
   </si>
   <si>
@@ -1125,40 +1104,82 @@
     <t>Uno</t>
   </si>
   <si>
-    <t>2932561035</t>
-  </si>
-  <si>
-    <t>QueChamito</t>
-  </si>
-  <si>
-    <t>Pue</t>
-  </si>
-  <si>
-    <t>33233022</t>
-  </si>
-  <si>
-    <t>2932561049</t>
-  </si>
-  <si>
-    <t>Probando</t>
-  </si>
-  <si>
-    <t>4547668</t>
-  </si>
-  <si>
     <t>Accid</t>
   </si>
   <si>
-    <t>9623409</t>
-  </si>
-  <si>
-    <t>2932478113</t>
-  </si>
-  <si>
-    <t>3000000127210001</t>
-  </si>
-  <si>
     <t>2477229507</t>
+  </si>
+  <si>
+    <t>2932564465</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>91020601</t>
+  </si>
+  <si>
+    <t>Quenico</t>
+  </si>
+  <si>
+    <t>2932564466</t>
+  </si>
+  <si>
+    <t>91020602</t>
+  </si>
+  <si>
+    <t>8000000176010001</t>
+  </si>
+  <si>
+    <t>2932564467</t>
+  </si>
+  <si>
+    <t>91020603</t>
+  </si>
+  <si>
+    <t>11120000009800</t>
+  </si>
+  <si>
+    <t>11120000009818</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>OFICINA COMERCIAL</t>
+  </si>
+  <si>
+    <t>TELEFONICO</t>
+  </si>
+  <si>
+    <t>AGENTE</t>
+  </si>
+  <si>
+    <t>910206011</t>
+  </si>
+  <si>
+    <t>Camaron</t>
+  </si>
+  <si>
+    <t>Bombai</t>
+  </si>
+  <si>
+    <t>2932564469</t>
+  </si>
+  <si>
+    <t>925472019</t>
+  </si>
+  <si>
+    <t>2932564778</t>
+  </si>
+  <si>
+    <t>2932561017</t>
+  </si>
+  <si>
+    <t>32328505</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1357,6 +1378,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF3715A"/>
       </patternFill>
     </fill>
   </fills>
@@ -1563,9 +1590,6 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1573,9 +1597,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1635,7 +1656,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,12 +1841,19 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2118,7 +2145,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -2140,7 +2167,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2164,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -2173,43 +2200,43 @@
         <v>15</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -2220,10 +2247,10 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>10</v>
@@ -2244,10 +2271,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>33</v>
@@ -2256,10 +2283,10 @@
         <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
@@ -2290,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>33</v>
@@ -2340,7 +2367,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>33</v>
@@ -2360,7 +2387,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -2396,19 +2423,19 @@
         <v>34</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>36</v>
@@ -2423,15 +2450,15 @@
         <v>20</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2440,19 +2467,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2475,28 +2502,28 @@
     </row>
     <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>165</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2511,8 +2538,8 @@
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>337</v>
+      <c r="B8" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2531,7 +2558,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2555,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -2564,46 +2591,46 @@
         <v>15</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="O9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="X9" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="Y9" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z9" s="3"/>
     </row>
@@ -2612,7 +2639,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -2633,13 +2660,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>33</v>
@@ -2655,7 +2682,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
@@ -2673,91 +2700,91 @@
       <c r="G11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="50" t="s">
-        <v>73</v>
+      <c r="P11" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="50" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="S11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="52" t="s">
+      <c r="T11" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="52" t="s">
+      <c r="V11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="52" t="s">
+      <c r="W11" s="50" t="s">
         <v>38</v>
       </c>
       <c r="X11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="53" t="s">
-        <v>59</v>
+      <c r="Y11" s="51" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>79</v>
-      </c>
       <c r="D12" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="34"/>
@@ -2774,7 +2801,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -2795,13 +2822,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>33</v>
@@ -2817,7 +2844,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2826,22 +2853,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2867,14 +2894,14 @@
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>186</v>
+      <c r="B15" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -2891,16 +2918,16 @@
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1">
       <c r="A16" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>186</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>27</v>
@@ -2921,7 +2948,7 @@
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -2942,7 +2969,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -2951,13 +2978,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="25"/>
@@ -2975,34 +3002,34 @@
     </row>
     <row r="18" spans="1:26" s="28" customFormat="1">
       <c r="A18" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -3013,7 +3040,7 @@
     </row>
     <row r="19" spans="1:26" s="28" customFormat="1">
       <c r="A19" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>54</v>
@@ -3034,13 +3061,13 @@
         <v>45</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>33</v>
@@ -3056,20 +3083,20 @@
       <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="3"/>
@@ -3084,184 +3111,184 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
     </row>
     <row r="23" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
     </row>
     <row r="25" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
     </row>
     <row r="26" spans="1:26" ht="40.200000000000003" thickBot="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="62"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="66"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="67"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="68"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
@@ -3282,7 +3309,7 @@
       <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="66"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -3332,7 +3359,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="63"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
@@ -3342,13 +3369,13 @@
       <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="E31" s="63"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="B32" s="60"/>
+      <c r="G32" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3391,8 +3418,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="130" t="s">
-        <v>105</v>
+      <c r="A1" s="127" t="s">
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3401,37 +3428,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O1" s="9"/>
       <c r="P1" s="3"/>
@@ -3440,168 +3467,168 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="108" t="s">
+      <c r="A2" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+    </row>
+    <row r="3" spans="1:19" ht="15">
+      <c r="A3" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+    </row>
+    <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A4" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-    </row>
-    <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="108" t="s">
+      <c r="D4" s="120"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" thickBot="1">
+      <c r="A5" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-    </row>
-    <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
-      <c r="A4" s="45" t="s">
+      <c r="D5" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="G5" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" thickBot="1">
-      <c r="A5" s="45" t="s">
+      <c r="H5" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="126" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="127" t="s">
+      <c r="I5" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="J5" s="114" t="s">
         <v>232</v>
-      </c>
-      <c r="H5" s="117" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5" s="117" t="s">
-        <v>235</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="115" t="s">
-        <v>236</v>
+      <c r="L5" s="112" t="s">
+        <v>233</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="P5" s="129" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="129">
+      <c r="Q5" s="126">
         <v>33332010</v>
       </c>
-      <c r="R5" s="138" t="s">
-        <v>237</v>
-      </c>
-      <c r="S5" s="139"/>
+      <c r="R5" s="137" t="s">
+        <v>234</v>
+      </c>
+      <c r="S5" s="138"/>
     </row>
     <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="105" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="126" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="128" t="s">
+      <c r="A6" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="127" t="s">
-        <v>231</v>
+      <c r="F6" s="124" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="105"/>
+      <c r="A7" s="102"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="105"/>
+      <c r="A8" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3627,18 +3654,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3650,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3665,264 +3692,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="E1" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="F1" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="G1" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="H1" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="I1" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="J1" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="K1" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="I1" s="77" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.6" thickBot="1">
+      <c r="A2" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="C2" s="75" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="D2" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickBot="1">
+      <c r="A3" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="B3" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="80" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" thickBot="1">
-      <c r="A3" s="78" t="s">
+      <c r="K3" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F3" s="80" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15.6" thickBot="1">
+      <c r="A4" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="82" t="s">
+      <c r="B4" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="73" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" thickBot="1">
-      <c r="A5" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="A5" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" thickBot="1">
-      <c r="A6" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="81"/>
+      <c r="A6" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="78"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
+      <c r="A7" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="18" thickBot="1">
-      <c r="A8" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="84" t="s">
-        <v>299</v>
+      <c r="A8" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="81" t="s">
+        <v>296</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" thickBot="1">
-      <c r="A9" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
+      <c r="D9" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="7"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="83" t="s">
-        <v>283</v>
+      <c r="A10" s="80" t="s">
+        <v>280</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>321</v>
+        <v>298</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3932,47 +3959,47 @@
     </row>
     <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>321</v>
+        <v>293</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>318</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="132" t="s">
-        <v>322</v>
+        <v>300</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>319</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3982,25 +4009,25 @@
     </row>
     <row r="13" spans="1:11" ht="13.8" thickBot="1">
       <c r="A13" s="41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>321</v>
+        <v>303</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>318</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -4029,43 +4056,43 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
+        <v>223</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>308</v>
+        <v>224</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>305</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4075,15 +4102,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
@@ -4093,9 +4120,9 @@
     <col min="11" max="11" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1">
+    <row r="1" spans="1:16" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -4125,485 +4152,511 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
+      <c r="A2" s="136" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.8" thickBot="1">
+      <c r="A3" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="13.8" thickBot="1">
+      <c r="A4" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="13.8" thickBot="1">
+      <c r="A5" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A2" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>363</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="M5" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.8" thickBot="1">
+      <c r="A6" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="C6" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="J6" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="L6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A3" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A4" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="M6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="13.8" thickBot="1">
+      <c r="A7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A5" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="7">
+        <v>16552744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" thickBot="1">
+      <c r="A10" s="136" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.8" thickBot="1">
+      <c r="A11" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="J11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A6" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A7" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="7">
-        <v>325795437</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="134" t="s">
-        <v>361</v>
-      </c>
-      <c r="I10" s="135">
-        <v>45703</v>
-      </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="7">
-        <v>22222744</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="135">
-        <v>33649</v>
-      </c>
-      <c r="F11" t="s">
-        <v>208</v>
+      <c r="N11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="7" t="s">
         <v>358</v>
       </c>
       <c r="C12" s="7">
-        <v>33333024</v>
+        <v>22355504</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="132">
+        <v>33649</v>
+      </c>
+      <c r="F13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C13" s="7">
-        <v>22355504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" s="7">
-        <v>16552744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+      <c r="D14" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="E14" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="131" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14" s="132">
+        <v>45703</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.2" thickBot="1">
+      <c r="A15" s="136" t="s">
+        <v>374</v>
+      </c>
       <c r="B15" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="7">
-        <v>95806451</v>
-      </c>
-      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="65" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="13.8" thickBot="1"/>
-    <row r="19" spans="1:15" ht="13.8" thickBot="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="G15" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="13.8" thickBot="1">
+      <c r="A16" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.8" thickBot="1">
+      <c r="A17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.8" thickBot="1">
+      <c r="A18" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:14">
+      <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="31"/>
+    <row r="22" spans="1:14">
+      <c r="B22" s="133"/>
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="136"/>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="136"/>
+    <row r="24" spans="1:14">
+      <c r="B24" s="133"/>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:15">
-      <c r="B25" s="136"/>
+    <row r="25" spans="1:14">
+      <c r="B25" s="133"/>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="B26" s="136"/>
+    <row r="26" spans="1:14">
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:14">
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:14">
       <c r="C28" s="31"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:14">
       <c r="C29" s="31"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:14">
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:14">
       <c r="C31" s="31"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:14">
       <c r="C32" s="31"/>
     </row>
     <row r="33" spans="3:3">
@@ -4654,52 +4707,53 @@
     <row r="48" spans="3:3">
       <c r="C48" s="31"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:9">
       <c r="C49" s="31"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:9">
       <c r="C50" s="31"/>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:9">
       <c r="C51" s="31"/>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:9">
       <c r="C52" s="31"/>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:9">
       <c r="C53" s="31"/>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:9">
       <c r="C54" s="31"/>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:9">
       <c r="C55" s="31"/>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:9">
       <c r="C56" s="31"/>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:9">
       <c r="C57" s="31"/>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:9">
       <c r="C58" s="31"/>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:9">
       <c r="C59" s="31"/>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:9">
       <c r="C60" s="31"/>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:9">
       <c r="C61" s="31"/>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:9">
       <c r="C62" s="31"/>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:9">
       <c r="C63" s="31"/>
-    </row>
-    <row r="64" spans="3:3">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="3:9">
       <c r="C64" s="31"/>
     </row>
     <row r="65" spans="3:3">
@@ -4852,21 +4906,19 @@
     <row r="114" spans="3:3">
       <c r="C114" s="31"/>
     </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="31"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="mailto:Nodocnominado@gmail.com"/>
-    <hyperlink ref="H5" r:id="rId2" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H8" r:id="rId3"/>
-    <hyperlink ref="H9" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5" display="mailto:Nominacionautoma@gmail.com"/>
-    <hyperlink ref="H2" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="H16" r:id="rId1" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H15" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H18" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -4886,96 +4938,96 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="106" t="s">
-        <v>137</v>
+      <c r="A2" s="103" t="s">
+        <v>136</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="106" t="s">
-        <v>138</v>
+      <c r="A4" s="103" t="s">
+        <v>137</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>150</v>
+      <c r="B6" s="83" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="88">
+      <c r="A9" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="85">
         <v>30998801</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="83"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="83"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="85"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="88"/>
+      <c r="B13" s="85"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="88"/>
+      <c r="B14" s="85"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="88"/>
+      <c r="B15" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5000,209 +5052,209 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="88"/>
+      <c r="C1" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="44" t="s">
-        <v>72</v>
+      <c r="A2" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="88"/>
+        <v>308</v>
+      </c>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="44" t="s">
-        <v>71</v>
+      <c r="A3" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="88"/>
+        <v>308</v>
+      </c>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="88"/>
+      <c r="C4" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="43" t="s">
-        <v>240</v>
+      <c r="A5" s="42" t="s">
+        <v>237</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="88"/>
+        <v>238</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="85"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43" t="s">
-        <v>84</v>
+      <c r="A6" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="88"/>
+      <c r="C7" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="85"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="86" t="s">
+      <c r="B9" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="88"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6">
-      <c r="A9" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="105" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>339</v>
+      <c r="A10" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>336</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D10" s="88"/>
+        <v>337</v>
+      </c>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="88"/>
+      <c r="C11" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="85"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="88"/>
+        <v>308</v>
+      </c>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="85"/>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="88"/>
+      <c r="B14" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="85"/>
     </row>
     <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="88"/>
+      <c r="D15" s="85"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="105"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5213,7 +5265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5228,285 +5280,294 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:7" s="41" customFormat="1" ht="15.6">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="133" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="B2" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>340</v>
+        <v>156</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+        <v>370</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>57</v>
+        <v>157</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>369</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
+        <v>371</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>340</v>
+        <v>138</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="135" t="s">
+        <v>368</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+        <v>57</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999">
+      <c r="A7" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.399999999999999">
-      <c r="A7" s="105" t="s">
+      <c r="B7" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="106" t="s">
-        <v>167</v>
-      </c>
       <c r="B10" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+        <v>338</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:7" s="41" customFormat="1" ht="15.6">
       <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:7" s="41" customFormat="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+        <v>161</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
     </row>
     <row r="13" spans="1:7" s="41" customFormat="1" ht="15">
-      <c r="A13" s="44" t="s">
-        <v>156</v>
+      <c r="A13" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
     </row>
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="91" t="s">
+      <c r="B15" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="131" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="102" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="106" t="s">
+      <c r="B16" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>343</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="G15" s="134" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="86" t="s">
+      <c r="D16" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="88" t="s">
+      <c r="E16" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="88" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="105"/>
+      <c r="A17" s="102"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5522,7 +5583,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5540,95 +5601,95 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="M1" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="133" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="87" t="s">
+      <c r="B2" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="114" t="s">
         <v>311</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-    </row>
-    <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="117" t="s">
-        <v>314</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="115" t="s">
-        <v>87</v>
+      <c r="I3" s="112" t="s">
+        <v>86</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>36</v>
@@ -5640,59 +5701,59 @@
         <v>38</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4" s="113" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="113" t="s">
+      <c r="I4" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="K4" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="L4" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="105"/>
+      <c r="A5" s="102"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="107"/>
+      <c r="A6" s="104"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="107"/>
+      <c r="A7" s="104"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="107"/>
+      <c r="A8" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5704,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5723,7 +5784,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5732,54 +5793,54 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="137" t="s">
-        <v>341</v>
+      <c r="B2" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="134" t="s">
+        <v>338</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="28"/>
@@ -5797,14 +5858,14 @@
       <c r="A3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>374</v>
+      <c r="B3" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>365</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="28"/>
@@ -5820,100 +5881,101 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="137" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="M4" s="48" t="s">
+      <c r="I4" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="20" t="s">
-        <v>59</v>
+      <c r="N4" s="31" t="s">
+        <v>364</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="137" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="M5" s="48" t="s">
+      <c r="I5" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="20" t="s">
-        <v>59</v>
+      <c r="N5" s="31" t="s">
+        <v>361</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5935,240 +5997,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="59" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="D2" s="107">
+        <v>1161138551</v>
+      </c>
+      <c r="E2" s="107"/>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107">
+        <v>1161138552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="107"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="108"/>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="107"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="107"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="110">
-        <v>1161138551</v>
-      </c>
-      <c r="E2" s="110"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="109" t="s">
+      <c r="B9" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="107"/>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110">
-        <v>1161138552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="110"/>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111" t="s">
+      <c r="B10" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="107"/>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="111"/>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="110"/>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="110"/>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="109" t="s">
+      <c r="E13" s="107"/>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="110"/>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="109" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="110"/>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="110"/>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="110"/>
+      <c r="D14" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="107"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="107"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="107"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6203,7 +6265,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6212,407 +6274,407 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="86" t="s">
+      <c r="A2" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A5" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A6" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="86" t="s">
+      <c r="B6" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+    </row>
+    <row r="7" spans="1:15" ht="15">
+      <c r="A7" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-    </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A5" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A6" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-    </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
     </row>
     <row r="8" spans="1:15" ht="15">
-      <c r="A8" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="117" t="s">
-        <v>233</v>
+      <c r="A8" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>230</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="117" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A9" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="117" t="s">
-        <v>233</v>
+      <c r="A9" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>230</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="H9" s="33"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A10" s="131" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>233</v>
+      <c r="A10" s="128" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>230</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="115" t="s">
-        <v>236</v>
-      </c>
-      <c r="J10" s="119">
+      <c r="I10" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" s="116">
         <v>6</v>
       </c>
-      <c r="K10" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="113" t="s">
-        <v>248</v>
-      </c>
-      <c r="M10" s="120" t="s">
+      <c r="K10" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="117" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="O10" s="121" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="O10" s="118" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A11" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="86" t="s">
+      <c r="A11" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="117" t="s">
-        <v>233</v>
+      <c r="E11" s="114" t="s">
+        <v>230</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="117" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="115" t="s">
-        <v>236</v>
-      </c>
-      <c r="J11" s="119">
+      <c r="I11" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" s="116">
         <v>6</v>
       </c>
-      <c r="K11" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="113" t="s">
-        <v>248</v>
+      <c r="K11" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="110" t="s">
+        <v>245</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="O11" s="121" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="O11" s="118" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A12" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>233</v>
+      <c r="A12" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="114" t="s">
+        <v>230</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="115" t="s">
-        <v>236</v>
-      </c>
-      <c r="J12" s="119">
+      <c r="I12" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="116">
         <v>6</v>
       </c>
-      <c r="K12" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="113" t="s">
-        <v>248</v>
+      <c r="K12" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="110" t="s">
+        <v>245</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="O12" s="121" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="O12" s="118" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="107"/>
+      <c r="A13" s="104"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="107"/>
+      <c r="A14" s="104"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="107"/>
+      <c r="A15" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -17,21 +17,22 @@
     <sheet name="dni" sheetId="14" r:id="rId3"/>
     <sheet name="dni linea" sheetId="15" r:id="rId4"/>
     <sheet name="clientes" sheetId="16" r:id="rId5"/>
-    <sheet name="recargas" sheetId="18" r:id="rId6"/>
-    <sheet name="renovacion" sheetId="12" r:id="rId7"/>
-    <sheet name="numeros amigos" sheetId="20" r:id="rId8"/>
-    <sheet name="venta de pack" sheetId="17" r:id="rId9"/>
-    <sheet name="cambio de simcard" sheetId="19" r:id="rId10"/>
-    <sheet name="befan" sheetId="22" r:id="rId11"/>
-    <sheet name="seriales" sheetId="23" r:id="rId12"/>
-    <sheet name="servicio tecnico" sheetId="24" r:id="rId13"/>
+    <sheet name="DatosRegresion" sheetId="25" r:id="rId6"/>
+    <sheet name="recargas" sheetId="18" r:id="rId7"/>
+    <sheet name="renovacion" sheetId="12" r:id="rId8"/>
+    <sheet name="numeros amigos" sheetId="20" r:id="rId9"/>
+    <sheet name="venta de pack" sheetId="17" r:id="rId10"/>
+    <sheet name="cambio de simcard" sheetId="19" r:id="rId11"/>
+    <sheet name="befan" sheetId="22" r:id="rId12"/>
+    <sheet name="seriales" sheetId="23" r:id="rId13"/>
+    <sheet name="servicio tecnico" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="413">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -1180,13 +1181,103 @@
   </si>
   <si>
     <t>32328505</t>
+  </si>
+  <si>
+    <t>NOMINACION</t>
+  </si>
+  <si>
+    <t>ZONA</t>
+  </si>
+  <si>
+    <t>NuevaNomina</t>
+  </si>
+  <si>
+    <t>2932564322</t>
+  </si>
+  <si>
+    <t>77586423</t>
+  </si>
+  <si>
+    <t>Automata</t>
+  </si>
+  <si>
+    <t>Compacto</t>
+  </si>
+  <si>
+    <t>ExistenteNomina</t>
+  </si>
+  <si>
+    <t>RECARGAS</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>Mes Vence</t>
+  </si>
+  <si>
+    <t>Año Vence</t>
+  </si>
+  <si>
+    <t>Tipo de Doc</t>
+  </si>
+  <si>
+    <t>RecargasTC</t>
+  </si>
+  <si>
+    <t>COMPRA DE PACK</t>
+  </si>
+  <si>
+    <t>PackSmsDescuento</t>
+  </si>
+  <si>
+    <t>PackDatosEfectivo</t>
+  </si>
+  <si>
+    <t>PackMinutosTC</t>
+  </si>
+  <si>
+    <t>RENOVACION</t>
+  </si>
+  <si>
+    <t>RenovacionDescuentoTelef</t>
+  </si>
+  <si>
+    <t>RenovacionEfectivoOOCC</t>
+  </si>
+  <si>
+    <t>RenovacionTCAgente</t>
+  </si>
+  <si>
+    <t>AutoCompac@gmail.com</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>8000000207810001</t>
+  </si>
+  <si>
+    <t>2932564332</t>
+  </si>
+  <si>
+    <t>Pack 1 GB x 1 dia + whatsapp gratis</t>
+  </si>
+  <si>
+    <t>Pack 7 dias de SMS ilimitados</t>
+  </si>
+  <si>
+    <t>Pack 300 min a Personal x 7 dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1339,6 +1430,20 @@
     <font>
       <sz val="8"/>
       <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1513,7 +1618,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1847,13 +1952,23 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3396,6 +3511,450 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.6">
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15">
+      <c r="A2" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
+      <c r="A3" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A5" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A6" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+    </row>
+    <row r="7" spans="1:15" ht="15">
+      <c r="A7" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" ht="15">
+      <c r="A8" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A9" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A10" s="128" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" s="116">
+        <v>6</v>
+      </c>
+      <c r="K10" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O10" s="118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A11" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" s="116">
+        <v>6</v>
+      </c>
+      <c r="K11" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O11" s="118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" thickBot="1">
+      <c r="A12" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="116">
+        <v>6</v>
+      </c>
+      <c r="K12" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O12" s="118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="104"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="104"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="104"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,10 +4158,10 @@
       <c r="Q5" s="126">
         <v>33332010</v>
       </c>
-      <c r="R5" s="137" t="s">
+      <c r="R5" s="138" t="s">
         <v>234</v>
       </c>
-      <c r="S5" s="138"/>
+      <c r="S5" s="139"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="102" t="s">
@@ -3638,7 +4197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3673,7 +4232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4038,7 +4597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4226,7 +4785,7 @@
       <c r="B4" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="137" t="s">
         <v>361</v>
       </c>
       <c r="D4" s="60" t="s">
@@ -5265,7 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5579,6 +6138,479 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" style="140" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="140" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="140" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="140" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="140" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="140" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="140" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" style="140" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="140" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" style="140" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="140"/>
+    <col min="12" max="12" width="8.44140625" style="140" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="140" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="140" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="140" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="140"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.2" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A2" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A3" s="140" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.6">
+      <c r="A4" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="141" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="141" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="141" t="s">
+        <v>395</v>
+      </c>
+      <c r="L4" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="141" t="s">
+        <v>396</v>
+      </c>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+    </row>
+    <row r="5" spans="1:15" ht="15">
+      <c r="A5" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.6">
+      <c r="A6" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="141" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="141" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="141" t="s">
+        <v>395</v>
+      </c>
+      <c r="L6" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="141" t="s">
+        <v>396</v>
+      </c>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="140" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="145" t="s">
+        <v>411</v>
+      </c>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="140" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="140" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6">
+      <c r="A10" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+    </row>
+    <row r="11" spans="1:15" ht="15">
+      <c r="A11" s="140" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15">
+      <c r="A12" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15">
+      <c r="A13" s="140" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -5761,7 +6793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -5979,7 +7011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -6235,448 +7267,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
-      <c r="A1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A5" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A6" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-    </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-    </row>
-    <row r="8" spans="1:15" ht="15">
-      <c r="A8" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A9" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A10" s="128" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="J10" s="116">
-        <v>6</v>
-      </c>
-      <c r="K10" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="M10" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="O10" s="118" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A11" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="J11" s="116">
-        <v>6</v>
-      </c>
-      <c r="K11" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="O11" s="118" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A12" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="J12" s="116">
-        <v>6</v>
-      </c>
-      <c r="K12" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="O12" s="118" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="104"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="104"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="104"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="nominacion" sheetId="21" r:id="rId1"/>
-    <sheet name="alta de linea" sheetId="8" r:id="rId2"/>
-    <sheet name="dni linea" sheetId="15" r:id="rId3"/>
-    <sheet name="dni" sheetId="14" r:id="rId4"/>
-    <sheet name="clientes" sheetId="16" r:id="rId5"/>
-    <sheet name="DatosRegresion" sheetId="25" r:id="rId6"/>
+    <sheet name="DatosRegresion" sheetId="25" r:id="rId1"/>
+    <sheet name="nominacion" sheetId="21" r:id="rId2"/>
+    <sheet name="alta de linea" sheetId="8" r:id="rId3"/>
+    <sheet name="dni linea" sheetId="15" r:id="rId4"/>
+    <sheet name="dni" sheetId="14" r:id="rId5"/>
+    <sheet name="clientes" sheetId="16" r:id="rId6"/>
     <sheet name="recargas" sheetId="18" r:id="rId7"/>
     <sheet name="venta de pack" sheetId="17" r:id="rId8"/>
     <sheet name="renovacion" sheetId="12" r:id="rId9"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="452">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -970,9 +970,6 @@
     <t>Tipo de Entrega</t>
   </si>
   <si>
-    <t>Ramon Pasquier</t>
-  </si>
-  <si>
     <t>NoNominacionNuevoTelefonicoPasaporte</t>
   </si>
   <si>
@@ -1093,9 +1090,6 @@
     <t>NuevaNomina</t>
   </si>
   <si>
-    <t>2932564322</t>
-  </si>
-  <si>
     <t>77586423</t>
   </si>
   <si>
@@ -1159,18 +1153,12 @@
     <t>1521</t>
   </si>
   <si>
-    <t>8000000207810001</t>
-  </si>
-  <si>
     <t>2932564332</t>
   </si>
   <si>
     <t>Pack 1 GB x 1 dia + whatsapp gratis</t>
   </si>
   <si>
-    <t>Pack 7 dias de SMS ilimitados</t>
-  </si>
-  <si>
     <t>Pack 300 min a Personal x 7 dias</t>
   </si>
   <si>
@@ -1376,13 +1364,37 @@
   </si>
   <si>
     <t>chinwen@gmail.com</t>
+  </si>
+  <si>
+    <t>Automatata</t>
+  </si>
+  <si>
+    <t>2932598486</t>
+  </si>
+  <si>
+    <t>11658923</t>
+  </si>
+  <si>
+    <t>MASTERCARD/ARGENCARD S.A. - Cuotas: 1.. 1 Recargo:  0,00%</t>
+  </si>
+  <si>
+    <t>PackAgenteSMSyMinutos</t>
+  </si>
+  <si>
+    <t>Pack SMS y Minutos a Personal Ilimitados x 7 días</t>
+  </si>
+  <si>
+    <t>PackAgente40Minutos</t>
+  </si>
+  <si>
+    <t>Pack 40 minutos a cualquier compañía x 3 días</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1639,6 +1651,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1949,7 +1967,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2405,29 +2423,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2718,2389 +2740,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="105" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="105" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="105"/>
-    <col min="6" max="6" width="24.44140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="105" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" style="105" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" style="105" customWidth="1"/>
-    <col min="12" max="15" width="11.5546875" style="105"/>
-    <col min="16" max="16" width="20.44140625" style="105" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="105"/>
+    <col min="1" max="1" width="25.109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="91" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="91" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="91" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" style="91" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" style="91" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="91"/>
+    <col min="12" max="12" width="8.44140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="91" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="91" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="91" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="101" t="s">
+    <row r="1" spans="1:15" ht="16.2" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="101" t="s">
-        <v>298</v>
-      </c>
-      <c r="L1" s="101" t="s">
+      <c r="K1" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="N1" s="101" t="s">
-        <v>300</v>
-      </c>
-      <c r="O1" s="101" t="s">
+      <c r="M1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
-      <c r="A2" s="143" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="97"/>
-      <c r="B3" s="122" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>346</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="G3" s="98" t="s">
+    <row r="2" spans="1:15" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A2" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="H3" s="99" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" s="109" t="s">
+      <c r="H2" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J2" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K2" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="L3" s="107" t="s">
+      <c r="L2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="109" t="s">
+      <c r="M2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="107" t="s">
-        <v>308</v>
-      </c>
-      <c r="O3" s="110" t="s">
+      <c r="N2" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="122" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>331</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="110"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="I5" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="L5" s="97" t="s">
-        <v>303</v>
-      </c>
-      <c r="M5" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="107" t="s">
-        <v>308</v>
-      </c>
-      <c r="P5" s="97" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="K6" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="98"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="105" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="109">
-        <v>16552744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.6">
-      <c r="A10" s="143" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="E11" s="97" t="s">
+    <row r="3" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A3" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.6">
+      <c r="A4" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="L4" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+    </row>
+    <row r="5" spans="1:15" ht="15">
+      <c r="A5" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="216" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="216" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.2" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="K6" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="L6" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A7" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="215" t="s">
+        <v>415</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="216" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6">
+      <c r="A10" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" s="99" t="s">
-        <v>324</v>
-      </c>
-      <c r="I11" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="K11" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="L11" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="107" t="s">
-        <v>308</v>
-      </c>
-      <c r="O11" s="110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="105" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="109">
-        <v>22355504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="105" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="145">
-        <v>33649</v>
-      </c>
-      <c r="F13" s="105" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="122" t="s">
-        <v>344</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>322</v>
-      </c>
-      <c r="E14" s="105" t="s">
-        <v>314</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="146" t="s">
-        <v>323</v>
-      </c>
-      <c r="I14" s="145">
-        <v>45703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.6">
-      <c r="A15" s="143" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="137" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="122" t="s">
-        <v>332</v>
-      </c>
-      <c r="C16" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>331</v>
-      </c>
-      <c r="E16" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="K16" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="107" t="s">
-        <v>308</v>
-      </c>
-      <c r="O16" s="110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="105" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="E18" s="97" t="s">
-        <v>325</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>324</v>
-      </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-    </row>
-    <row r="19" spans="1:20" s="150" customFormat="1" ht="15.6">
-      <c r="A19" s="147">
-        <v>2932598064</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="148" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="148" t="s">
-        <v>388</v>
-      </c>
-      <c r="E19" s="148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="149" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="150" t="s">
-        <v>387</v>
-      </c>
-      <c r="H19" s="148" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="148" t="s">
-        <v>386</v>
-      </c>
-      <c r="J19" s="148" t="s">
-        <v>385</v>
-      </c>
-      <c r="K19" s="148" t="s">
-        <v>384</v>
-      </c>
-      <c r="L19" s="148" t="s">
-        <v>383</v>
-      </c>
-      <c r="M19" s="151" t="s">
-        <v>382</v>
-      </c>
-      <c r="N19" s="148" t="s">
-        <v>381</v>
-      </c>
-      <c r="O19" s="148" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="148" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="31.2">
-      <c r="A21" s="97"/>
-      <c r="B21" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="101" t="s">
-        <v>298</v>
-      </c>
-      <c r="L21" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="N21" s="101" t="s">
-        <v>300</v>
-      </c>
-      <c r="O21" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="P21" s="140" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q21" s="140" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="14.4">
-      <c r="A22" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="107"/>
-    </row>
-    <row r="23" spans="1:20" s="121" customFormat="1" ht="14.4">
-      <c r="A23" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B23" s="153"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="107"/>
-    </row>
-    <row r="24" spans="1:20" s="121" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A24" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="107"/>
-    </row>
-    <row r="25" spans="1:20" s="121" customFormat="1" ht="14.4">
-      <c r="A25" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="107"/>
-    </row>
-    <row r="26" spans="1:20" s="121" customFormat="1" ht="14.4">
-      <c r="A26" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="107"/>
-    </row>
-    <row r="27" spans="1:20" s="121" customFormat="1" ht="14.4">
-      <c r="A27" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="107"/>
-    </row>
-    <row r="28" spans="1:20" s="121" customFormat="1" ht="14.4">
-      <c r="A28" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B28" s="154"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="107"/>
-    </row>
-    <row r="29" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A29" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="107"/>
-    </row>
-    <row r="30" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A30" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="107"/>
-    </row>
-    <row r="31" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A31" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="107"/>
-    </row>
-    <row r="32" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A32" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B32" s="154"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="107"/>
-    </row>
-    <row r="33" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A33" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="107"/>
-    </row>
-    <row r="34" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A34" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B34" s="154"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="166"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="107"/>
-    </row>
-    <row r="35" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A35" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="166"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="107"/>
-    </row>
-    <row r="36" spans="1:20" ht="14.4">
-      <c r="A36" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="166"/>
-      <c r="O36" s="136"/>
-      <c r="P36" s="136"/>
-      <c r="Q36" s="141"/>
-    </row>
-    <row r="37" spans="1:20" ht="14.4">
-      <c r="B37" s="153"/>
-      <c r="C37" s="122"/>
-    </row>
-    <row r="38" spans="1:20" s="121" customFormat="1"/>
-    <row r="39" spans="1:20" s="163" customFormat="1" ht="14.4"/>
-    <row r="40" spans="1:20" s="163" customFormat="1" ht="14.4"/>
-    <row r="41" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A41" s="91"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="164"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-    </row>
-    <row r="42" spans="1:20" s="163" customFormat="1" ht="31.2">
-      <c r="A42" s="97"/>
-      <c r="B42" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="102" t="s">
-        <v>307</v>
-      </c>
-      <c r="L42" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="M42" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="N42" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="O42" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="P42" s="139" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q42" s="140" t="s">
-        <v>399</v>
-      </c>
-      <c r="R42" s="140" t="s">
-        <v>400</v>
-      </c>
-      <c r="S42" s="140" t="s">
-        <v>401</v>
-      </c>
-      <c r="T42" s="140" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A43" s="204"/>
-      <c r="B43" s="205" t="s">
-        <v>418</v>
-      </c>
-      <c r="C43" s="182" t="s">
-        <v>416</v>
-      </c>
-      <c r="D43" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E43" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F43" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H43" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I43" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J43" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K43" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L43" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M43" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N43" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O43" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P43" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q43" s="107" t="s">
+      <c r="E10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+    </row>
+    <row r="11" spans="1:15" ht="15">
+      <c r="A11" s="91" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15">
+      <c r="A12" s="91" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15">
+      <c r="A13" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="216" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R43" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S43" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T43" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A44" s="106" t="s">
-        <v>403</v>
-      </c>
-      <c r="B44" s="206">
-        <v>2932598371</v>
-      </c>
-      <c r="C44" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D44" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E44" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F44" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G44" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H44" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I44" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J44" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K44" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M44" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N44" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O44" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P44" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q44" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R44" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S44" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T44" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A45" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B45" s="207">
-        <v>2932598372</v>
-      </c>
-      <c r="C45" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D45" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E45" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F45" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G45" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H45" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I45" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J45" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K45" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L45" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M45" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N45" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O45" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P45" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q45" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R45" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S45" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T45" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A46" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B46" s="207">
-        <v>2932598373</v>
-      </c>
-      <c r="C46" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D46" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E46" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F46" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H46" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I46" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J46" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K46" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L46" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M46" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N46" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O46" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P46" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q46" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R46" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S46" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T46" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A47" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B47" s="207">
-        <v>2932598374</v>
-      </c>
-      <c r="C47" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D47" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E47" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F47" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G47" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H47" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I47" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J47" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K47" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L47" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M47" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N47" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O47" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P47" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q47" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R47" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S47" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T47" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A48" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B48" s="207">
-        <v>2932598375</v>
-      </c>
-      <c r="C48" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D48" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E48" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F48" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H48" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I48" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J48" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K48" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L48" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M48" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N48" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O48" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P48" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q48" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R48" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S48" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T48" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A49" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B49" s="207">
-        <v>2932598376</v>
-      </c>
-      <c r="C49" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D49" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E49" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F49" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H49" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I49" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J49" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K49" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L49" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M49" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N49" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O49" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P49" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q49" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R49" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S49" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T49" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A50" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" s="207">
-        <v>2932598377</v>
-      </c>
-      <c r="C50" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D50" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E50" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F50" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H50" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I50" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J50" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K50" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L50" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M50" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N50" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O50" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P50" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q50" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R50" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S50" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T50" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A51" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B51" s="208">
-        <v>2932598482</v>
-      </c>
-      <c r="C51" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D51" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E51" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F51" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H51" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I51" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J51" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K51" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L51" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M51" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N51" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O51" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P51" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q51" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R51" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S51" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T51" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="A52" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B52" s="208">
-        <v>2932598441</v>
-      </c>
-      <c r="C52" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D52" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="E52" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="F52" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="H52" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="I52" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="J52" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K52" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="L52" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="M52" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="N52" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="O52" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="P52" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q52" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="R52" s="106" t="s">
-        <v>408</v>
-      </c>
-      <c r="S52" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="T52" s="107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" s="163" customFormat="1" ht="14.4">
-      <c r="B53" s="181">
-        <v>2932598365</v>
-      </c>
-      <c r="C53" s="182"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="184"/>
-      <c r="O53" s="110"/>
-      <c r="P53" s="171"/>
-      <c r="Q53" s="107"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="107"/>
-    </row>
-    <row r="54" spans="1:20" s="121" customFormat="1" ht="14.4">
-      <c r="A54" s="106"/>
-      <c r="B54" s="168">
-        <v>2932598487</v>
-      </c>
-      <c r="C54" s="182"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="107"/>
-      <c r="N54" s="184"/>
-      <c r="O54" s="110"/>
-      <c r="P54" s="171"/>
-      <c r="Q54" s="107"/>
-      <c r="R54" s="106"/>
-      <c r="S54" s="106"/>
-      <c r="T54" s="107"/>
-    </row>
-    <row r="55" spans="1:20" ht="14.4">
-      <c r="A55" s="106"/>
-      <c r="B55" s="168">
-        <v>2932598483</v>
-      </c>
-      <c r="C55" s="182"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="107"/>
-      <c r="N55" s="184"/>
-      <c r="O55" s="110"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="107"/>
-      <c r="R55" s="106"/>
-      <c r="S55" s="106"/>
-      <c r="T55" s="107"/>
-    </row>
-    <row r="56" spans="1:20" ht="14.4">
-      <c r="A56" s="106"/>
-      <c r="B56" s="168">
-        <v>2932598488</v>
-      </c>
-      <c r="C56" s="182"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="183"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="107"/>
-      <c r="N56" s="184"/>
-      <c r="O56" s="110"/>
-      <c r="P56" s="171"/>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="106"/>
-      <c r="S56" s="106"/>
-      <c r="T56" s="107"/>
-    </row>
-    <row r="57" spans="1:20" ht="14.4">
-      <c r="A57" s="106"/>
-      <c r="B57" s="168">
-        <v>2932598489</v>
-      </c>
-      <c r="C57" s="182"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="183"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="107"/>
-      <c r="N57" s="184"/>
-      <c r="O57" s="110"/>
-      <c r="P57" s="171"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="107"/>
-    </row>
-    <row r="58" spans="1:20" ht="14.4">
-      <c r="A58" s="106"/>
-      <c r="B58" s="168">
-        <v>2932598490</v>
-      </c>
-      <c r="C58" s="182"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="107"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="110"/>
-      <c r="P58" s="171"/>
-      <c r="Q58" s="107"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="106"/>
-      <c r="T58" s="107"/>
-    </row>
-    <row r="59" spans="1:20" ht="14.4">
-      <c r="A59" s="106"/>
-      <c r="B59" s="168">
-        <v>2932598491</v>
-      </c>
-      <c r="C59" s="182"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="107"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="110"/>
-      <c r="P59" s="171"/>
-      <c r="Q59" s="107"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="107"/>
-    </row>
-    <row r="60" spans="1:20" ht="14.4">
-      <c r="A60" s="106"/>
-      <c r="B60" s="168">
-        <v>2932598492</v>
-      </c>
-      <c r="C60" s="182"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="107"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="110"/>
-      <c r="P60" s="171"/>
-      <c r="Q60" s="107"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="107"/>
-    </row>
-    <row r="61" spans="1:20" ht="14.4">
-      <c r="A61" s="106"/>
-      <c r="B61" s="168">
-        <v>2932598493</v>
-      </c>
-      <c r="C61" s="182"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="94"/>
-      <c r="O61" s="110"/>
-      <c r="P61" s="171"/>
-      <c r="Q61" s="107"/>
-      <c r="R61" s="106"/>
-      <c r="S61" s="106"/>
-      <c r="T61" s="107"/>
-    </row>
-    <row r="62" spans="1:20" ht="14.4">
-      <c r="A62" s="106"/>
-      <c r="B62" s="168">
-        <v>2932598494</v>
-      </c>
-      <c r="C62" s="182"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="170"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="136"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="110"/>
-      <c r="P62" s="171"/>
-      <c r="Q62" s="107"/>
-      <c r="R62" s="106"/>
-      <c r="S62" s="106"/>
-      <c r="T62" s="107"/>
-    </row>
-    <row r="63" spans="1:20" ht="14.4">
-      <c r="A63" s="106"/>
-      <c r="B63" s="168">
-        <v>2932598495</v>
-      </c>
-      <c r="C63" s="182"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="170"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="106"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="110"/>
-      <c r="P63" s="106"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="106"/>
-      <c r="S63" s="106"/>
-      <c r="T63" s="107"/>
-    </row>
-    <row r="64" spans="1:20" ht="14.4">
-      <c r="A64" s="106"/>
-      <c r="B64" s="168">
-        <v>2932598496</v>
-      </c>
-      <c r="C64" s="182"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="106"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="106"/>
-      <c r="M64" s="107"/>
-      <c r="N64" s="107"/>
-      <c r="O64" s="110"/>
-      <c r="P64" s="106"/>
-      <c r="Q64" s="107"/>
-      <c r="R64" s="106"/>
-      <c r="S64" s="106"/>
-      <c r="T64" s="107"/>
-    </row>
-    <row r="65" spans="1:20" ht="14.4">
-      <c r="A65" s="106"/>
-      <c r="B65" s="168">
-        <v>2932598497</v>
-      </c>
-      <c r="C65" s="182"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="170"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="106"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="106"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="110"/>
-      <c r="P65" s="106"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="106"/>
-      <c r="S65" s="106"/>
-      <c r="T65" s="107"/>
-    </row>
-    <row r="66" spans="1:20" ht="14.4">
-      <c r="A66" s="106"/>
-      <c r="B66" s="168">
-        <v>2932598498</v>
-      </c>
-      <c r="C66" s="182"/>
-      <c r="D66" s="119"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="170"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="106"/>
-      <c r="M66" s="107"/>
-      <c r="N66" s="107"/>
-      <c r="O66" s="110"/>
-      <c r="P66" s="106"/>
-      <c r="Q66" s="107"/>
-      <c r="R66" s="106"/>
-      <c r="S66" s="106"/>
-      <c r="T66" s="107"/>
-    </row>
-    <row r="67" spans="1:20" ht="14.4">
-      <c r="A67" s="106"/>
-      <c r="B67" s="168">
-        <v>2932598499</v>
-      </c>
-      <c r="C67" s="169"/>
-      <c r="D67" s="119"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="106"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="106"/>
-      <c r="M67" s="107"/>
-      <c r="N67" s="107"/>
-      <c r="O67" s="110"/>
-      <c r="P67" s="106"/>
-      <c r="Q67" s="107"/>
-      <c r="R67" s="106"/>
-      <c r="S67" s="106"/>
-      <c r="T67" s="107"/>
-    </row>
-    <row r="68" spans="1:20" ht="14.4">
-      <c r="A68" s="106"/>
-      <c r="B68" s="168">
-        <v>2932598500</v>
-      </c>
-      <c r="C68" s="169"/>
-      <c r="D68" s="119"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="170"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="106"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="107"/>
-      <c r="O68" s="110"/>
-      <c r="P68" s="106"/>
-      <c r="Q68" s="107"/>
-      <c r="R68" s="106"/>
-      <c r="S68" s="106"/>
-      <c r="T68" s="107"/>
-    </row>
-    <row r="69" spans="1:20" ht="14.4">
-      <c r="A69" s="106"/>
-      <c r="B69" s="168">
-        <v>2932598501</v>
-      </c>
-      <c r="C69" s="169"/>
-      <c r="D69" s="119"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="98"/>
-      <c r="H69" s="170"/>
-      <c r="I69" s="106"/>
-      <c r="J69" s="106"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="107"/>
-      <c r="O69" s="110"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="107"/>
-      <c r="R69" s="106"/>
-      <c r="S69" s="106"/>
-      <c r="T69" s="107"/>
-    </row>
-    <row r="70" spans="1:20" ht="14.4">
-      <c r="A70" s="106"/>
-      <c r="B70" s="168">
-        <v>2932598502</v>
-      </c>
-      <c r="C70" s="169"/>
-      <c r="D70" s="119"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="170"/>
-      <c r="I70" s="106"/>
-      <c r="J70" s="106"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="107"/>
-      <c r="N70" s="107"/>
-      <c r="O70" s="110"/>
-      <c r="P70" s="106"/>
-      <c r="Q70" s="107"/>
-      <c r="R70" s="106"/>
-      <c r="S70" s="106"/>
-      <c r="T70" s="107"/>
-    </row>
-    <row r="71" spans="1:20" s="179" customFormat="1" ht="14.4">
-      <c r="A71" s="172"/>
-      <c r="B71" s="168">
-        <v>2932598503</v>
-      </c>
-      <c r="C71" s="173"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="172"/>
-      <c r="F71" s="172"/>
-      <c r="G71" s="174"/>
-      <c r="H71" s="175"/>
-      <c r="I71" s="172"/>
-      <c r="J71" s="172"/>
-      <c r="K71" s="176"/>
-      <c r="L71" s="172"/>
-      <c r="M71" s="177"/>
-      <c r="N71" s="177"/>
-      <c r="O71" s="178"/>
-      <c r="P71" s="172"/>
-      <c r="Q71" s="177"/>
-      <c r="R71" s="172"/>
-      <c r="S71" s="172"/>
-      <c r="T71" s="177"/>
-    </row>
-    <row r="72" spans="1:20" ht="14.4">
-      <c r="A72" s="106"/>
-      <c r="B72" s="168">
-        <v>2932598504</v>
-      </c>
-      <c r="C72" s="169"/>
-      <c r="D72" s="119"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="106"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="170"/>
-      <c r="I72" s="106"/>
-      <c r="J72" s="106"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="106"/>
-      <c r="M72" s="107"/>
-      <c r="N72" s="107"/>
-      <c r="O72" s="110"/>
-      <c r="P72" s="106"/>
-      <c r="Q72" s="107"/>
-      <c r="R72" s="106"/>
-      <c r="S72" s="106"/>
-      <c r="T72" s="107"/>
-    </row>
-    <row r="73" spans="1:20" ht="13.8">
-      <c r="B73" s="168">
-        <v>2932598486</v>
-      </c>
-      <c r="C73" s="122"/>
-    </row>
-    <row r="74" spans="1:20" ht="13.8">
-      <c r="B74" s="168"/>
-      <c r="C74" s="122"/>
-      <c r="I74" s="106"/>
-    </row>
-    <row r="75" spans="1:20" ht="13.8">
-      <c r="B75" s="168"/>
-      <c r="C75" s="122"/>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="C76" s="122"/>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="C77" s="122"/>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="C78" s="122"/>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="C79" s="122"/>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="C80" s="122"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="122"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="122"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="122"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="122"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="122"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="122"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="122"/>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="122"/>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="122"/>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="122"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="122"/>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="122"/>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="122"/>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="122"/>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="122"/>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="122"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="C97" s="122"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="C98" s="122"/>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="C99" s="122"/>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="C100" s="122"/>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="C101" s="122"/>
-    </row>
-    <row r="102" spans="2:3" ht="13.8">
-      <c r="B102" s="181"/>
-      <c r="C102" s="122"/>
-    </row>
-    <row r="103" spans="2:3" ht="13.8">
-      <c r="B103" s="181"/>
-      <c r="C103" s="122"/>
-    </row>
-    <row r="104" spans="2:3" ht="13.8">
-      <c r="B104" s="181"/>
-      <c r="C104" s="122"/>
-    </row>
-    <row r="105" spans="2:3" ht="13.8">
-      <c r="B105" s="181"/>
-      <c r="C105" s="122"/>
-    </row>
-    <row r="106" spans="2:3" ht="13.8">
-      <c r="B106" s="181"/>
-      <c r="C106" s="122"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="C107" s="122"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="C108" s="122"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="180"/>
-    </row>
-    <row r="140" spans="1:16" ht="15">
-      <c r="A140" s="155">
-        <v>2932598206</v>
-      </c>
-      <c r="B140" s="156" t="s">
-        <v>396</v>
-      </c>
-      <c r="C140" s="156" t="s">
-        <v>395</v>
-      </c>
-      <c r="D140" s="156" t="s">
-        <v>394</v>
-      </c>
-      <c r="E140" s="156" t="s">
-        <v>297</v>
-      </c>
-      <c r="F140" s="157" t="s">
-        <v>199</v>
-      </c>
-      <c r="G140" s="158" t="s">
-        <v>387</v>
-      </c>
-      <c r="H140" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="156" t="s">
-        <v>393</v>
-      </c>
-      <c r="J140" s="156" t="s">
-        <v>385</v>
-      </c>
-      <c r="K140" s="156" t="s">
-        <v>392</v>
-      </c>
-      <c r="L140" s="156" t="s">
-        <v>397</v>
-      </c>
-      <c r="M140" s="156" t="s">
-        <v>390</v>
-      </c>
-      <c r="N140" s="156" t="s">
-        <v>381</v>
-      </c>
-      <c r="O140" s="156" t="s">
-        <v>62</v>
-      </c>
-      <c r="P140" s="156" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="15">
-      <c r="A141" s="159">
-        <v>2932598207</v>
-      </c>
-      <c r="B141" s="160" t="s">
-        <v>396</v>
-      </c>
-      <c r="C141" s="160" t="s">
-        <v>395</v>
-      </c>
-      <c r="D141" s="160" t="s">
-        <v>394</v>
-      </c>
-      <c r="E141" s="160" t="s">
-        <v>297</v>
-      </c>
-      <c r="F141" s="161" t="s">
-        <v>199</v>
-      </c>
-      <c r="G141" s="162" t="s">
-        <v>387</v>
-      </c>
-      <c r="H141" s="160" t="s">
-        <v>13</v>
-      </c>
-      <c r="I141" s="160" t="s">
-        <v>393</v>
-      </c>
-      <c r="J141" s="160" t="s">
-        <v>385</v>
-      </c>
-      <c r="K141" s="160" t="s">
-        <v>392</v>
-      </c>
-      <c r="L141" s="160" t="s">
-        <v>391</v>
-      </c>
-      <c r="M141" s="160" t="s">
-        <v>390</v>
-      </c>
-      <c r="N141" s="160" t="s">
-        <v>381</v>
-      </c>
-      <c r="O141" s="156" t="s">
-        <v>62</v>
-      </c>
-      <c r="P141" s="156" t="s">
-        <v>380</v>
+      <c r="K13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="73" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H15" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4" display="mailto:Nominacionautoma@gmail.com"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H18" r:id="rId7"/>
-    <hyperlink ref="H11" r:id="rId8"/>
-    <hyperlink ref="G19" r:id="rId9"/>
-    <hyperlink ref="G140" r:id="rId10"/>
-    <hyperlink ref="G141" r:id="rId11"/>
-    <hyperlink ref="H43" r:id="rId12"/>
-    <hyperlink ref="H44:H47" r:id="rId13" display="Nomina@gmail.com"/>
-    <hyperlink ref="H48:H52" r:id="rId14" display="Nomina@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5568,10 +3675,10 @@
       <c r="Q5" s="84">
         <v>33332010</v>
       </c>
-      <c r="R5" s="209" t="s">
+      <c r="R5" s="217" t="s">
         <v>221</v>
       </c>
-      <c r="S5" s="210"/>
+      <c r="S5" s="218"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="68" t="s">
@@ -6070,6 +4177,2394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="38.44140625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="105" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="105" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="105"/>
+    <col min="6" max="6" width="24.44140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" style="105" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="105" customWidth="1"/>
+    <col min="12" max="15" width="11.5546875" style="105"/>
+    <col min="16" max="16" width="20.44140625" style="105" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="105"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.6">
+      <c r="A1" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="101" t="s">
+        <v>300</v>
+      </c>
+      <c r="O1" s="101" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.6">
+      <c r="A2" s="143" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="97"/>
+      <c r="B3" s="122" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="L3" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="109"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="110"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="M5" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" s="97" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="98"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="109">
+        <v>16552744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6">
+      <c r="A10" s="143" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="I11" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="K11" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="O11" s="110" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="109">
+        <v>22355504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="145">
+        <v>33649</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I14" s="145">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6">
+      <c r="A15" s="143" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="O16" s="110" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+    </row>
+    <row r="19" spans="1:20" s="150" customFormat="1" ht="15.6">
+      <c r="A19" s="147">
+        <v>2932598064</v>
+      </c>
+      <c r="B19" s="148" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="148" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="149" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="150" t="s">
+        <v>383</v>
+      </c>
+      <c r="H19" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="148" t="s">
+        <v>382</v>
+      </c>
+      <c r="J19" s="148" t="s">
+        <v>381</v>
+      </c>
+      <c r="K19" s="148" t="s">
+        <v>380</v>
+      </c>
+      <c r="L19" s="148" t="s">
+        <v>379</v>
+      </c>
+      <c r="M19" s="151" t="s">
+        <v>378</v>
+      </c>
+      <c r="N19" s="148" t="s">
+        <v>377</v>
+      </c>
+      <c r="O19" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="148" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="31.2">
+      <c r="A21" s="97"/>
+      <c r="B21" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="L21" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="N21" s="101" t="s">
+        <v>300</v>
+      </c>
+      <c r="O21" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="P21" s="140" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q21" s="140" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.4">
+      <c r="A22" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="153"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="107"/>
+    </row>
+    <row r="23" spans="1:20" s="121" customFormat="1" ht="14.4">
+      <c r="A23" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="153"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="107"/>
+    </row>
+    <row r="24" spans="1:20" s="121" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A24" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="153"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="107"/>
+    </row>
+    <row r="25" spans="1:20" s="121" customFormat="1" ht="14.4">
+      <c r="A25" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="153"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="141"/>
+      <c r="Q25" s="141"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="107"/>
+    </row>
+    <row r="26" spans="1:20" s="121" customFormat="1" ht="14.4">
+      <c r="A26" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" s="153"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="107"/>
+    </row>
+    <row r="27" spans="1:20" s="121" customFormat="1" ht="14.4">
+      <c r="A27" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" s="153"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="107"/>
+    </row>
+    <row r="28" spans="1:20" s="121" customFormat="1" ht="14.4">
+      <c r="A28" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="154"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="107"/>
+    </row>
+    <row r="29" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A29" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="154"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="107"/>
+    </row>
+    <row r="30" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A30" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="141"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="107"/>
+    </row>
+    <row r="31" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A31" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="154"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="107"/>
+    </row>
+    <row r="32" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A32" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="154"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="S32" s="106"/>
+      <c r="T32" s="107"/>
+    </row>
+    <row r="33" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A33" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" s="154"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="107"/>
+    </row>
+    <row r="34" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A34" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34" s="154"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="107"/>
+    </row>
+    <row r="35" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A35" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="167"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="141"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="107"/>
+    </row>
+    <row r="36" spans="1:20" ht="14.4">
+      <c r="A36" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B36" s="154"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="166"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="136"/>
+      <c r="Q36" s="141"/>
+    </row>
+    <row r="37" spans="1:20" ht="14.4">
+      <c r="B37" s="153"/>
+      <c r="C37" s="122"/>
+    </row>
+    <row r="38" spans="1:20" s="121" customFormat="1"/>
+    <row r="39" spans="1:20" s="163" customFormat="1" ht="14.4"/>
+    <row r="40" spans="1:20" s="163" customFormat="1" ht="14.4"/>
+    <row r="41" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A41" s="91"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="164"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+    </row>
+    <row r="42" spans="1:20" s="163" customFormat="1" ht="31.2">
+      <c r="A42" s="97"/>
+      <c r="B42" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="L42" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="M42" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="N42" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="O42" s="103" t="s">
+        <v>309</v>
+      </c>
+      <c r="P42" s="139" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q42" s="140" t="s">
+        <v>395</v>
+      </c>
+      <c r="R42" s="140" t="s">
+        <v>396</v>
+      </c>
+      <c r="S42" s="140" t="s">
+        <v>397</v>
+      </c>
+      <c r="T42" s="140" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A43" s="204"/>
+      <c r="B43" s="205" t="s">
+        <v>414</v>
+      </c>
+      <c r="C43" s="182" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E43" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F43" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H43" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I43" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J43" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K43" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M43" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N43" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O43" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P43" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q43" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S43" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T43" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A44" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" s="206">
+        <v>2932598371</v>
+      </c>
+      <c r="C44" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D44" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F44" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H44" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I44" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J44" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M44" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N44" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O44" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P44" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q44" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S44" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T44" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A45" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B45" s="207">
+        <v>2932598372</v>
+      </c>
+      <c r="C45" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D45" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E45" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F45" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H45" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I45" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J45" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L45" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M45" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N45" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O45" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P45" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q45" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S45" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T45" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A46" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B46" s="207">
+        <v>2932598373</v>
+      </c>
+      <c r="C46" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D46" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E46" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H46" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I46" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J46" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L46" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M46" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N46" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O46" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P46" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q46" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S46" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T46" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A47" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B47" s="207">
+        <v>2932598374</v>
+      </c>
+      <c r="C47" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E47" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F47" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I47" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J47" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L47" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M47" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N47" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O47" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P47" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q47" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S47" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T47" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A48" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="B48" s="207">
+        <v>2932598375</v>
+      </c>
+      <c r="C48" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D48" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E48" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F48" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H48" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I48" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N48" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O48" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P48" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q48" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S48" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T48" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A49" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B49" s="207">
+        <v>2932598376</v>
+      </c>
+      <c r="C49" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D49" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E49" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F49" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H49" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I49" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J49" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L49" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M49" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N49" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O49" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P49" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q49" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S49" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T49" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A50" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" s="207">
+        <v>2932598377</v>
+      </c>
+      <c r="C50" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E50" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F50" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H50" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I50" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K50" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L50" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N50" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O50" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P50" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q50" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S50" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T50" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A51" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="208">
+        <v>2932598482</v>
+      </c>
+      <c r="C51" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D51" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E51" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F51" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H51" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I51" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K51" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L51" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N51" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O51" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P51" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q51" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S51" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T51" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="A52" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B52" s="208">
+        <v>2932598441</v>
+      </c>
+      <c r="C52" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E52" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F52" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="H52" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I52" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="K52" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="L52" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="N52" s="184" t="s">
+        <v>408</v>
+      </c>
+      <c r="O52" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="P52" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q52" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="R52" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="S52" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="T52" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="163" customFormat="1" ht="14.4">
+      <c r="B53" s="181">
+        <v>2932598365</v>
+      </c>
+      <c r="C53" s="182"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="184"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="106"/>
+      <c r="S53" s="106"/>
+      <c r="T53" s="107"/>
+    </row>
+    <row r="54" spans="1:20" s="121" customFormat="1" ht="14.4">
+      <c r="A54" s="106"/>
+      <c r="B54" s="168">
+        <v>2932598487</v>
+      </c>
+      <c r="C54" s="182"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="183"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="107"/>
+      <c r="N54" s="184"/>
+      <c r="O54" s="110"/>
+      <c r="P54" s="171"/>
+      <c r="Q54" s="107"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="107"/>
+    </row>
+    <row r="55" spans="1:20" ht="14.4">
+      <c r="A55" s="106"/>
+      <c r="B55" s="168">
+        <v>2932598483</v>
+      </c>
+      <c r="C55" s="182"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="183"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="184"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="106"/>
+      <c r="S55" s="106"/>
+      <c r="T55" s="107"/>
+    </row>
+    <row r="56" spans="1:20" ht="14.4">
+      <c r="A56" s="106"/>
+      <c r="B56" s="168">
+        <v>2932598488</v>
+      </c>
+      <c r="C56" s="182"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="183"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="107"/>
+      <c r="N56" s="184"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="171"/>
+      <c r="Q56" s="107"/>
+      <c r="R56" s="106"/>
+      <c r="S56" s="106"/>
+      <c r="T56" s="107"/>
+    </row>
+    <row r="57" spans="1:20" ht="14.4">
+      <c r="A57" s="106"/>
+      <c r="B57" s="168">
+        <v>2932598489</v>
+      </c>
+      <c r="C57" s="182"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="183"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="107"/>
+      <c r="N57" s="184"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="171"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="106"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="107"/>
+    </row>
+    <row r="58" spans="1:20" ht="14.4">
+      <c r="A58" s="106"/>
+      <c r="B58" s="168">
+        <v>2932598490</v>
+      </c>
+      <c r="C58" s="182"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="107"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="107"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="107"/>
+    </row>
+    <row r="59" spans="1:20" ht="14.4">
+      <c r="A59" s="106"/>
+      <c r="B59" s="168">
+        <v>2932598491</v>
+      </c>
+      <c r="C59" s="182"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="110"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="107"/>
+      <c r="R59" s="106"/>
+      <c r="S59" s="106"/>
+      <c r="T59" s="107"/>
+    </row>
+    <row r="60" spans="1:20" ht="14.4">
+      <c r="A60" s="106"/>
+      <c r="B60" s="168">
+        <v>2932598492</v>
+      </c>
+      <c r="C60" s="182"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="136"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="107"/>
+    </row>
+    <row r="61" spans="1:20" ht="14.4">
+      <c r="A61" s="106"/>
+      <c r="B61" s="168">
+        <v>2932598493</v>
+      </c>
+      <c r="C61" s="182"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="136"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="171"/>
+      <c r="Q61" s="107"/>
+      <c r="R61" s="106"/>
+      <c r="S61" s="106"/>
+      <c r="T61" s="107"/>
+    </row>
+    <row r="62" spans="1:20" ht="14.4">
+      <c r="A62" s="106"/>
+      <c r="B62" s="168">
+        <v>2932598494</v>
+      </c>
+      <c r="C62" s="182"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="136"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="110"/>
+      <c r="P62" s="171"/>
+      <c r="Q62" s="107"/>
+      <c r="R62" s="106"/>
+      <c r="S62" s="106"/>
+      <c r="T62" s="107"/>
+    </row>
+    <row r="63" spans="1:20" ht="14.4">
+      <c r="A63" s="106"/>
+      <c r="B63" s="168">
+        <v>2932598495</v>
+      </c>
+      <c r="C63" s="182"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="170"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="110"/>
+      <c r="P63" s="106"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="106"/>
+      <c r="S63" s="106"/>
+      <c r="T63" s="107"/>
+    </row>
+    <row r="64" spans="1:20" ht="14.4">
+      <c r="A64" s="106"/>
+      <c r="B64" s="168">
+        <v>2932598496</v>
+      </c>
+      <c r="C64" s="182"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="94"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="106"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="106"/>
+      <c r="S64" s="106"/>
+      <c r="T64" s="107"/>
+    </row>
+    <row r="65" spans="1:20" ht="14.4">
+      <c r="A65" s="106"/>
+      <c r="B65" s="168">
+        <v>2932598497</v>
+      </c>
+      <c r="C65" s="182"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="106"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="106"/>
+      <c r="S65" s="106"/>
+      <c r="T65" s="107"/>
+    </row>
+    <row r="66" spans="1:20" ht="14.4">
+      <c r="A66" s="106"/>
+      <c r="B66" s="168">
+        <v>2932598498</v>
+      </c>
+      <c r="C66" s="182"/>
+      <c r="D66" s="119"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="107"/>
+      <c r="N66" s="107"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="106"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="106"/>
+      <c r="S66" s="106"/>
+      <c r="T66" s="107"/>
+    </row>
+    <row r="67" spans="1:20" ht="14.4">
+      <c r="A67" s="106"/>
+      <c r="B67" s="168">
+        <v>2932598499</v>
+      </c>
+      <c r="C67" s="169"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="110"/>
+      <c r="P67" s="106"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="106"/>
+      <c r="S67" s="106"/>
+      <c r="T67" s="107"/>
+    </row>
+    <row r="68" spans="1:20" ht="14.4">
+      <c r="A68" s="106"/>
+      <c r="B68" s="168">
+        <v>2932598500</v>
+      </c>
+      <c r="C68" s="169"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="106"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="94"/>
+      <c r="L68" s="106"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="110"/>
+      <c r="P68" s="106"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="106"/>
+      <c r="S68" s="106"/>
+      <c r="T68" s="107"/>
+    </row>
+    <row r="69" spans="1:20" ht="14.4">
+      <c r="A69" s="106"/>
+      <c r="B69" s="168">
+        <v>2932598501</v>
+      </c>
+      <c r="C69" s="169"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="94"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="106"/>
+      <c r="S69" s="106"/>
+      <c r="T69" s="107"/>
+    </row>
+    <row r="70" spans="1:20" ht="14.4">
+      <c r="A70" s="106"/>
+      <c r="B70" s="168">
+        <v>2932598502</v>
+      </c>
+      <c r="C70" s="169"/>
+      <c r="D70" s="119"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="170"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="110"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="106"/>
+      <c r="S70" s="106"/>
+      <c r="T70" s="107"/>
+    </row>
+    <row r="71" spans="1:20" s="179" customFormat="1" ht="14.4">
+      <c r="A71" s="172"/>
+      <c r="B71" s="168">
+        <v>2932598503</v>
+      </c>
+      <c r="C71" s="173"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="174"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="172"/>
+      <c r="K71" s="176"/>
+      <c r="L71" s="172"/>
+      <c r="M71" s="177"/>
+      <c r="N71" s="177"/>
+      <c r="O71" s="178"/>
+      <c r="P71" s="172"/>
+      <c r="Q71" s="177"/>
+      <c r="R71" s="172"/>
+      <c r="S71" s="172"/>
+      <c r="T71" s="177"/>
+    </row>
+    <row r="72" spans="1:20" ht="14.4">
+      <c r="A72" s="106"/>
+      <c r="B72" s="168">
+        <v>2932598504</v>
+      </c>
+      <c r="C72" s="169"/>
+      <c r="D72" s="119"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="106"/>
+      <c r="J72" s="106"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="106"/>
+      <c r="M72" s="107"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="110"/>
+      <c r="P72" s="106"/>
+      <c r="Q72" s="107"/>
+      <c r="R72" s="106"/>
+      <c r="S72" s="106"/>
+      <c r="T72" s="107"/>
+    </row>
+    <row r="73" spans="1:20" ht="13.8">
+      <c r="B73" s="168">
+        <v>2932598486</v>
+      </c>
+      <c r="C73" s="122"/>
+    </row>
+    <row r="74" spans="1:20" ht="13.8">
+      <c r="B74" s="168"/>
+      <c r="C74" s="122"/>
+      <c r="I74" s="106"/>
+    </row>
+    <row r="75" spans="1:20" ht="13.8">
+      <c r="B75" s="168"/>
+      <c r="C75" s="122"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="C76" s="122"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="C77" s="122"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="C78" s="122"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="C79" s="122"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="C80" s="122"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="122"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="122"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="122"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="122"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="122"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="122"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="122"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="122"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="122"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="122"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="122"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="122"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="122"/>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="122"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="122"/>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="122"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="C97" s="122"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="C98" s="122"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="C99" s="122"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="C100" s="122"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="C101" s="122"/>
+    </row>
+    <row r="102" spans="2:3" ht="13.8">
+      <c r="B102" s="181"/>
+      <c r="C102" s="122"/>
+    </row>
+    <row r="103" spans="2:3" ht="13.8">
+      <c r="B103" s="181"/>
+      <c r="C103" s="122"/>
+    </row>
+    <row r="104" spans="2:3" ht="13.8">
+      <c r="B104" s="181"/>
+      <c r="C104" s="122"/>
+    </row>
+    <row r="105" spans="2:3" ht="13.8">
+      <c r="B105" s="181"/>
+      <c r="C105" s="122"/>
+    </row>
+    <row r="106" spans="2:3" ht="13.8">
+      <c r="B106" s="181"/>
+      <c r="C106" s="122"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="C107" s="122"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="C108" s="122"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="180"/>
+    </row>
+    <row r="140" spans="1:16" ht="15">
+      <c r="A140" s="155">
+        <v>2932598206</v>
+      </c>
+      <c r="B140" s="156" t="s">
+        <v>392</v>
+      </c>
+      <c r="C140" s="156" t="s">
+        <v>391</v>
+      </c>
+      <c r="D140" s="156" t="s">
+        <v>390</v>
+      </c>
+      <c r="E140" s="156" t="s">
+        <v>297</v>
+      </c>
+      <c r="F140" s="157" t="s">
+        <v>199</v>
+      </c>
+      <c r="G140" s="158" t="s">
+        <v>383</v>
+      </c>
+      <c r="H140" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="156" t="s">
+        <v>389</v>
+      </c>
+      <c r="J140" s="156" t="s">
+        <v>381</v>
+      </c>
+      <c r="K140" s="156" t="s">
+        <v>388</v>
+      </c>
+      <c r="L140" s="156" t="s">
+        <v>393</v>
+      </c>
+      <c r="M140" s="156" t="s">
+        <v>386</v>
+      </c>
+      <c r="N140" s="156" t="s">
+        <v>377</v>
+      </c>
+      <c r="O140" s="156" t="s">
+        <v>62</v>
+      </c>
+      <c r="P140" s="156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="15">
+      <c r="A141" s="159">
+        <v>2932598207</v>
+      </c>
+      <c r="B141" s="160" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="D141" s="160" t="s">
+        <v>390</v>
+      </c>
+      <c r="E141" s="160" t="s">
+        <v>297</v>
+      </c>
+      <c r="F141" s="161" t="s">
+        <v>199</v>
+      </c>
+      <c r="G141" s="162" t="s">
+        <v>383</v>
+      </c>
+      <c r="H141" s="160" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="160" t="s">
+        <v>389</v>
+      </c>
+      <c r="J141" s="160" t="s">
+        <v>381</v>
+      </c>
+      <c r="K141" s="160" t="s">
+        <v>388</v>
+      </c>
+      <c r="L141" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="M141" s="160" t="s">
+        <v>386</v>
+      </c>
+      <c r="N141" s="160" t="s">
+        <v>377</v>
+      </c>
+      <c r="O141" s="156" t="s">
+        <v>62</v>
+      </c>
+      <c r="P141" s="156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H15" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H18" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="G19" r:id="rId9"/>
+    <hyperlink ref="G140" r:id="rId10"/>
+    <hyperlink ref="G141" r:id="rId11"/>
+    <hyperlink ref="H43" r:id="rId12"/>
+    <hyperlink ref="H44:H47" r:id="rId13" display="Nomina@gmail.com"/>
+    <hyperlink ref="H48:H52" r:id="rId14" display="Nomina@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
@@ -7277,12 +7772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -7405,10 +7900,10 @@
         <v>231</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D10" s="52"/>
     </row>
@@ -7503,7 +7998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -7616,12 +8111,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -7657,10 +8152,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="59"/>
@@ -7672,16 +8167,16 @@
         <v>152</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>338</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>339</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
@@ -7691,16 +8186,16 @@
         <v>153</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
@@ -7710,13 +8205,13 @@
         <v>135</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>56</v>
@@ -7793,13 +8288,13 @@
         <v>162</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
@@ -7880,22 +8375,22 @@
         <v>168</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="E15" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>445</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>446</v>
-      </c>
       <c r="G15" s="88" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7933,485 +8428,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="91" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" style="91" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" style="91" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="91"/>
-    <col min="12" max="12" width="8.44140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="91" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="91" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="91" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="91"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="16.2" thickBot="1">
-      <c r="A1" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A2" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="13.8" thickBot="1">
-      <c r="A3" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6">
-      <c r="A4" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="92" t="s">
-        <v>361</v>
-      </c>
-      <c r="K4" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="L4" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-    </row>
-    <row r="5" spans="1:15" ht="15">
-      <c r="A5" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.6">
-      <c r="A6" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="92" t="s">
-        <v>361</v>
-      </c>
-      <c r="K6" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="L6" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="91" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>378</v>
-      </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="91" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="91" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.6">
-      <c r="A10" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-    </row>
-    <row r="11" spans="1:15" ht="15">
-      <c r="A11" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
-      <c r="A12" s="91" t="s">
-        <v>371</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15">
-      <c r="A13" s="91" t="s">
-        <v>372</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8427,7 +8449,7 @@
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
         <v>86</v>
       </c>
@@ -8468,18 +8490,18 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="16.2">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="16.8" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>292</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
@@ -8491,96 +8513,110 @@
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:15" ht="28.2" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>292</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="H3" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="199" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="I3" s="213" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="84">
+        <v>6</v>
+      </c>
+      <c r="K3" s="84">
+        <v>2019</v>
+      </c>
+      <c r="L3" s="84">
+        <v>159</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="84">
+        <v>33332002</v>
+      </c>
+      <c r="O3" s="201" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="27" thickBot="1">
       <c r="A4" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C4" s="73" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="73" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" s="199" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="77"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4" s="213" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="84">
+        <v>6</v>
+      </c>
+      <c r="K4" s="84">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="84">
+        <v>159</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="84">
+        <v>33332002</v>
+      </c>
+      <c r="O4" s="201" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="68"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="70"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="70"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="70"/>
     </row>
   </sheetData>
@@ -8591,10 +8627,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8663,23 +8699,23 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="203" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A2" s="211" t="s">
-        <v>429</v>
-      </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
+      <c r="A2" s="209" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="210"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8692,7 +8728,7 @@
         <v>2932598064</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E3" s="199" t="s">
         <v>217</v>
@@ -8706,7 +8742,7 @@
       <c r="H3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="215" t="s">
+      <c r="I3" s="213" t="s">
         <v>220</v>
       </c>
       <c r="J3" s="84">
@@ -8730,7 +8766,7 @@
     </row>
     <row r="4" spans="1:15" ht="13.8" thickBot="1">
       <c r="A4" s="34" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B4" s="198">
         <v>32001113</v>
@@ -8739,13 +8775,13 @@
         <v>2932598064</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E4" s="199"/>
       <c r="F4" s="84"/>
       <c r="G4" s="199"/>
       <c r="H4" s="84"/>
-      <c r="I4" s="215"/>
+      <c r="I4" s="213"/>
       <c r="J4" s="34"/>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
@@ -8755,7 +8791,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.8" thickBot="1">
       <c r="A5" s="34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B5" s="198">
         <v>32001113</v>
@@ -8764,7 +8800,7 @@
         <v>2932598064</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E5" s="199" t="s">
         <v>217</v>
@@ -8778,7 +8814,7 @@
       <c r="H5" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="215"/>
+      <c r="I5" s="213"/>
       <c r="J5" s="34"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
@@ -8788,7 +8824,7 @@
     </row>
     <row r="6" spans="1:15" s="203" customFormat="1" ht="13.8" thickBot="1">
       <c r="A6" s="34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B6" s="198">
         <v>32001113</v>
@@ -8797,13 +8833,13 @@
         <v>2932598064</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E6" s="199"/>
       <c r="F6" s="84"/>
       <c r="G6" s="199"/>
       <c r="H6" s="84"/>
-      <c r="I6" s="215"/>
+      <c r="I6" s="213"/>
       <c r="J6" s="34"/>
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
@@ -8813,7 +8849,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.8" thickBot="1">
       <c r="A7" s="34" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B7" s="198">
         <v>32001113</v>
@@ -8822,21 +8858,21 @@
         <v>2932598064</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>435</v>
-      </c>
-      <c r="E7" s="213" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="213" t="s">
+      <c r="F7" s="211" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="213" t="s">
+      <c r="G7" s="211" t="s">
         <v>288</v>
       </c>
       <c r="H7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="215"/>
+      <c r="I7" s="213"/>
       <c r="J7" s="34"/>
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
@@ -8855,7 +8891,7 @@
         <v>2932598064</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E8" s="199" t="s">
         <v>217</v>
@@ -8869,7 +8905,7 @@
       <c r="H8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="215"/>
+      <c r="I8" s="213"/>
       <c r="J8" s="34"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
@@ -8878,23 +8914,23 @@
       <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:15" ht="16.2" thickBot="1">
-      <c r="A9" s="211" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9" s="212"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="212"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
-      <c r="O9" s="212"/>
+      <c r="A9" s="209" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="210"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
     </row>
     <row r="10" spans="1:15" s="203" customFormat="1" ht="13.8" thickBot="1">
       <c r="A10" s="34" t="s">
@@ -8907,7 +8943,7 @@
         <v>2932598064</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E10" s="199" t="s">
         <v>217</v>
@@ -8921,7 +8957,7 @@
       <c r="H10" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="215" t="s">
+      <c r="I10" s="213" t="s">
         <v>220</v>
       </c>
       <c r="J10" s="84">
@@ -8945,7 +8981,7 @@
     </row>
     <row r="11" spans="1:15" ht="13.8" thickBot="1">
       <c r="A11" s="34" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B11" s="198">
         <v>32001113</v>
@@ -8954,13 +8990,13 @@
         <v>2932598064</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E11" s="199"/>
       <c r="F11" s="84"/>
       <c r="G11" s="199"/>
       <c r="H11" s="84"/>
-      <c r="I11" s="215"/>
+      <c r="I11" s="213"/>
       <c r="J11" s="34"/>
       <c r="K11" s="84"/>
       <c r="L11" s="84"/>
@@ -8979,13 +9015,13 @@
         <v>2932598064</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E12" s="199"/>
       <c r="F12" s="84"/>
       <c r="G12" s="199"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="215"/>
+      <c r="I12" s="213"/>
       <c r="J12" s="34"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
@@ -9004,7 +9040,7 @@
         <v>2932598064</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E13" s="199" t="s">
         <v>217</v>
@@ -9018,7 +9054,7 @@
       <c r="H13" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="215" t="s">
+      <c r="I13" s="213" t="s">
         <v>220</v>
       </c>
       <c r="J13" s="84">
@@ -9041,23 +9077,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.2" thickBot="1">
-      <c r="A14" s="211" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="212"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="212"/>
-      <c r="M14" s="212"/>
-      <c r="N14" s="212"/>
-      <c r="O14" s="212"/>
+      <c r="A14" s="209" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="210"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
     </row>
     <row r="15" spans="1:15" ht="13.8" thickBot="1">
       <c r="A15" s="34" t="s">
@@ -9070,13 +9106,13 @@
         <v>2932598064</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E15" s="199"/>
       <c r="F15" s="84"/>
       <c r="G15" s="199"/>
       <c r="H15" s="84"/>
-      <c r="I15" s="216"/>
+      <c r="I15" s="214"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
@@ -9086,7 +9122,7 @@
     </row>
     <row r="16" spans="1:15" ht="13.8" thickBot="1">
       <c r="A16" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B16" s="198">
         <v>32001113</v>
@@ -9095,13 +9131,13 @@
         <v>2932598064</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="84"/>
       <c r="H16" s="84"/>
-      <c r="I16" s="216"/>
+      <c r="I16" s="214"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
@@ -9111,7 +9147,7 @@
     </row>
     <row r="17" spans="1:15" ht="13.8" thickBot="1">
       <c r="A17" s="34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B17" s="198">
         <v>32001113</v>
@@ -9120,7 +9156,7 @@
         <v>2932598064</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E17" s="199" t="s">
         <v>217</v>
@@ -9134,7 +9170,7 @@
       <c r="H17" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="216"/>
+      <c r="I17" s="214"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
@@ -9142,8 +9178,50 @@
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A18" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" s="198">
+        <v>32001113</v>
+      </c>
+      <c r="C18" s="198">
+        <v>2932598064</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A19" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="198">
+        <v>32001113</v>
+      </c>
+      <c r="C19" s="198">
+        <v>2932598064</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="211" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="211" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="211" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="84" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9156,7 +9234,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -9183,7 +9261,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>88</v>
@@ -9224,13 +9302,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="14"/>
@@ -9249,13 +9327,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="89" t="s">
         <v>333</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>334</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="14"/>
@@ -9274,13 +9352,13 @@
         <v>106</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>333</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>334</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>290</v>
@@ -9310,7 +9388,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>74</v>
@@ -9321,13 +9399,13 @@
         <v>239</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E5" s="75" t="s">
         <v>290</v>
@@ -9357,7 +9435,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>74</v>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DatosRegresion" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="456">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -1273,18 +1273,6 @@
     <t>2932598064</t>
   </si>
   <si>
-    <t>Chinwen</t>
-  </si>
-  <si>
-    <t>Wencha</t>
-  </si>
-  <si>
-    <t>Chinwen Wencha</t>
-  </si>
-  <si>
-    <t>chinwen@gmail.com</t>
-  </si>
-  <si>
     <t>Automatata</t>
   </si>
   <si>
@@ -1352,13 +1340,73 @@
   </si>
   <si>
     <t>2932550160</t>
+  </si>
+  <si>
+    <t>37478859</t>
+  </si>
+  <si>
+    <t>2932598003</t>
+  </si>
+  <si>
+    <t>33332002</t>
+  </si>
+  <si>
+    <t>42377438</t>
+  </si>
+  <si>
+    <t>8000000612810001</t>
+  </si>
+  <si>
+    <t>Carretilla</t>
+  </si>
+  <si>
+    <t>Poseida</t>
+  </si>
+  <si>
+    <t>Carretilla Poseida</t>
+  </si>
+  <si>
+    <t>carretilla@yahoo.com</t>
+  </si>
+  <si>
+    <t>SuspensionApro</t>
+  </si>
+  <si>
+    <t>95850890</t>
+  </si>
+  <si>
+    <t>2932598337</t>
+  </si>
+  <si>
+    <t>Gestion Detalles De Consumo</t>
+  </si>
+  <si>
+    <t>DetalleDeConsumo</t>
+  </si>
+  <si>
+    <t>PackApro</t>
+  </si>
+  <si>
+    <t>38010123</t>
+  </si>
+  <si>
+    <t>2932598789</t>
+  </si>
+  <si>
+    <t>Pack Roaming 40 SMS Limitrofes y USA x 30 días</t>
+  </si>
+  <si>
+    <t>Ramon Paquier</t>
+  </si>
+  <si>
+    <t>2932598655</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="45">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1631,6 +1679,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1984,7 +2044,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2495,11 +2555,41 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="44" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="37" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2868,13 +2958,13 @@
         <v>326</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E2" s="90" t="s">
         <v>329</v>
@@ -2990,7 +3080,7 @@
         <v>215</v>
       </c>
       <c r="G5" s="220" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H5" s="177" t="s">
         <v>39</v>
@@ -3058,7 +3148,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="214" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B7" s="91" t="s">
         <v>358</v>
@@ -3099,7 +3189,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="214" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>358</v>
@@ -3117,7 +3207,7 @@
         <v>215</v>
       </c>
       <c r="G9" s="220" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H9" s="177" t="s">
         <v>39</v>
@@ -3231,7 +3321,7 @@
         <v>215</v>
       </c>
       <c r="G13" s="220" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H13" s="177" t="s">
         <v>39</v>
@@ -4204,10 +4294,10 @@
       <c r="Q5" s="81">
         <v>33332010</v>
       </c>
-      <c r="R5" s="232" t="s">
+      <c r="R5" s="234" t="s">
         <v>218</v>
       </c>
-      <c r="S5" s="233"/>
+      <c r="S5" s="235"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="65" t="s">
@@ -4459,16 +4549,16 @@
         <v>255</v>
       </c>
       <c r="D11" s="208" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -4647,7 +4737,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="90" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B3" s="115" t="s">
         <v>323</v>
@@ -7090,7 +7180,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="102" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K2" s="100" t="s">
         <v>271</v>
@@ -8169,8 +8259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8197,10 +8287,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D2" s="49"/>
     </row>
@@ -8506,10 +8596,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8647,13 +8737,13 @@
         <v>176</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="49"/>
@@ -8681,10 +8771,10 @@
         <v>159</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>411</v>
@@ -8694,7 +8784,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="15.6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="237" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="52" t="s">
@@ -8708,117 +8798,161 @@
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1" ht="15">
-      <c r="A12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+    <row r="12" spans="1:7" s="14" customFormat="1">
+      <c r="A12" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="238" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="238" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="236"/>
     </row>
     <row r="13" spans="1:7" s="21" customFormat="1" ht="15">
       <c r="A13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" s="21" customFormat="1" ht="15">
+      <c r="A14" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="D13" s="47" t="s">
+      <c r="B14" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
+      <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B15" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C15" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D15" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E15" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F15" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G15" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="66" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>413</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="G15" s="85" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="65" t="s">
+      <c r="B16" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B17" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C17" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D17" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E17" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F17" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G17" s="49" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="65"/>
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="15.6">
+      <c r="A18" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="238" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="238" t="s">
+        <v>447</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1"/>
+    <hyperlink ref="G16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8830,7 +8964,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8891,14 +9025,14 @@
       <c r="A2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>358</v>
+      <c r="B2" s="232" t="s">
+        <v>436</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>269</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
@@ -8914,14 +9048,14 @@
       <c r="A3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>358</v>
+      <c r="B3" s="232" t="s">
+        <v>436</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>269</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="E3" s="192" t="s">
         <v>214</v>
@@ -8938,52 +9072,52 @@
       <c r="I3" s="206" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="81">
-        <v>6</v>
-      </c>
-      <c r="K3" s="81">
-        <v>2019</v>
-      </c>
-      <c r="L3" s="81">
-        <v>159</v>
+      <c r="J3" s="233" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="233" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="233" t="s">
+        <v>229</v>
       </c>
       <c r="M3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="81">
-        <v>33332002</v>
+      <c r="N3" s="233" t="s">
+        <v>438</v>
       </c>
       <c r="O3" s="194" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="27" thickBot="1">
+    <row r="4" spans="1:15" ht="13.8" thickBot="1">
       <c r="A4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>358</v>
+      <c r="B4" s="232" t="s">
+        <v>436</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>270</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="E4" s="192" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="192" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="208" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="208" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="206" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="J4" s="81">
         <v>6</v>
@@ -9024,10 +9158,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -9577,7 +9711,7 @@
     </row>
     <row r="18" spans="1:15" ht="13.8" thickBot="1">
       <c r="A18" s="33" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B18" s="191">
         <v>32001113</v>
@@ -9586,7 +9720,7 @@
         <v>2932598064</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -9596,7 +9730,7 @@
     </row>
     <row r="19" spans="1:15" ht="13.8" thickBot="1">
       <c r="A19" s="33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B19" s="191">
         <v>32001113</v>
@@ -9605,7 +9739,7 @@
         <v>2932598064</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E19" s="204" t="s">
         <v>101</v>
@@ -9618,6 +9752,100 @@
       </c>
       <c r="H19" s="81" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="21" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A21" s="240" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="241" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" s="242" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="243" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="206" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="233" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="233" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="233" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="233" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" s="244" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="245" t="s">
+        <v>446</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DatosRegresion" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="458">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -700,12 +700,6 @@
     <t>Modificacion De DNI</t>
   </si>
   <si>
-    <t>22222014</t>
-  </si>
-  <si>
-    <t>2944674965</t>
-  </si>
-  <si>
     <t>GestionReintegro</t>
   </si>
   <si>
@@ -1400,6 +1394,18 @@
   </si>
   <si>
     <t>2932598655</t>
+  </si>
+  <si>
+    <t>16234263</t>
+  </si>
+  <si>
+    <t>2932449299</t>
+  </si>
+  <si>
+    <t>3344455</t>
+  </si>
+  <si>
+    <t>2932449451</t>
   </si>
 </sst>
 </file>
@@ -2559,12 +2565,6 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2590,6 +2590,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2908,7 +2914,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="211" customFormat="1" ht="15.6">
       <c r="A1" s="209" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="210" t="s">
         <v>16</v>
@@ -2938,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="210" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L1" s="210" t="s">
         <v>123</v>
@@ -2950,24 +2956,24 @@
         <v>125</v>
       </c>
       <c r="O1" s="210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.8" customHeight="1">
       <c r="A2" s="212" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F2" s="90" t="s">
         <v>10</v>
@@ -2976,16 +2982,16 @@
         <v>196</v>
       </c>
       <c r="H2" s="92" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K2" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L2" s="90" t="s">
         <v>33</v>
@@ -2994,35 +3000,35 @@
         <v>34</v>
       </c>
       <c r="N2" s="177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O2" s="90" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="214" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C3" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="90" t="s">
         <v>327</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6">
       <c r="A4" s="215" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>86</v>
@@ -3031,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="216" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F4" s="216" t="s">
         <v>88</v>
@@ -3046,32 +3052,32 @@
         <v>90</v>
       </c>
       <c r="J4" s="216" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K4" s="216" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L4" s="216" t="s">
         <v>93</v>
       </c>
       <c r="M4" s="216" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N4" s="217"/>
       <c r="O4" s="217"/>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="218" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E5" s="219" t="s">
         <v>214</v>
@@ -3080,7 +3086,7 @@
         <v>215</v>
       </c>
       <c r="G5" s="220" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H5" s="177" t="s">
         <v>39</v>
@@ -3098,17 +3104,17 @@
         <v>38</v>
       </c>
       <c r="M5" s="222" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N5" s="223"/>
       <c r="O5" s="223"/>
     </row>
     <row r="6" spans="1:15" ht="15.6">
       <c r="A6" s="215" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C6" s="216" t="s">
         <v>16</v>
@@ -3117,7 +3123,7 @@
         <v>98</v>
       </c>
       <c r="E6" s="216" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F6" s="216" t="s">
         <v>88</v>
@@ -3132,48 +3138,48 @@
         <v>90</v>
       </c>
       <c r="J6" s="216" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K6" s="216" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L6" s="216" t="s">
         <v>93</v>
       </c>
       <c r="M6" s="216" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N6" s="217"/>
       <c r="O6" s="217"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="214" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D7" s="224" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N7" s="223"/>
       <c r="O7" s="223"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="214" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D8" s="224" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E8" s="220"/>
       <c r="F8" s="177"/>
@@ -3189,16 +3195,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D9" s="224" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E9" s="219" t="s">
         <v>214</v>
@@ -3207,7 +3213,7 @@
         <v>215</v>
       </c>
       <c r="G9" s="220" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H9" s="177" t="s">
         <v>39</v>
@@ -3225,14 +3231,14 @@
         <v>38</v>
       </c>
       <c r="M9" s="222" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N9" s="223"/>
       <c r="O9" s="223"/>
     </row>
     <row r="10" spans="1:15" ht="15.6">
       <c r="A10" s="215" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B10" s="94" t="s">
         <v>0</v>
@@ -3241,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="225" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E10" s="95" t="s">
         <v>87</v>
@@ -3275,44 +3281,44 @@
     </row>
     <row r="11" spans="1:15" ht="15">
       <c r="A11" s="214" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B11" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="227" t="s">
         <v>409</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" s="227" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="214" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B12" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="227" t="s">
         <v>409</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="227" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="214" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B13" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>408</v>
+      </c>
+      <c r="D13" s="227" t="s">
         <v>409</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>410</v>
-      </c>
-      <c r="D13" s="227" t="s">
-        <v>411</v>
       </c>
       <c r="E13" s="219" t="s">
         <v>214</v>
@@ -3321,7 +3327,7 @@
         <v>215</v>
       </c>
       <c r="G13" s="220" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H13" s="177" t="s">
         <v>39</v>
@@ -3339,7 +3345,7 @@
         <v>38</v>
       </c>
       <c r="M13" s="222" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4280,13 +4286,13 @@
         <v>217</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>62</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P5" s="81" t="s">
         <v>20</v>
@@ -4294,14 +4300,14 @@
       <c r="Q5" s="81">
         <v>33332010</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="244" t="s">
         <v>218</v>
       </c>
-      <c r="S5" s="235"/>
+      <c r="S5" s="245"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>210</v>
@@ -4349,18 +4355,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4388,37 +4394,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="J1" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>250</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
@@ -4540,25 +4546,25 @@
     </row>
     <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>255</v>
-      </c>
       <c r="D11" s="208" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>423</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>425</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -4638,13 +4644,13 @@
         <v>208</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4715,59 +4721,59 @@
         <v>15</v>
       </c>
       <c r="K1" s="94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L1" s="94" t="s">
         <v>123</v>
       </c>
       <c r="M1" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="94" t="s">
         <v>274</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="136" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="90" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G3" s="91" t="s">
         <v>196</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="102" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K3" s="100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L3" s="100" t="s">
         <v>33</v>
@@ -4776,10 +4782,10 @@
         <v>34</v>
       </c>
       <c r="N3" s="100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O3" s="103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4787,13 +4793,13 @@
         <v>187</v>
       </c>
       <c r="B4" s="115" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E4" s="90" t="s">
         <v>57</v>
@@ -4814,16 +4820,16 @@
         <v>193</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5" s="90" t="s">
         <v>10</v>
@@ -4832,7 +4838,7 @@
         <v>196</v>
       </c>
       <c r="H5" s="102" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I5" s="92" t="s">
         <v>160</v>
@@ -4841,10 +4847,10 @@
         <v>13</v>
       </c>
       <c r="K5" s="90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L5" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M5" s="90" t="s">
         <v>33</v>
@@ -4853,10 +4859,10 @@
         <v>34</v>
       </c>
       <c r="O5" s="100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P5" s="90" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4906,10 +4912,10 @@
         <v>194</v>
       </c>
       <c r="B7" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="115" t="s">
         <v>302</v>
-      </c>
-      <c r="C7" s="115" t="s">
-        <v>304</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>10</v>
@@ -4929,21 +4935,21 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B8" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="115" t="s">
         <v>302</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" s="102">
         <v>16552744</v>
@@ -4951,7 +4957,7 @@
     </row>
     <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="136" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4959,34 +4965,34 @@
         <v>195</v>
       </c>
       <c r="B11" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="115" t="s">
-        <v>304</v>
-      </c>
       <c r="D11" s="90" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F11" s="90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G11" s="91" t="s">
         <v>196</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I11" s="102" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K11" s="100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L11" s="100" t="s">
         <v>33</v>
@@ -4995,18 +5001,18 @@
         <v>34</v>
       </c>
       <c r="N11" s="100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O11" s="103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="98" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="102">
         <v>22355504</v>
@@ -5014,13 +5020,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B13" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="115" t="s">
         <v>302</v>
-      </c>
-      <c r="C13" s="115" t="s">
-        <v>304</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>10</v>
@@ -5034,19 +5040,19 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="98" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14" s="115" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F14" s="98" t="s">
         <v>10</v>
@@ -5055,7 +5061,7 @@
         <v>196</v>
       </c>
       <c r="H14" s="139" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I14" s="138">
         <v>45703</v>
@@ -5063,13 +5069,13 @@
     </row>
     <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="136" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="115" t="s">
         <v>302</v>
-      </c>
-      <c r="C15" s="115" t="s">
-        <v>304</v>
       </c>
       <c r="D15" s="91" t="s">
         <v>189</v>
@@ -5098,13 +5104,13 @@
         <v>192</v>
       </c>
       <c r="B16" s="115" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E16" s="90" t="s">
         <v>57</v>
@@ -5122,10 +5128,10 @@
         <v>13</v>
       </c>
       <c r="J16" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K16" s="100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L16" s="100" t="s">
         <v>33</v>
@@ -5134,15 +5140,15 @@
         <v>34</v>
       </c>
       <c r="N16" s="100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O16" s="103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -5150,25 +5156,25 @@
         <v>188</v>
       </c>
       <c r="B18" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="115" t="s">
-        <v>304</v>
-      </c>
       <c r="D18" s="90" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G18" s="91" t="s">
         <v>196</v>
       </c>
       <c r="H18" s="92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I18" s="90"/>
       <c r="J18" s="90"/>
@@ -5182,13 +5188,13 @@
         <v>2932598064</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C19" s="141" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D19" s="141" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E19" s="141" t="s">
         <v>10</v>
@@ -5197,34 +5203,34 @@
         <v>196</v>
       </c>
       <c r="G19" s="143" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H19" s="141" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="141" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J19" s="141" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K19" s="141" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L19" s="141" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M19" s="144" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N19" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O19" s="141" t="s">
         <v>61</v>
       </c>
       <c r="P19" s="141" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="31.2">
@@ -5257,30 +5263,30 @@
         <v>15</v>
       </c>
       <c r="K21" s="94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L21" s="94" t="s">
         <v>123</v>
       </c>
       <c r="M21" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="N21" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="O21" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="N21" s="94" t="s">
-        <v>275</v>
-      </c>
-      <c r="O21" s="94" t="s">
-        <v>276</v>
-      </c>
       <c r="P21" s="133" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q21" s="133" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.4">
       <c r="A22" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B22" s="146"/>
       <c r="C22" s="34"/>
@@ -5303,7 +5309,7 @@
     </row>
     <row r="23" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A23" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B23" s="146"/>
       <c r="C23" s="34"/>
@@ -5326,7 +5332,7 @@
     </row>
     <row r="24" spans="1:20" s="114" customFormat="1" ht="14.4" customHeight="1">
       <c r="A24" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="146"/>
       <c r="C24" s="34"/>
@@ -5349,7 +5355,7 @@
     </row>
     <row r="25" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A25" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B25" s="146"/>
       <c r="C25" s="34"/>
@@ -5372,7 +5378,7 @@
     </row>
     <row r="26" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A26" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B26" s="146"/>
       <c r="C26" s="34"/>
@@ -5395,7 +5401,7 @@
     </row>
     <row r="27" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A27" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B27" s="146"/>
       <c r="C27" s="34"/>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="28" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A28" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B28" s="147"/>
       <c r="C28" s="34"/>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="29" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A29" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B29" s="147"/>
       <c r="C29" s="34"/>
@@ -5464,7 +5470,7 @@
     </row>
     <row r="30" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A30" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B30" s="147"/>
       <c r="C30" s="34"/>
@@ -5487,7 +5493,7 @@
     </row>
     <row r="31" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A31" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B31" s="147"/>
       <c r="C31" s="34"/>
@@ -5510,7 +5516,7 @@
     </row>
     <row r="32" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A32" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B32" s="147"/>
       <c r="C32" s="34"/>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="33" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A33" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B33" s="147"/>
       <c r="C33" s="34"/>
@@ -5556,7 +5562,7 @@
     </row>
     <row r="34" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A34" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B34" s="147"/>
       <c r="C34" s="34"/>
@@ -5579,7 +5585,7 @@
     </row>
     <row r="35" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A35" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B35" s="160"/>
       <c r="C35" s="34"/>
@@ -5602,7 +5608,7 @@
     </row>
     <row r="36" spans="1:20" ht="14.4">
       <c r="A36" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B36" s="147"/>
       <c r="C36" s="34"/>
@@ -5676,652 +5682,652 @@
         <v>15</v>
       </c>
       <c r="K42" s="95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L42" s="95" t="s">
         <v>123</v>
       </c>
       <c r="M42" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N42" s="95" t="s">
         <v>125</v>
       </c>
       <c r="O42" s="96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P42" s="132" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q42" s="133" t="s">
+        <v>366</v>
+      </c>
+      <c r="R42" s="133" t="s">
         <v>367</v>
       </c>
-      <c r="Q42" s="133" t="s">
+      <c r="S42" s="133" t="s">
         <v>368</v>
       </c>
-      <c r="R42" s="133" t="s">
+      <c r="T42" s="133" t="s">
         <v>369</v>
-      </c>
-      <c r="S42" s="133" t="s">
-        <v>370</v>
-      </c>
-      <c r="T42" s="133" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A43" s="197"/>
       <c r="B43" s="198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C43" s="175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D43" s="112" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E43" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F43" s="99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G43" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H43" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I43" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H43" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I43" s="100" t="s">
+      <c r="J43" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K43" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M43" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N43" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P43" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J43" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K43" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L43" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M43" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N43" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O43" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P43" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q43" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R43" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S43" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T43" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A44" s="99" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B44" s="199">
         <v>2932598371</v>
       </c>
       <c r="C44" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D44" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E44" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F44" s="99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G44" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H44" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H44" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I44" s="100" t="s">
+      <c r="J44" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L44" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N44" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O44" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P44" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J44" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K44" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L44" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M44" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N44" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O44" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P44" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q44" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R44" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S44" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T44" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A45" s="99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B45" s="200">
         <v>2932598372</v>
       </c>
       <c r="C45" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D45" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E45" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F45" s="99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G45" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H45" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I45" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H45" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I45" s="100" t="s">
+      <c r="J45" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K45" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L45" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N45" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O45" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P45" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J45" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K45" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L45" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M45" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N45" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O45" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P45" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q45" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R45" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S45" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T45" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A46" s="99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B46" s="200">
         <v>2932598373</v>
       </c>
       <c r="C46" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D46" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D46" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E46" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F46" s="99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G46" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H46" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H46" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I46" s="100" t="s">
+      <c r="J46" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N46" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O46" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P46" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J46" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K46" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L46" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M46" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N46" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O46" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P46" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q46" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R46" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S46" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T46" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A47" s="99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B47" s="200">
         <v>2932598374</v>
       </c>
       <c r="C47" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D47" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E47" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F47" s="99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G47" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H47" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I47" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H47" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I47" s="100" t="s">
+      <c r="J47" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K47" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L47" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N47" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P47" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J47" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K47" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L47" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M47" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N47" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O47" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P47" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q47" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R47" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S47" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T47" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A48" s="99" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B48" s="200">
         <v>2932598375</v>
       </c>
       <c r="C48" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D48" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E48" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F48" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H48" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I48" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H48" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I48" s="100" t="s">
+      <c r="J48" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L48" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N48" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P48" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J48" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K48" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L48" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M48" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N48" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O48" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P48" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q48" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R48" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S48" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T48" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A49" s="99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B49" s="200">
         <v>2932598376</v>
       </c>
       <c r="C49" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D49" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E49" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F49" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H49" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I49" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H49" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I49" s="100" t="s">
+      <c r="J49" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L49" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N49" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O49" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P49" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J49" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K49" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L49" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M49" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N49" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O49" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P49" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q49" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R49" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S49" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T49" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A50" s="99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B50" s="200">
         <v>2932598377</v>
       </c>
       <c r="C50" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D50" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E50" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F50" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H50" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H50" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I50" s="100" t="s">
+      <c r="J50" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L50" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N50" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O50" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P50" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J50" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K50" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L50" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M50" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N50" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O50" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P50" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q50" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R50" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S50" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T50" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A51" s="99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B51" s="201">
         <v>2932598482</v>
       </c>
       <c r="C51" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D51" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E51" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F51" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H51" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I51" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H51" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I51" s="100" t="s">
+      <c r="J51" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L51" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M51" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N51" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O51" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P51" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J51" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K51" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L51" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M51" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N51" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O51" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P51" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q51" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R51" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S51" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T51" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A52" s="99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B52" s="201">
         <v>2932598441</v>
       </c>
       <c r="C52" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D52" s="112" t="s">
-        <v>386</v>
-      </c>
       <c r="E52" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F52" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="H52" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I52" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H52" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I52" s="100" t="s">
+      <c r="J52" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="K52" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L52" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="M52" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="N52" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O52" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="P52" s="99" t="s">
         <v>380</v>
-      </c>
-      <c r="J52" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="K52" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="L52" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="M52" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="N52" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O52" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P52" s="99" t="s">
-        <v>382</v>
       </c>
       <c r="Q52" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R52" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S52" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T52" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="156" customFormat="1" ht="14.4">
@@ -6930,49 +6936,49 @@
         <v>2932598206</v>
       </c>
       <c r="B140" s="149" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C140" s="149" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D140" s="149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E140" s="149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F140" s="150" t="s">
         <v>196</v>
       </c>
       <c r="G140" s="151" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H140" s="149" t="s">
         <v>13</v>
       </c>
       <c r="I140" s="149" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J140" s="149" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K140" s="149" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L140" s="149" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M140" s="149" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N140" s="149" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O140" s="149" t="s">
         <v>61</v>
       </c>
       <c r="P140" s="149" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15">
@@ -6980,49 +6986,49 @@
         <v>2932598207</v>
       </c>
       <c r="B141" s="153" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C141" s="153" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D141" s="153" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E141" s="153" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F141" s="154" t="s">
         <v>196</v>
       </c>
       <c r="G141" s="155" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H141" s="153" t="s">
         <v>13</v>
       </c>
       <c r="I141" s="153" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J141" s="153" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K141" s="153" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L141" s="153" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M141" s="153" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N141" s="153" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O141" s="149" t="s">
         <v>61</v>
       </c>
       <c r="P141" s="149" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7103,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="94" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J1" s="94" t="s">
         <v>14</v>
@@ -7112,19 +7118,19 @@
         <v>15</v>
       </c>
       <c r="L1" s="95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M1" s="95" t="s">
         <v>123</v>
       </c>
       <c r="N1" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O1" s="95" t="s">
         <v>125</v>
       </c>
       <c r="P1" s="96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q1" s="96" t="s">
         <v>103</v>
@@ -7159,10 +7165,10 @@
       </c>
       <c r="B2" s="100"/>
       <c r="C2" s="99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>10</v>
@@ -7180,13 +7186,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="102" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K2" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L2" s="100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M2" s="100" t="s">
         <v>33</v>
@@ -7195,10 +7201,10 @@
         <v>34</v>
       </c>
       <c r="O2" s="100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P2" s="103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q2" s="100"/>
     </row>
@@ -7451,7 +7457,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="114" t="s">
         <v>2</v>
@@ -7551,7 +7557,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" s="98" t="s">
         <v>42</v>
@@ -8259,8 +8265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8287,10 +8293,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D2" s="49"/>
     </row>
@@ -8299,10 +8305,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="49"/>
     </row>
@@ -8323,10 +8329,10 @@
         <v>221</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>223</v>
+        <v>454</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>455</v>
       </c>
       <c r="D5" s="49"/>
     </row>
@@ -8334,11 +8340,11 @@
       <c r="A6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>185</v>
+      <c r="B6" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>457</v>
       </c>
       <c r="D6" s="49"/>
     </row>
@@ -8380,19 +8386,19 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>358</v>
+        <v>449</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>0</v>
@@ -8404,13 +8410,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="49"/>
     </row>
@@ -8478,6 +8484,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8513,7 +8520,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>0</v>
@@ -8598,8 +8605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8635,10 +8642,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>309</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="56"/>
@@ -8650,16 +8657,16 @@
         <v>150</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>309</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
@@ -8669,16 +8676,16 @@
         <v>151</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>309</v>
-      </c>
       <c r="D4" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
@@ -8688,13 +8695,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="87" t="s">
         <v>309</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>311</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>55</v>
@@ -8724,7 +8731,7 @@
         <v>175</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="49"/>
@@ -8737,13 +8744,13 @@
         <v>176</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>431</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>433</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="49"/>
@@ -8760,7 +8767,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -8771,20 +8778,20 @@
         <v>159</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="15.6">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="235" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="52" t="s">
@@ -8800,34 +8807,34 @@
     </row>
     <row r="12" spans="1:7" s="14" customFormat="1">
       <c r="A12" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="236" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="236" t="s">
         <v>445</v>
       </c>
-      <c r="B12" s="238" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" s="238" t="s">
-        <v>447</v>
-      </c>
       <c r="D12" s="47" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="G12" s="236"/>
+        <v>428</v>
+      </c>
+      <c r="G12" s="234"/>
     </row>
     <row r="13" spans="1:7" s="21" customFormat="1" ht="15">
       <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
@@ -8839,19 +8846,19 @@
         <v>149</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G14" s="49"/>
     </row>
@@ -8883,22 +8890,22 @@
         <v>165</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="E16" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="F16" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="G16" s="85" t="s">
         <v>442</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="G16" s="85" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8926,7 +8933,7 @@
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="15.6">
       <c r="A18" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>0</v>
@@ -8935,19 +8942,19 @@
         <v>167</v>
       </c>
       <c r="D18" s="58"/>
-      <c r="E18" s="239"/>
+      <c r="E18" s="237"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B19" s="238" t="s">
-        <v>446</v>
-      </c>
-      <c r="C19" s="238" t="s">
         <v>447</v>
+      </c>
+      <c r="B19" s="236" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="236" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -9018,7 +9025,7 @@
         <v>93</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="16.8" thickBot="1">
@@ -9026,13 +9033,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="232" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
@@ -9049,13 +9056,13 @@
         <v>80</v>
       </c>
       <c r="B3" s="232" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E3" s="192" t="s">
         <v>214</v>
@@ -9073,22 +9080,22 @@
         <v>217</v>
       </c>
       <c r="J3" s="233" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K3" s="233" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="233" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M3" s="81" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="233" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O3" s="194" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.8" thickBot="1">
@@ -9096,28 +9103,28 @@
         <v>71</v>
       </c>
       <c r="B4" s="232" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E4" s="192" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G4" s="208" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H4" s="208" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="206" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J4" s="81">
         <v>6</v>
@@ -9135,7 +9142,7 @@
         <v>33332002</v>
       </c>
       <c r="O4" s="194" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -9231,7 +9238,7 @@
     </row>
     <row r="2" spans="1:15" s="196" customFormat="1" ht="16.2" thickBot="1">
       <c r="A2" s="202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2" s="203"/>
       <c r="C2" s="202"/>
@@ -9250,7 +9257,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.8" thickBot="1">
       <c r="A3" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" s="191">
         <v>32001113</v>
@@ -9259,7 +9266,7 @@
         <v>2932598064</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" s="192" t="s">
         <v>214</v>
@@ -9292,12 +9299,12 @@
         <v>33332002</v>
       </c>
       <c r="O3" s="194" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.8" thickBot="1">
       <c r="A4" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B4" s="191">
         <v>32001113</v>
@@ -9306,7 +9313,7 @@
         <v>2932598064</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E4" s="192"/>
       <c r="F4" s="81"/>
@@ -9322,7 +9329,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.8" thickBot="1">
       <c r="A5" s="33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B5" s="191">
         <v>32001113</v>
@@ -9331,7 +9338,7 @@
         <v>2932598064</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>214</v>
@@ -9355,7 +9362,7 @@
     </row>
     <row r="6" spans="1:15" s="196" customFormat="1" ht="13.8" thickBot="1">
       <c r="A6" s="33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B6" s="191">
         <v>32001113</v>
@@ -9364,7 +9371,7 @@
         <v>2932598064</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E6" s="192"/>
       <c r="F6" s="81"/>
@@ -9380,7 +9387,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.8" thickBot="1">
       <c r="A7" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B7" s="191">
         <v>32001113</v>
@@ -9389,16 +9396,16 @@
         <v>2932598064</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E7" s="204" t="s">
         <v>101</v>
       </c>
       <c r="F7" s="204" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G7" s="204" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H7" s="81" t="s">
         <v>39</v>
@@ -9422,7 +9429,7 @@
         <v>2932598064</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>214</v>
@@ -9446,7 +9453,7 @@
     </row>
     <row r="9" spans="1:15" ht="16.2" thickBot="1">
       <c r="A9" s="202" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B9" s="203"/>
       <c r="C9" s="202"/>
@@ -9465,7 +9472,7 @@
     </row>
     <row r="10" spans="1:15" s="196" customFormat="1" ht="13.8" thickBot="1">
       <c r="A10" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10" s="191">
         <v>32001113</v>
@@ -9474,7 +9481,7 @@
         <v>2932598064</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>214</v>
@@ -9507,12 +9514,12 @@
         <v>33332002</v>
       </c>
       <c r="O10" s="194" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="13.8" thickBot="1">
       <c r="A11" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B11" s="191">
         <v>32001113</v>
@@ -9521,7 +9528,7 @@
         <v>2932598064</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E11" s="192"/>
       <c r="F11" s="81"/>
@@ -9537,7 +9544,7 @@
     </row>
     <row r="12" spans="1:15" ht="13.8" thickBot="1">
       <c r="A12" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B12" s="191">
         <v>32001113</v>
@@ -9546,7 +9553,7 @@
         <v>2932598064</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E12" s="192"/>
       <c r="F12" s="81"/>
@@ -9562,7 +9569,7 @@
     </row>
     <row r="13" spans="1:15" ht="13.8" thickBot="1">
       <c r="A13" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="191">
         <v>32001113</v>
@@ -9571,7 +9578,7 @@
         <v>2932598064</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>214</v>
@@ -9604,12 +9611,12 @@
         <v>33332002</v>
       </c>
       <c r="O13" s="194" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.2" thickBot="1">
       <c r="A14" s="202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="202"/>
@@ -9637,7 +9644,7 @@
         <v>2932598064</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E15" s="192"/>
       <c r="F15" s="81"/>
@@ -9653,7 +9660,7 @@
     </row>
     <row r="16" spans="1:15" ht="13.8" thickBot="1">
       <c r="A16" s="33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B16" s="191">
         <v>32001113</v>
@@ -9662,7 +9669,7 @@
         <v>2932598064</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
@@ -9678,7 +9685,7 @@
     </row>
     <row r="17" spans="1:15" ht="13.8" thickBot="1">
       <c r="A17" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B17" s="191">
         <v>32001113</v>
@@ -9687,7 +9694,7 @@
         <v>2932598064</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>214</v>
@@ -9711,7 +9718,7 @@
     </row>
     <row r="18" spans="1:15" ht="13.8" thickBot="1">
       <c r="A18" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B18" s="191">
         <v>32001113</v>
@@ -9720,7 +9727,7 @@
         <v>2932598064</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -9730,7 +9737,7 @@
     </row>
     <row r="19" spans="1:15" ht="13.8" thickBot="1">
       <c r="A19" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B19" s="191">
         <v>32001113</v>
@@ -9739,16 +9746,16 @@
         <v>2932598064</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E19" s="204" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="204" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G19" s="204" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H19" s="81" t="s">
         <v>39</v>
@@ -9802,25 +9809,25 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.8" thickBot="1">
-      <c r="A21" s="240" t="s">
+      <c r="A21" s="238" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="239" t="s">
+        <v>449</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="241" t="s">
+      <c r="D21" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="E21" s="242" t="s">
+      <c r="E21" s="240" t="s">
         <v>216</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G21" s="243" t="s">
+      <c r="G21" s="241" t="s">
         <v>216</v>
       </c>
       <c r="H21" s="206" t="s">
@@ -9830,22 +9837,22 @@
         <v>217</v>
       </c>
       <c r="J21" s="233" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K21" s="233" t="s">
         <v>62</v>
       </c>
       <c r="L21" s="233" t="s">
-        <v>229</v>
-      </c>
-      <c r="M21" s="244" t="s">
+        <v>227</v>
+      </c>
+      <c r="M21" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="245" t="s">
-        <v>446</v>
+      <c r="N21" s="243" t="s">
+        <v>444</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -9886,7 +9893,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>87</v>
@@ -9927,13 +9934,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="86" t="s">
         <v>409</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>411</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="14"/>
@@ -9952,13 +9959,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>309</v>
-      </c>
       <c r="D3" s="86" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="14"/>
@@ -9977,22 +9984,22 @@
         <v>105</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>309</v>
-      </c>
       <c r="D4" s="86" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>39</v>
@@ -10013,7 +10020,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>73</v>
@@ -10021,25 +10028,25 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>411</v>
-      </c>
       <c r="E5" s="72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>39</v>
@@ -10060,7 +10067,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>73</v>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DatosRegresion" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="457">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -467,9 +467,6 @@
   </si>
   <si>
     <t>38452795</t>
-  </si>
-  <si>
-    <t>19006577</t>
   </si>
   <si>
     <t>59885133</t>
@@ -2914,7 +2911,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="211" customFormat="1" ht="15.6">
       <c r="A1" s="209" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" s="210" t="s">
         <v>16</v>
@@ -2944,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="210" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L1" s="210" t="s">
         <v>123</v>
@@ -2956,42 +2953,42 @@
         <v>125</v>
       </c>
       <c r="O1" s="210" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.8" customHeight="1">
       <c r="A2" s="212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="91" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="115" t="s">
         <v>412</v>
       </c>
-      <c r="C2" s="115" t="s">
-        <v>413</v>
-      </c>
       <c r="D2" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" s="90" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H2" s="92" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K2" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L2" s="90" t="s">
         <v>33</v>
@@ -3000,35 +2997,35 @@
         <v>34</v>
       </c>
       <c r="N2" s="177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O2" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="214" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="E3" s="90" t="s">
         <v>326</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6">
       <c r="A4" s="215" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>329</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>330</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>86</v>
@@ -3037,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="216" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F4" s="216" t="s">
         <v>88</v>
@@ -3052,41 +3049,41 @@
         <v>90</v>
       </c>
       <c r="J4" s="216" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="216" t="s">
         <v>332</v>
-      </c>
-      <c r="K4" s="216" t="s">
-        <v>333</v>
       </c>
       <c r="L4" s="216" t="s">
         <v>93</v>
       </c>
       <c r="M4" s="216" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N4" s="217"/>
       <c r="O4" s="217"/>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="218" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E5" s="219" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="219" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="219" t="s">
-        <v>215</v>
-      </c>
       <c r="G5" s="220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H5" s="177" t="s">
         <v>39</v>
@@ -3104,17 +3101,17 @@
         <v>38</v>
       </c>
       <c r="M5" s="222" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N5" s="223"/>
       <c r="O5" s="223"/>
     </row>
     <row r="6" spans="1:15" ht="15.6">
       <c r="A6" s="215" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="216" t="s">
         <v>16</v>
@@ -3123,7 +3120,7 @@
         <v>98</v>
       </c>
       <c r="E6" s="216" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F6" s="216" t="s">
         <v>88</v>
@@ -3138,48 +3135,48 @@
         <v>90</v>
       </c>
       <c r="J6" s="216" t="s">
+        <v>331</v>
+      </c>
+      <c r="K6" s="216" t="s">
         <v>332</v>
-      </c>
-      <c r="K6" s="216" t="s">
-        <v>333</v>
       </c>
       <c r="L6" s="216" t="s">
         <v>93</v>
       </c>
       <c r="M6" s="216" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N6" s="217"/>
       <c r="O6" s="217"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="214" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D7" s="224" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N7" s="223"/>
       <c r="O7" s="223"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" s="224" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E8" s="220"/>
       <c r="F8" s="177"/>
@@ -3195,25 +3192,25 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="214" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D9" s="224" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E9" s="219" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="177" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="177" t="s">
-        <v>215</v>
-      </c>
       <c r="G9" s="220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H9" s="177" t="s">
         <v>39</v>
@@ -3231,14 +3228,14 @@
         <v>38</v>
       </c>
       <c r="M9" s="222" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N9" s="223"/>
       <c r="O9" s="223"/>
     </row>
     <row r="10" spans="1:15" ht="15.6">
       <c r="A10" s="215" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B10" s="94" t="s">
         <v>0</v>
@@ -3247,7 +3244,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="225" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E10" s="95" t="s">
         <v>87</v>
@@ -3281,53 +3278,53 @@
     </row>
     <row r="11" spans="1:15" ht="15">
       <c r="A11" s="214" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="91" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="D11" s="227" t="s">
         <v>408</v>
-      </c>
-      <c r="D11" s="227" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="214" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="91" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="D12" s="227" t="s">
         <v>408</v>
-      </c>
-      <c r="D12" s="227" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="214" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B13" s="91" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="D13" s="227" t="s">
         <v>408</v>
       </c>
-      <c r="D13" s="227" t="s">
-        <v>409</v>
-      </c>
       <c r="E13" s="219" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="177" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="177" t="s">
-        <v>215</v>
-      </c>
       <c r="G13" s="220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H13" s="177" t="s">
         <v>39</v>
@@ -3345,7 +3342,7 @@
         <v>38</v>
       </c>
       <c r="M13" s="222" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3962,7 +3959,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.8" thickBot="1">
       <c r="A8" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="188">
         <v>22222035</v>
@@ -3975,7 +3972,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.8" thickBot="1">
       <c r="A9" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="178">
         <v>38010576</v>
@@ -3990,7 +3987,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.8" thickBot="1">
       <c r="A10" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="178">
         <v>38010576</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.8" thickBot="1">
       <c r="A11" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="178">
         <v>38010576</v>
@@ -4020,7 +4017,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.8" thickBot="1">
       <c r="A12" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="178">
         <v>38010576</v>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.8" thickBot="1">
       <c r="A13" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="178">
         <v>38010576</v>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.8" thickBot="1">
       <c r="A14" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="178">
         <v>38010576</v>
@@ -4172,10 +4169,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="74"/>
@@ -4199,10 +4196,10 @@
         <v>134</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="74"/>
@@ -4223,13 +4220,13 @@
     </row>
     <row r="4" spans="1:19" s="21" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>210</v>
-      </c>
       <c r="C4" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="74"/>
@@ -4250,49 +4247,49 @@
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="80" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="H5" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="I5" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="72" t="s">
         <v>215</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>216</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>62</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P5" s="81" t="s">
         <v>20</v>
@@ -4301,28 +4298,28 @@
         <v>33332010</v>
       </c>
       <c r="R5" s="244" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S5" s="245"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="80" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4355,18 +4352,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4394,37 +4391,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>249</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
@@ -4546,25 +4543,25 @@
     </row>
     <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>253</v>
-      </c>
       <c r="D11" s="208" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -4619,21 +4616,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="35"/>
@@ -4641,16 +4638,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4721,59 +4718,59 @@
         <v>15</v>
       </c>
       <c r="K1" s="94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L1" s="94" t="s">
         <v>123</v>
       </c>
       <c r="M1" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="N1" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="O1" s="94" t="s">
         <v>273</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="136" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="90" t="s">
-        <v>318</v>
-      </c>
       <c r="F3" s="90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="102" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K3" s="100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L3" s="100" t="s">
         <v>33</v>
@@ -4782,24 +4779,24 @@
         <v>34</v>
       </c>
       <c r="N3" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" s="103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="137" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="90" t="s">
         <v>302</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>303</v>
       </c>
       <c r="E4" s="90" t="s">
         <v>57</v>
@@ -4817,40 +4814,40 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="115" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="100" t="s">
-        <v>320</v>
-      </c>
       <c r="D5" s="90" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>292</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>293</v>
       </c>
       <c r="F5" s="90" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="90" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L5" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M5" s="90" t="s">
         <v>33</v>
@@ -4859,24 +4856,24 @@
         <v>34</v>
       </c>
       <c r="O5" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P5" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="C6" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="D6" s="91" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>200</v>
       </c>
       <c r="E6" s="91" t="s">
         <v>57</v>
@@ -4885,16 +4882,16 @@
         <v>10</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="91" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K6" s="91" t="s">
         <v>33</v>
@@ -4909,19 +4906,19 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
@@ -4935,21 +4932,21 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="102">
         <v>16552744</v>
@@ -4957,42 +4954,42 @@
     </row>
     <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="115" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="115" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" s="90" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="91" t="s">
-        <v>196</v>
-      </c>
       <c r="H11" s="92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I11" s="102" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K11" s="100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L11" s="100" t="s">
         <v>33</v>
@@ -5001,18 +4998,18 @@
         <v>34</v>
       </c>
       <c r="N11" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O11" s="103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="102">
         <v>22355504</v>
@@ -5020,13 +5017,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" s="115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>10</v>
@@ -5035,33 +5032,33 @@
         <v>33649</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="98" t="s">
         <v>285</v>
-      </c>
-      <c r="B14" s="115" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="115" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>294</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>286</v>
       </c>
       <c r="F14" s="98" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H14" s="139" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I14" s="138">
         <v>45703</v>
@@ -5069,28 +5066,28 @@
     </row>
     <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="136" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15" s="115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D15" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="91" t="s">
         <v>189</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>190</v>
       </c>
       <c r="F15" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H15" s="123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I15" s="91"/>
       <c r="J15" s="91"/>
@@ -5101,16 +5098,16 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="90" t="s">
         <v>302</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>303</v>
       </c>
       <c r="E16" s="90" t="s">
         <v>57</v>
@@ -5119,19 +5116,19 @@
         <v>10</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="102" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K16" s="100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L16" s="100" t="s">
         <v>33</v>
@@ -5140,41 +5137,41 @@
         <v>34</v>
       </c>
       <c r="N16" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O16" s="103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="115" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>301</v>
-      </c>
       <c r="E18" s="90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I18" s="90"/>
       <c r="J18" s="90"/>
@@ -5188,49 +5185,49 @@
         <v>2932598064</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C19" s="141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D19" s="141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="142" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H19" s="141" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J19" s="141" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K19" s="141" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L19" s="141" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M19" s="144" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N19" s="141" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O19" s="141" t="s">
         <v>61</v>
       </c>
       <c r="P19" s="141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="31.2">
@@ -5263,30 +5260,30 @@
         <v>15</v>
       </c>
       <c r="K21" s="94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L21" s="94" t="s">
         <v>123</v>
       </c>
       <c r="M21" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="N21" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="N21" s="94" t="s">
+      <c r="O21" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="O21" s="94" t="s">
-        <v>274</v>
-      </c>
       <c r="P21" s="133" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q21" s="133" t="s">
         <v>366</v>
-      </c>
-      <c r="Q21" s="133" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.4">
       <c r="A22" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B22" s="146"/>
       <c r="C22" s="34"/>
@@ -5309,7 +5306,7 @@
     </row>
     <row r="23" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A23" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B23" s="146"/>
       <c r="C23" s="34"/>
@@ -5332,7 +5329,7 @@
     </row>
     <row r="24" spans="1:20" s="114" customFormat="1" ht="14.4" customHeight="1">
       <c r="A24" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" s="146"/>
       <c r="C24" s="34"/>
@@ -5355,7 +5352,7 @@
     </row>
     <row r="25" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A25" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25" s="146"/>
       <c r="C25" s="34"/>
@@ -5378,7 +5375,7 @@
     </row>
     <row r="26" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A26" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B26" s="146"/>
       <c r="C26" s="34"/>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="27" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A27" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B27" s="146"/>
       <c r="C27" s="34"/>
@@ -5424,7 +5421,7 @@
     </row>
     <row r="28" spans="1:20" s="114" customFormat="1" ht="14.4">
       <c r="A28" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B28" s="147"/>
       <c r="C28" s="34"/>
@@ -5447,7 +5444,7 @@
     </row>
     <row r="29" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A29" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B29" s="147"/>
       <c r="C29" s="34"/>
@@ -5470,7 +5467,7 @@
     </row>
     <row r="30" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A30" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B30" s="147"/>
       <c r="C30" s="34"/>
@@ -5493,7 +5490,7 @@
     </row>
     <row r="31" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A31" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" s="147"/>
       <c r="C31" s="34"/>
@@ -5516,7 +5513,7 @@
     </row>
     <row r="32" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A32" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B32" s="147"/>
       <c r="C32" s="34"/>
@@ -5539,7 +5536,7 @@
     </row>
     <row r="33" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A33" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" s="147"/>
       <c r="C33" s="34"/>
@@ -5562,7 +5559,7 @@
     </row>
     <row r="34" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A34" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B34" s="147"/>
       <c r="C34" s="34"/>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="35" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A35" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B35" s="160"/>
       <c r="C35" s="34"/>
@@ -5608,7 +5605,7 @@
     </row>
     <row r="36" spans="1:20" ht="14.4">
       <c r="A36" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B36" s="147"/>
       <c r="C36" s="34"/>
@@ -5682,652 +5679,652 @@
         <v>15</v>
       </c>
       <c r="K42" s="95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L42" s="95" t="s">
         <v>123</v>
       </c>
       <c r="M42" s="95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N42" s="95" t="s">
         <v>125</v>
       </c>
       <c r="O42" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P42" s="132" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q42" s="133" t="s">
         <v>365</v>
       </c>
-      <c r="Q42" s="133" t="s">
+      <c r="R42" s="133" t="s">
         <v>366</v>
       </c>
-      <c r="R42" s="133" t="s">
+      <c r="S42" s="133" t="s">
         <v>367</v>
       </c>
-      <c r="S42" s="133" t="s">
+      <c r="T42" s="133" t="s">
         <v>368</v>
-      </c>
-      <c r="T42" s="133" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A43" s="197"/>
       <c r="B43" s="198" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C43" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" s="112" t="s">
         <v>383</v>
       </c>
-      <c r="D43" s="112" t="s">
-        <v>384</v>
-      </c>
       <c r="E43" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F43" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G43" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H43" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I43" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J43" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H43" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I43" s="100" t="s">
+      <c r="K43" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L43" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N43" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J43" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K43" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L43" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M43" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N43" s="177" t="s">
+      <c r="O43" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P43" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O43" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P43" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q43" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R43" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S43" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T43" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A44" s="99" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B44" s="199">
         <v>2932598371</v>
       </c>
       <c r="C44" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D44" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E44" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F44" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G44" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H44" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I44" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J44" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H44" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I44" s="100" t="s">
+      <c r="K44" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L44" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M44" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N44" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J44" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K44" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L44" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M44" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N44" s="177" t="s">
+      <c r="O44" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P44" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O44" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P44" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q44" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R44" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S44" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T44" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A45" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B45" s="200">
         <v>2932598372</v>
       </c>
       <c r="C45" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D45" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E45" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F45" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H45" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I45" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H45" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I45" s="100" t="s">
+      <c r="K45" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L45" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N45" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J45" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K45" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L45" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M45" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N45" s="177" t="s">
+      <c r="O45" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P45" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O45" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P45" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q45" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R45" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S45" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T45" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A46" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B46" s="200">
         <v>2932598373</v>
       </c>
       <c r="C46" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D46" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E46" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F46" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G46" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H46" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I46" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H46" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I46" s="100" t="s">
+      <c r="K46" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L46" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N46" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J46" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K46" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L46" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M46" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N46" s="177" t="s">
+      <c r="O46" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P46" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O46" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P46" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q46" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R46" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S46" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T46" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A47" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B47" s="200">
         <v>2932598374</v>
       </c>
       <c r="C47" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D47" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E47" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F47" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G47" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H47" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I47" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H47" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I47" s="100" t="s">
+      <c r="K47" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L47" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N47" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J47" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K47" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L47" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M47" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N47" s="177" t="s">
+      <c r="O47" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P47" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O47" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P47" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q47" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R47" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S47" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T47" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A48" s="99" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B48" s="200">
         <v>2932598375</v>
       </c>
       <c r="C48" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E48" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F48" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I48" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H48" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I48" s="100" t="s">
+      <c r="K48" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L48" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M48" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N48" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J48" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K48" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L48" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M48" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N48" s="177" t="s">
+      <c r="O48" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P48" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O48" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P48" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q48" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R48" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S48" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T48" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A49" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B49" s="200">
         <v>2932598376</v>
       </c>
       <c r="C49" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D49" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E49" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F49" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H49" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J49" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H49" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I49" s="100" t="s">
+      <c r="K49" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L49" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M49" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N49" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J49" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K49" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L49" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M49" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N49" s="177" t="s">
+      <c r="O49" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P49" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O49" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P49" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q49" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R49" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S49" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T49" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A50" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B50" s="200">
         <v>2932598377</v>
       </c>
       <c r="C50" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E50" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F50" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I50" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J50" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H50" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I50" s="100" t="s">
+      <c r="K50" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L50" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M50" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N50" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J50" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K50" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L50" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M50" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N50" s="177" t="s">
+      <c r="O50" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P50" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O50" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P50" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q50" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R50" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S50" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T50" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A51" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" s="201">
         <v>2932598482</v>
       </c>
       <c r="C51" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E51" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F51" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H51" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I51" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H51" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I51" s="100" t="s">
+      <c r="K51" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L51" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N51" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J51" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K51" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L51" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M51" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N51" s="177" t="s">
+      <c r="O51" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P51" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O51" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P51" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q51" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R51" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S51" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T51" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="156" customFormat="1" ht="14.4">
       <c r="A52" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B52" s="201">
         <v>2932598441</v>
       </c>
       <c r="C52" s="175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D52" s="112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E52" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F52" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H52" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I52" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="J52" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="H52" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="I52" s="100" t="s">
+      <c r="K52" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L52" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M52" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="N52" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="J52" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K52" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="L52" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="M52" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="N52" s="177" t="s">
+      <c r="O52" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="P52" s="99" t="s">
         <v>379</v>
-      </c>
-      <c r="O52" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="P52" s="99" t="s">
-        <v>380</v>
       </c>
       <c r="Q52" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R52" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S52" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T52" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="156" customFormat="1" ht="14.4">
@@ -6936,49 +6933,49 @@
         <v>2932598206</v>
       </c>
       <c r="B140" s="149" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C140" s="149" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D140" s="149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E140" s="149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F140" s="150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G140" s="151" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H140" s="149" t="s">
         <v>13</v>
       </c>
       <c r="I140" s="149" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J140" s="149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K140" s="149" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L140" s="149" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M140" s="149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N140" s="149" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O140" s="149" t="s">
         <v>61</v>
       </c>
       <c r="P140" s="149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15">
@@ -6986,49 +6983,49 @@
         <v>2932598207</v>
       </c>
       <c r="B141" s="153" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C141" s="153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D141" s="153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E141" s="153" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F141" s="154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G141" s="155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H141" s="153" t="s">
         <v>13</v>
       </c>
       <c r="I141" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J141" s="153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K141" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L141" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M141" s="153" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N141" s="153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O141" s="149" t="s">
         <v>61</v>
       </c>
       <c r="P141" s="149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J1" s="94" t="s">
         <v>14</v>
@@ -7118,19 +7115,19 @@
         <v>15</v>
       </c>
       <c r="L1" s="95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M1" s="95" t="s">
         <v>123</v>
       </c>
       <c r="N1" s="95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O1" s="95" t="s">
         <v>125</v>
       </c>
       <c r="P1" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="96" t="s">
         <v>103</v>
@@ -7165,10 +7162,10 @@
       </c>
       <c r="B2" s="100"/>
       <c r="C2" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="99" t="s">
         <v>278</v>
-      </c>
-      <c r="D2" s="99" t="s">
-        <v>279</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>10</v>
@@ -7186,13 +7183,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="102" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K2" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L2" s="100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M2" s="100" t="s">
         <v>33</v>
@@ -7201,10 +7198,10 @@
         <v>34</v>
       </c>
       <c r="O2" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P2" s="103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="100"/>
     </row>
@@ -7235,7 +7232,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K3" s="102" t="s">
         <v>33</v>
@@ -7285,7 +7282,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K4" s="102" t="s">
         <v>33</v>
@@ -7423,7 +7420,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="114" t="s">
         <v>2</v>
@@ -7457,7 +7454,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" s="114" t="s">
         <v>2</v>
@@ -7557,7 +7554,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="98" t="s">
         <v>42</v>
@@ -7584,7 +7581,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L10" s="100" t="s">
         <v>33</v>
@@ -7631,7 +7628,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="117" t="s">
         <v>33</v>
@@ -7702,7 +7699,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L12" s="115"/>
       <c r="M12" s="91"/>
@@ -7746,7 +7743,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L13" s="100" t="s">
         <v>33</v>
@@ -7813,7 +7810,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="102" t="s">
         <v>2</v>
@@ -7839,7 +7836,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="114" t="s">
         <v>2</v>
@@ -7923,7 +7920,7 @@
         <v>138</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="115" t="s">
         <v>66</v>
@@ -7985,7 +7982,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K19" s="115" t="s">
         <v>33</v>
@@ -8265,7 +8262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -8293,10 +8290,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>432</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>433</v>
       </c>
       <c r="D2" s="49"/>
     </row>
@@ -8305,10 +8302,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="D3" s="49"/>
     </row>
@@ -8320,19 +8317,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>454</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>455</v>
       </c>
       <c r="D5" s="49"/>
     </row>
@@ -8341,82 +8338,82 @@
         <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>456</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>457</v>
       </c>
       <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>185</v>
       </c>
       <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>449</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>450</v>
       </c>
       <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="D12" s="49"/>
     </row>
@@ -8437,7 +8434,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>82</v>
@@ -8449,10 +8446,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>182</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>183</v>
       </c>
       <c r="D15" s="49"/>
     </row>
@@ -8492,8 +8489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8504,7 +8501,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
@@ -8515,12 +8512,12 @@
         <v>131</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>0</v>
@@ -8531,12 +8528,12 @@
         <v>132</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>145</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>0</v>
@@ -8544,7 +8541,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>144</v>
@@ -8552,7 +8549,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>0</v>
@@ -8560,15 +8557,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="49">
         <v>30998801</v>
@@ -8642,10 +8639,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="56"/>
@@ -8654,38 +8651,38 @@
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>310</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>311</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
@@ -8695,13 +8692,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>55</v>
@@ -8711,13 +8708,13 @@
     </row>
     <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>3</v>
@@ -8728,10 +8725,10 @@
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="49"/>
@@ -8741,16 +8738,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="50" t="s">
         <v>430</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>431</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="49"/>
@@ -8758,7 +8755,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>0</v>
@@ -8767,7 +8764,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -8775,16 +8772,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>437</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>438</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -8807,22 +8804,22 @@
     </row>
     <row r="12" spans="1:7" s="14" customFormat="1">
       <c r="A12" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="236" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="236" t="s">
+      <c r="C12" s="236" t="s">
         <v>444</v>
       </c>
-      <c r="C12" s="236" t="s">
-        <v>445</v>
-      </c>
       <c r="D12" s="47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G12" s="234"/>
     </row>
@@ -8831,10 +8828,10 @@
         <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>426</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>427</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
@@ -8843,34 +8840,34 @@
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="15">
       <c r="A14" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>427</v>
-      </c>
       <c r="D14" s="47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="54" t="s">
         <v>3</v>
@@ -8879,67 +8876,67 @@
         <v>4</v>
       </c>
       <c r="F15" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>168</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="F16" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="G16" s="85" t="s">
         <v>441</v>
-      </c>
-      <c r="G16" s="85" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="C17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="49" t="s">
+      <c r="E17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="49" t="s">
         <v>172</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="15.6">
       <c r="A18" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="237"/>
@@ -8948,13 +8945,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B19" s="236" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" s="236" t="s">
         <v>444</v>
-      </c>
-      <c r="C19" s="236" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -9025,7 +9022,7 @@
         <v>93</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="16.8" thickBot="1">
@@ -9033,13 +9030,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="232" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>434</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>435</v>
       </c>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
@@ -9056,46 +9053,46 @@
         <v>80</v>
       </c>
       <c r="B3" s="232" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>435</v>
-      </c>
       <c r="E3" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="G3" s="192" t="s">
         <v>215</v>
-      </c>
-      <c r="G3" s="192" t="s">
-        <v>216</v>
       </c>
       <c r="H3" s="81" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" s="233" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K3" s="233" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="233" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M3" s="81" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="233" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O3" s="194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.8" thickBot="1">
@@ -9103,28 +9100,28 @@
         <v>71</v>
       </c>
       <c r="B4" s="232" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>434</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>435</v>
       </c>
       <c r="E4" s="192" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" s="208" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H4" s="208" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="206" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J4" s="81">
         <v>6</v>
@@ -9142,7 +9139,7 @@
         <v>33332002</v>
       </c>
       <c r="O4" s="194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -9238,7 +9235,7 @@
     </row>
     <row r="2" spans="1:15" s="196" customFormat="1" ht="16.2" thickBot="1">
       <c r="A2" s="202" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" s="203"/>
       <c r="C2" s="202"/>
@@ -9257,7 +9254,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.8" thickBot="1">
       <c r="A3" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="191">
         <v>32001113</v>
@@ -9266,22 +9263,22 @@
         <v>2932598064</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="G3" s="192" t="s">
         <v>215</v>
-      </c>
-      <c r="G3" s="192" t="s">
-        <v>216</v>
       </c>
       <c r="H3" s="81" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" s="81">
         <v>6</v>
@@ -9299,12 +9296,12 @@
         <v>33332002</v>
       </c>
       <c r="O3" s="194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.8" thickBot="1">
       <c r="A4" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="191">
         <v>32001113</v>
@@ -9313,7 +9310,7 @@
         <v>2932598064</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4" s="192"/>
       <c r="F4" s="81"/>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.8" thickBot="1">
       <c r="A5" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B5" s="191">
         <v>32001113</v>
@@ -9338,16 +9335,16 @@
         <v>2932598064</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E5" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="G5" s="192" t="s">
         <v>215</v>
-      </c>
-      <c r="G5" s="192" t="s">
-        <v>216</v>
       </c>
       <c r="H5" s="81" t="s">
         <v>39</v>
@@ -9362,7 +9359,7 @@
     </row>
     <row r="6" spans="1:15" s="196" customFormat="1" ht="13.8" thickBot="1">
       <c r="A6" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B6" s="191">
         <v>32001113</v>
@@ -9371,7 +9368,7 @@
         <v>2932598064</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E6" s="192"/>
       <c r="F6" s="81"/>
@@ -9387,7 +9384,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.8" thickBot="1">
       <c r="A7" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="191">
         <v>32001113</v>
@@ -9396,16 +9393,16 @@
         <v>2932598064</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E7" s="204" t="s">
         <v>101</v>
       </c>
       <c r="F7" s="204" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" s="204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" s="81" t="s">
         <v>39</v>
@@ -9429,16 +9426,16 @@
         <v>2932598064</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="G8" s="192" t="s">
         <v>215</v>
-      </c>
-      <c r="G8" s="192" t="s">
-        <v>216</v>
       </c>
       <c r="H8" s="81" t="s">
         <v>39</v>
@@ -9453,7 +9450,7 @@
     </row>
     <row r="9" spans="1:15" ht="16.2" thickBot="1">
       <c r="A9" s="202" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" s="203"/>
       <c r="C9" s="202"/>
@@ -9472,7 +9469,7 @@
     </row>
     <row r="10" spans="1:15" s="196" customFormat="1" ht="13.8" thickBot="1">
       <c r="A10" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="191">
         <v>32001113</v>
@@ -9481,22 +9478,22 @@
         <v>2932598064</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="G10" s="192" t="s">
         <v>215</v>
-      </c>
-      <c r="G10" s="192" t="s">
-        <v>216</v>
       </c>
       <c r="H10" s="81" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J10" s="81">
         <v>6</v>
@@ -9514,12 +9511,12 @@
         <v>33332002</v>
       </c>
       <c r="O10" s="194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="13.8" thickBot="1">
       <c r="A11" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B11" s="191">
         <v>32001113</v>
@@ -9528,7 +9525,7 @@
         <v>2932598064</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" s="192"/>
       <c r="F11" s="81"/>
@@ -9544,7 +9541,7 @@
     </row>
     <row r="12" spans="1:15" ht="13.8" thickBot="1">
       <c r="A12" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="191">
         <v>32001113</v>
@@ -9553,7 +9550,7 @@
         <v>2932598064</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="192"/>
       <c r="F12" s="81"/>
@@ -9569,7 +9566,7 @@
     </row>
     <row r="13" spans="1:15" ht="13.8" thickBot="1">
       <c r="A13" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="191">
         <v>32001113</v>
@@ -9578,22 +9575,22 @@
         <v>2932598064</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="G13" s="192" t="s">
         <v>215</v>
-      </c>
-      <c r="G13" s="192" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="81" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J13" s="81">
         <v>6</v>
@@ -9611,12 +9608,12 @@
         <v>33332002</v>
       </c>
       <c r="O13" s="194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.2" thickBot="1">
       <c r="A14" s="202" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="202"/>
@@ -9644,7 +9641,7 @@
         <v>2932598064</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E15" s="192"/>
       <c r="F15" s="81"/>
@@ -9660,7 +9657,7 @@
     </row>
     <row r="16" spans="1:15" ht="13.8" thickBot="1">
       <c r="A16" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16" s="191">
         <v>32001113</v>
@@ -9669,7 +9666,7 @@
         <v>2932598064</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
@@ -9685,7 +9682,7 @@
     </row>
     <row r="17" spans="1:15" ht="13.8" thickBot="1">
       <c r="A17" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" s="191">
         <v>32001113</v>
@@ -9694,16 +9691,16 @@
         <v>2932598064</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E17" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="G17" s="192" t="s">
         <v>215</v>
-      </c>
-      <c r="G17" s="192" t="s">
-        <v>216</v>
       </c>
       <c r="H17" s="81" t="s">
         <v>39</v>
@@ -9718,7 +9715,7 @@
     </row>
     <row r="18" spans="1:15" ht="13.8" thickBot="1">
       <c r="A18" s="33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B18" s="191">
         <v>32001113</v>
@@ -9727,7 +9724,7 @@
         <v>2932598064</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -9737,7 +9734,7 @@
     </row>
     <row r="19" spans="1:15" ht="13.8" thickBot="1">
       <c r="A19" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B19" s="191">
         <v>32001113</v>
@@ -9746,16 +9743,16 @@
         <v>2932598064</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E19" s="204" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="204" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" s="204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" s="81" t="s">
         <v>39</v>
@@ -9810,49 +9807,49 @@
     </row>
     <row r="21" spans="1:15" ht="13.8" thickBot="1">
       <c r="A21" s="238" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" s="239" t="s">
         <v>448</v>
       </c>
-      <c r="B21" s="239" t="s">
+      <c r="C21" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>451</v>
-      </c>
       <c r="E21" s="240" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="241" t="s">
         <v>215</v>
-      </c>
-      <c r="G21" s="241" t="s">
-        <v>216</v>
       </c>
       <c r="H21" s="206" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="233" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J21" s="233" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K21" s="233" t="s">
         <v>62</v>
       </c>
       <c r="L21" s="233" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M21" s="242" t="s">
         <v>20</v>
       </c>
       <c r="N21" s="243" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -9893,7 +9890,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>87</v>
@@ -9934,13 +9931,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="86" t="s">
         <v>408</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>409</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="14"/>
@@ -9959,13 +9956,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="86" t="s">
         <v>305</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>306</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="14"/>
@@ -9984,22 +9981,22 @@
         <v>105</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>306</v>
-      </c>
       <c r="E4" s="72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>39</v>
@@ -10020,7 +10017,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>73</v>
@@ -10028,25 +10025,25 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="86" t="s">
-        <v>409</v>
-      </c>
       <c r="E5" s="72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>39</v>
@@ -10067,7 +10064,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>73</v>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DatosRegresion" sheetId="25" r:id="rId1"/>
@@ -18,21 +18,22 @@
     <sheet name="dni linea" sheetId="15" r:id="rId4"/>
     <sheet name="dni" sheetId="14" r:id="rId5"/>
     <sheet name="clientes" sheetId="16" r:id="rId6"/>
-    <sheet name="recargas" sheetId="18" r:id="rId7"/>
-    <sheet name="venta de pack" sheetId="17" r:id="rId8"/>
-    <sheet name="renovacion" sheetId="12" r:id="rId9"/>
-    <sheet name="numeros amigos" sheetId="20" r:id="rId10"/>
-    <sheet name="cambio de simcard" sheetId="19" r:id="rId11"/>
-    <sheet name="befan" sheetId="22" r:id="rId12"/>
-    <sheet name="seriales" sheetId="23" r:id="rId13"/>
-    <sheet name="servicio tecnico" sheetId="24" r:id="rId14"/>
+    <sheet name="CAPRO" sheetId="26" r:id="rId7"/>
+    <sheet name="recargas" sheetId="18" r:id="rId8"/>
+    <sheet name="venta de pack" sheetId="17" r:id="rId9"/>
+    <sheet name="renovacion" sheetId="12" r:id="rId10"/>
+    <sheet name="numeros amigos" sheetId="20" r:id="rId11"/>
+    <sheet name="cambio de simcard" sheetId="19" r:id="rId12"/>
+    <sheet name="befan" sheetId="22" r:id="rId13"/>
+    <sheet name="seriales" sheetId="23" r:id="rId14"/>
+    <sheet name="servicio tecnico" sheetId="24" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="452">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -1385,13 +1386,16 @@
   </si>
   <si>
     <t>3537317039</t>
+  </si>
+  <si>
+    <t>Cambio de Plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1669,6 +1673,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2023,7 +2034,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2550,15 +2561,17 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
@@ -3800,6 +3813,224 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.6">
+      <c r="A1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15">
+      <c r="A2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
+      <c r="A3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15">
+      <c r="A5" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4057,7 +4288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
@@ -4262,10 +4493,10 @@
       <c r="Q5" s="75">
         <v>33332010</v>
       </c>
-      <c r="R5" s="238" t="s">
+      <c r="R5" s="239" t="s">
         <v>216</v>
       </c>
-      <c r="S5" s="239"/>
+      <c r="S5" s="240"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="59" t="s">
@@ -4301,7 +4532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4336,7 +4567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4429,7 +4660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -8213,7 +8444,7 @@
       <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" s="14" customFormat="1" ht="15.6">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="238" t="s">
         <v>448</v>
       </c>
       <c r="B10" s="230" t="s">
@@ -8442,7 +8673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -8804,6 +9035,164 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="241" customFormat="1">
+      <c r="B1" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
@@ -9000,7 +9389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
@@ -9696,222 +10085,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
-      <c r="A1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>397</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
-      <c r="A5" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DatosRegresion" sheetId="25" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="450">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -1359,12 +1359,6 @@
   </si>
   <si>
     <t>2932598655</t>
-  </si>
-  <si>
-    <t>3344455</t>
-  </si>
-  <si>
-    <t>2932449451</t>
   </si>
   <si>
     <t>94949489</t>
@@ -2564,14 +2558,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
@@ -4493,10 +4487,10 @@
       <c r="Q5" s="75">
         <v>33332010</v>
       </c>
-      <c r="R5" s="239" t="s">
+      <c r="R5" s="241" t="s">
         <v>216</v>
       </c>
-      <c r="S5" s="240"/>
+      <c r="S5" s="242"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="59" t="s">
@@ -4591,13 +4585,13 @@
         <v>238</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>239</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
@@ -8324,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -8388,10 +8382,10 @@
         <v>219</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D5" s="43"/>
     </row>
@@ -8400,10 +8394,10 @@
         <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D6" s="43"/>
     </row>
@@ -8445,7 +8439,7 @@
     </row>
     <row r="10" spans="1:4" s="14" customFormat="1" ht="15.6">
       <c r="A10" s="238" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B10" s="230" t="s">
         <v>437</v>
@@ -8710,10 +8704,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="50"/>
@@ -9038,7 +9032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9047,17 +9041,17 @@
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="241" customFormat="1">
-      <c r="B1" s="242" t="s">
+    <row r="1" spans="1:3" s="239" customFormat="1">
+      <c r="B1" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="240" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
